--- a/src/resources/Docs/Java-Interview-Questions.xlsx
+++ b/src/resources/Docs/Java-Interview-Questions.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="670">
   <si>
     <t>Company</t>
   </si>
@@ -215,9 +215,6 @@
     <t>What are JWT Tokens, how to implement</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>Synchronization</t>
   </si>
   <si>
@@ -798,9 +795,6 @@
     <t>Build</t>
   </si>
   <si>
-    <t>Design Patterns you worked, explain Sington</t>
-  </si>
-  <si>
     <t>Explain about the Collection Hierarchy</t>
   </si>
   <si>
@@ -941,9 +935,6 @@
   </si>
   <si>
     <t>Mgmt</t>
-  </si>
-  <si>
-    <t>Why should I take</t>
   </si>
   <si>
     <t>EnableAutoConfiguration internal working</t>
@@ -1151,9 +1142,6 @@
   </si>
   <si>
     <t>What are Java Memory Areas available explain</t>
-  </si>
-  <si>
-    <t>What is String Pool</t>
   </si>
   <si>
     <t>Explain the Thread Life Cycle</t>
@@ -1606,13 +1594,957 @@
 Fault Tolerance ensures that the system keeps working even when part of it fails, often without any downtime.</t>
     </r>
   </si>
+  <si>
+    <t>Complexity</t>
+  </si>
+  <si>
+    <t>Complex</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>Implement a User Profile</t>
+  </si>
+  <si>
+    <t>Service Annotation</t>
+  </si>
+  <si>
+    <t>Request Body</t>
+  </si>
+  <si>
+    <t>Rest Controller means</t>
+  </si>
+  <si>
+    <t>Design Patterns you worked, explain Singleton</t>
+  </si>
+  <si>
+    <t>Design Patterns used in Spring Boot, Assembler Pattern</t>
+  </si>
+  <si>
+    <t>Differnce between Aggregator vs Assembler patterns</t>
+  </si>
+  <si>
+    <t>Explain About SAGA Design Pattern, Circuit Breaker</t>
+  </si>
+  <si>
+    <t>Notification</t>
+  </si>
+  <si>
+    <t>How you will notify the server once it is back</t>
+  </si>
+  <si>
+    <t>How will you implement different services Notify Mechanism
+Eg: Amazon Order, Cart, User, Payment</t>
+  </si>
+  <si>
+    <t>Architecural</t>
+  </si>
+  <si>
+    <t>Propose an architecture for a new System. Tell me your approach</t>
+  </si>
+  <si>
+    <t>If you see an architecture what all you understand from it</t>
+  </si>
+  <si>
+    <t>LDAP Authentication, Authorisation with the methods and parameters in it.
+Explain detailly</t>
+  </si>
+  <si>
+    <t>GIT</t>
+  </si>
+  <si>
+    <t>Version Control</t>
+  </si>
+  <si>
+    <t>How you merge the code. Explain Step by Step</t>
+  </si>
+  <si>
+    <t>View Pull Request ?</t>
+  </si>
+  <si>
+    <t>Accenture</t>
+  </si>
+  <si>
+    <t>Authentication, Authorisation with the methods and parameters in it.
+Explain detailly</t>
+  </si>
+  <si>
+    <t>Bean Scope</t>
+  </si>
+  <si>
+    <t>Explain about the Spring Bean Scopes</t>
+  </si>
+  <si>
+    <t>SOA</t>
+  </si>
+  <si>
+    <t>Explain about SOAP based webservices</t>
+  </si>
+  <si>
+    <t>Write code to read the File from local</t>
+  </si>
+  <si>
+    <t>How you write a pdf file to a path</t>
+  </si>
+  <si>
+    <t>YML</t>
+  </si>
+  <si>
+    <t>What are YAML files, how Serialization have significance in it.</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>Do you write queries</t>
+  </si>
+  <si>
+    <t>Prod Support</t>
+  </si>
+  <si>
+    <t>Do you have experience in Production Support</t>
+  </si>
+  <si>
+    <t>Have you worked on Junit Framework</t>
+  </si>
+  <si>
+    <t>Flow</t>
+  </si>
+  <si>
+    <t>Explain the Spring Boot flow similar to Spring MVC flow</t>
+  </si>
+  <si>
+    <t>How to make java exe file. Command to make it ?</t>
+  </si>
+  <si>
+    <t>Mavenier</t>
+  </si>
+  <si>
+    <t>Explain the Struts Flow</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>Explain the Spring Flow</t>
+  </si>
+  <si>
+    <t>SOP</t>
+  </si>
+  <si>
+    <t>Explain about System.out.println, break it down and explain</t>
+  </si>
+  <si>
+    <t>Funtional Interface</t>
+  </si>
+  <si>
+    <t>What is Functional Interface, Explain about Consumer Interface</t>
+  </si>
+  <si>
+    <t>Rest API</t>
+  </si>
+  <si>
+    <t>Write code for GetMapping method</t>
+  </si>
+  <si>
+    <t>Class of Stream in Stream API</t>
+  </si>
+  <si>
+    <t>The actual class of a Stream object is usually ReferencePipeline$Head or other inner classes of ReferencePipeline.
+These are part of Java's internal stream pipeline design, which supports lazy, chained processing using classes like StatelessOp and StatefulOp.</t>
+  </si>
+  <si>
+    <t>Can we extend Funtional Interface</t>
+  </si>
+  <si>
+    <t>Response</t>
+  </si>
+  <si>
+    <t>How you send a large or huge data as a API response</t>
+  </si>
+  <si>
+    <t>Basic</t>
+  </si>
+  <si>
+    <t>Intermediate</t>
+  </si>
+  <si>
+    <t>Advanced</t>
+  </si>
+  <si>
+    <t>Expert</t>
+  </si>
+  <si>
+    <t>Tricky</t>
+  </si>
+  <si>
+    <t>Use pagination or streaming to efficiently send large data.
+For huge or continuous data, prefer streaming APIs or file-based export + download link.
+Always compress large responses and avoid full payloads in memory.</t>
+  </si>
+  <si>
+    <t>What is Meta Space, what does it contains</t>
+  </si>
+  <si>
+    <t>Luxoft</t>
+  </si>
+  <si>
+    <t>Bean Life Cycle</t>
+  </si>
+  <si>
+    <t>Explain about the Life Cycle of a Spring Bean</t>
+  </si>
+  <si>
+    <t>How to implement Transactions in Spring Framework</t>
+  </si>
+  <si>
+    <t>Conditional</t>
+  </si>
+  <si>
+    <t>Explain About the Conditional Annotation in Spring Boot</t>
+  </si>
+  <si>
+    <t>How do you implement Synchronization to list interface</t>
+  </si>
+  <si>
+    <t>How you implement Custom Exceptions in Java</t>
+  </si>
+  <si>
+    <t>Difference between Checked Exception vs Error</t>
+  </si>
+  <si>
+    <t>Significance of Streams API</t>
+  </si>
+  <si>
+    <t>Why should I take you</t>
+  </si>
+  <si>
+    <t>What is String Constant Pool</t>
+  </si>
+  <si>
+    <t>The Strangler Design Pattern is used to gradually refactor or replace a legacy system by routing requests to either the old or the new implementation.
+It enables safe, incremental migration and is widely used in monolith-to-microservice transitions using an API gateway or façade.</t>
+  </si>
+  <si>
+    <t>The Assembler Pattern helps convert between domain models and DTOs. It's essential for separating API layer from business logic and improving maintainability and testability of the code.
+Commonly seen in Spring Boot apps, especially in layered and clean architectures.</t>
+  </si>
+  <si>
+    <t>Candidate</t>
+  </si>
+  <si>
+    <t>SAP Labs</t>
+  </si>
+  <si>
+    <t>SingleTon</t>
+  </si>
+  <si>
+    <t>How you implement Singleton in Spring Boot</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Internally How Spring Does It </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Spring maintains a BeanDefinitionMap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+When you request a bean:
+It first checks if an instance is already available in the singleton cache
+If yes, it returns the same instance
+If no, it creates, caches, and returns it
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>In Spring Boot, beans are Singleton by default</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>. Spring creates a single instance per application context and reuses it.
+You can explicitly define it with @Scope("singleton").
+Internally, Spring uses a singleton cache map to store and retrieve bean instances.</t>
+    </r>
+  </si>
+  <si>
+    <t>Asynchronous</t>
+  </si>
+  <si>
+    <t>How many ways we can implement the Asynchronous in Spring Boot</t>
+  </si>
+  <si>
+    <t>Spring Boot supports async via @Async, CompletableFuture, ExecutorService, and WebFlux.
+Use @Async for simple async tasks, CompletableFuture for chaining, and WebFlux for fully reactive solutions.
+All @Async methods execute using a Spring-managed thread pool (customizable with AsyncConfigurer).</t>
+  </si>
+  <si>
+    <t>Loop through the Linked List and find the length of it</t>
+  </si>
+  <si>
+    <t>Find the Second Highest salary out of employees of fields Id, Salary, Manager</t>
+  </si>
+  <si>
+    <t>Is Spring Bean Singleton Scope Thread-Safe?</t>
+  </si>
+  <si>
+    <t>No, Spring Singleton beans are not inherently thread-safe. Thread safety in Spring beans depends on how the bean is implemented, not just its scope.
+Singleton beans in Spring are not thread-safe by default. If the bean has mutable state, it can lead to concurrency issues when accessed by multiple threads.
+Stateless beans (beans with no mutable state) are thread-safe. For stateful beans, consider synchronizing access, using prototype scope, or using ThreadLocal to ensure thread safety.</t>
+  </si>
+  <si>
+    <t>Aysn Annotation, Completable Future explain</t>
+  </si>
+  <si>
+    <t>Explain about Observer design Pattern</t>
+  </si>
+  <si>
+    <t>Convert a list to an Array</t>
+  </si>
+  <si>
+    <t>Explain about the @NestedQuery Annotation</t>
+  </si>
+  <si>
+    <t>Xylem</t>
+  </si>
+  <si>
+    <t>Write a JDK8 program to sort an employee list by FirstName</t>
+  </si>
+  <si>
+    <t>Write a Program to print Identical values from second map out of two maps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        // Create a set from values of map1
+        Set&lt;String&gt; valuesInMap1 = new HashSet&lt;&gt;(map1.values());
+        // Loop through the values of map2 and check if they exist in map1
+        for (String value : map2.values()) {
+            if (valuesInMap1.contains(value)) {
+                System.out.println("Identical value: " + value);
+            }
+        }</t>
+  </si>
+  <si>
+    <t>Security Implementation in Microservices</t>
+  </si>
+  <si>
+    <t>Difference between Functional Interface and Interface</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>What is Lambda, explain its significance</t>
+  </si>
+  <si>
+    <t>Map&lt;Integer, Integer&gt; map = new HashMap&lt;&gt;();
+map.put(1, null); map.put(2, null);
+map.put(null, 1); map.put(null, 2);
+System.out.println(map);</t>
+  </si>
+  <si>
+    <t>What is the Output
+{null=2, 1=null, 2=null}</t>
+  </si>
+  <si>
+    <t>Two woods are there, both are different in size. Each will take 60 mins to burn. How you will make ensure that both woods should burn in 90 mins</t>
+  </si>
+  <si>
+    <t>Aptitude</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Light the first wood at one end and the second wood at both ends.
+After 30 minutes, light the second end of the first wood. Both will burn completely in 90 minutes.</t>
+  </si>
+  <si>
+    <t>How to handle where Subscribers are Slow and Publishers are fast</t>
+  </si>
+  <si>
+    <t>To handle slow subscribers and fast publishers:
+Backpressure: Use reactive libraries (e.g., Project Reactor or RxJava) to let the subscriber control the flow of data.
+Buffering: Use queues or buffers to hold data temporarily, with overflow strategies like dropping or throttling.
+Rate Limiting: Apply throttling to control the rate of data publication.
+Consumer Pooling: Use parallelism or multi-threading to scale the consumption.
+Prioritize: Implement a priority queue if needed to handle critical data first.</t>
+  </si>
+  <si>
+    <t>API Gateway</t>
+  </si>
+  <si>
+    <t>What does the API Gateway contains</t>
+  </si>
+  <si>
+    <t>An API Gateway typically includes the following components:
+Routing &amp; Request Forwarding: Directs requests to the correct services.
+Authentication &amp; Authorization: Validates user identity and permissions.
+Rate Limiting &amp; Throttling: Manages request load to backend services.
+Load Balancing: Distributes traffic across service instances.
+Caching: Stores frequently requested data for improved performance.
+Request &amp; Response Transformation: Modifies requests/responses as needed.
+Security: Handles SSL termination, IP filtering, etc.
+Monitoring &amp; Logging: Tracks metrics and logs for analysis.
+Service Discovery: Dynamically finds services for routing.
+Cross-Cutting Concerns: Integrates tracing, metrics, etc.
+Protocol Transformation: Converts between different communication protocols.
+Error Handling &amp; Retry: Manages service failures with retries or fallback.</t>
+  </si>
+  <si>
+    <t>Explain the flow of the Microservices</t>
+  </si>
+  <si>
+    <t>Have you implemented Custom Queries</t>
+  </si>
+  <si>
+    <t>Valid</t>
+  </si>
+  <si>
+    <t>explain about @Valid annotation, where to use it</t>
+  </si>
+  <si>
+    <t>Circuit Breaker</t>
+  </si>
+  <si>
+    <t>How you implement Hystrix</t>
+  </si>
+  <si>
+    <t>How you implement Hystrix. Significance of Hystrix Over try-catch Blocks</t>
+  </si>
+  <si>
+    <t>Hystrix is a fault-tolerance library that provides:
+Circuit breakers to isolate failures.
+Fallback mechanisms to provide alternate responses in case of failures.
+Timeouts to prevent hanging calls.
+Asynchronous execution for parallel handling.
+Metrics and monitoring to track system health.
+Thread pooling and resource management for efficient resource usage.
+In contrast, try-catch blocks are simple error handling mechanisms used to catch and handle exceptions in a single execution flow. While useful for catching local errors, they do not provide the fault tolerance, resilience, or distributed system-specific features that Hystrix offers.
+Hystrix is a distributed system resilience tool, offering circuit breakers, fallbacks, timeouts, monitoring, and resource management.
+try-catch is a simple error handling mechanism for individual errors within a method but lacks the advanced features needed to handle failures in complex distributed systems.</t>
+  </si>
+  <si>
+    <t>Can one Functional Interface extend other Functional Interface? If not Why?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Yes, a functional interface can extend another functional interface, but the extended interface must still have only one abstract method. If it has more than one, it would no longer qualify as a functional interface.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Got Error</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Multiple non-overriding abstract methods found in interface B</t>
+    </r>
+  </si>
+  <si>
+    <t>Explain about default functional interfaces, Optional Class</t>
+  </si>
+  <si>
+    <t>What is Thread Priority, Daemon Thread, Context Switching</t>
+  </si>
+  <si>
+    <t>Executor Framework</t>
+  </si>
+  <si>
+    <t>What is Executor Framework service and its significance</t>
+  </si>
+  <si>
+    <t>What is Eureka, Service Discovery</t>
+  </si>
+  <si>
+    <t>Validations</t>
+  </si>
+  <si>
+    <t>What is Entity property Validations</t>
+  </si>
+  <si>
+    <t>JPMC</t>
+  </si>
+  <si>
+    <t>What is Thread</t>
+  </si>
+  <si>
+    <t>Lift</t>
+  </si>
+  <si>
+    <t>Lift system design</t>
+  </si>
+  <si>
+    <t>Re-Entrant Locks explain</t>
+  </si>
+  <si>
+    <t>What is Object &amp; Class Level Locking</t>
+  </si>
+  <si>
+    <t>What is OOPS, explain with real life scenarios</t>
+  </si>
+  <si>
+    <t>explain about Internal Implementation of HashMap</t>
+  </si>
+  <si>
+    <t>What are all the Concurrency classes available in JDK 1.5 version</t>
+  </si>
+  <si>
+    <t>In JDK 1.5, the java.util.concurrent package introduced several classes and interfaces to support concurrent programming, including:
+Executors &amp; Executor Framework (Executor, ExecutorService, ThreadPoolExecutor, ScheduledExecutorService).
+Concurrent Collections (ConcurrentHashMap, CopyOnWriteArrayList, BlockingQueue).
+Locks &amp; Synchronizers (ReentrantLock, CountDownLatch, CyclicBarrier, Semaphore).
+Atomic Variables (AtomicInteger, AtomicLong, AtomicReference).
+Future &amp; Callable (Callable, Future).
+Fork/Join Framework (ForkJoinPool, RecursiveTask).
+Other utilities (ThreadLocalRandom, TimeUnit).</t>
+  </si>
+  <si>
+    <t>Queue</t>
+  </si>
+  <si>
+    <t>Explain about the Blocking Queue</t>
+  </si>
+  <si>
+    <t>Explain about Connection Pool concepts</t>
+  </si>
+  <si>
+    <t>Hashing</t>
+  </si>
+  <si>
+    <t>Explain about the Hasing concepts</t>
+  </si>
+  <si>
+    <t>Difference between LinkedList vs ArrayList</t>
+  </si>
+  <si>
+    <t>Implement a LinkedList, Methods are as below
+Loop, Search, Intersection, Add, Delete, Circular Loop</t>
+  </si>
+  <si>
+    <t>Implement a Stack using Queue or Array</t>
+  </si>
+  <si>
+    <t>Queue Implementation</t>
+  </si>
+  <si>
+    <t>What is Merge Sort, write a program for it</t>
+  </si>
+  <si>
+    <t>Capco</t>
+  </si>
+  <si>
+    <t>Serialization</t>
+  </si>
+  <si>
+    <t>Explain about the Serialization</t>
+  </si>
+  <si>
+    <t>Inheritance</t>
+  </si>
+  <si>
+    <t>What are the Inheritance Rules in java, Inheritance wrt Serialization</t>
+  </si>
+  <si>
+    <t>Type of Injections ? What is Dependency Injection &amp; Constructor Injection</t>
+  </si>
+  <si>
+    <t>What is Concurrency API</t>
+  </si>
+  <si>
+    <t>What is Functional Interface</t>
+  </si>
+  <si>
+    <t>Static</t>
+  </si>
+  <si>
+    <t>What is Static Method in Java8 interface, real time usages</t>
+  </si>
+  <si>
+    <t>Features</t>
+  </si>
+  <si>
+    <t>What are all the Features added in JDK 8</t>
+  </si>
+  <si>
+    <t>Difference between Overloading vs Overriding, their return type policies</t>
+  </si>
+  <si>
+    <t>Object Class</t>
+  </si>
+  <si>
+    <t>What are the return types of Equals &amp; HashCode methods in Object Class</t>
+  </si>
+  <si>
+    <t>Print the Second Highest Salaried Employee from an Employee List</t>
+  </si>
+  <si>
+    <t>Print the Second Highest Salaried Employee from an Employee table</t>
+  </si>
+  <si>
+    <t>Print all the Odd Numbers from an Array</t>
+  </si>
+  <si>
+    <t>Dependencies</t>
+  </si>
+  <si>
+    <t>What are all the Dependencies you used in Spring Boot Project</t>
+  </si>
+  <si>
+    <t>What are all the different types of Repositories we have in JPA</t>
+  </si>
+  <si>
+    <t>Difference between Sleep Vs Wait, and their return types</t>
+  </si>
+  <si>
+    <t>Concentrix</t>
+  </si>
+  <si>
+    <t>Cloud Native</t>
+  </si>
+  <si>
+    <t>What are the Cloud Native Principles</t>
+  </si>
+  <si>
+    <t>Cloud Native principles involve:
+Microservices architecture for modular, independent services.
+Containerization for portability and consistency.
+Dynamic management with orchestration tools like Kubernetes.
+Infrastructure as Code (IaC) for automating and versioning infrastructure.
+DevOps and Continuous Delivery for faster development and deployment cycles.
+Scalability and Elasticity to handle fluctuating workloads.
+Resilience through fault-tolerant designs.
+API-first approach for modular integration.
+Event-driven architecture for decoupled communication.
+Multi-cloud support for flexibility and resilience.
+Observability and monitoring to track system health and performance.
+Security by design to ensure a secure application.</t>
+  </si>
+  <si>
+    <t>How do you implement Transactions in spring boot</t>
+  </si>
+  <si>
+    <t>How many ways we can create Application Context.
+Write the Code Snippet for Application Context</t>
+  </si>
+  <si>
+    <t>Explain the logging Implementation in your project</t>
+  </si>
+  <si>
+    <t>Write the Builder Pattern Design Code</t>
+  </si>
+  <si>
+    <t>Bean</t>
+  </si>
+  <si>
+    <t>Create a Bean class, write code for it</t>
+  </si>
+  <si>
+    <t>Difference between SOA vs RESTFUL</t>
+  </si>
+  <si>
+    <t>SOA is a broader architectural style that involves services with complex, reliable messaging and can use protocols like SOAP, typically relying on XML and formal service discovery mechanisms. It is used in enterprise environments with complex needs.
+RESTful is a more lightweight architectural style that uses HTTP and JSON for simple, stateless communication. It is more scalable and efficient for web and mobile applications but lacks the enterprise-grade reliability and security features of SOA.</t>
+  </si>
+  <si>
+    <t>Have you worked on Asynchronous Frameworks</t>
+  </si>
+  <si>
+    <t>Explain about the Microservices Architecture</t>
+  </si>
+  <si>
+    <t>How do you test Rest Controller using JUNIT</t>
+  </si>
+  <si>
+    <t>Use @WebMvcTest for controller-layer unit testing.
+Use MockMvc to simulate HTTP requests.
+Mock dependent services with @MockBean.
+Assert responses with andExpect().
+@Test
+public void testSaveUser() throws Exception {
+    User user = new User("Krishna");
+    mockMvc.perform(post("/api/save")
+            .contentType(MediaType.APPLICATION_JSON)
+            .content(new ObjectMapper().writeValueAsString(user)))
+            .andExpect(status().isOk())
+            .andExpect(content().string("Saved: Krishna"));
+}</t>
+  </si>
+  <si>
+    <t>Integration Testing</t>
+  </si>
+  <si>
+    <t>How you perform Integration Testing</t>
+  </si>
+  <si>
+    <t>JDK8 Features, which all you worked in those</t>
+  </si>
+  <si>
+    <t>How you do validations in Spring Boot</t>
+  </si>
+  <si>
+    <t>How to implement JPA steps explain</t>
+  </si>
+  <si>
+    <t>How do you get a connection object in JPA, Internally what it does to get connection object</t>
+  </si>
+  <si>
+    <t>Internally, How JPA Gets a Connection 
+1) JPA is an abstraction, implemented by providers like Hibernate, EclipseLink, etc.
+2) When you configure your DataSource, it's typically pooled (HikariCP, Apache DBCP, etc.).
+3) JPA is configured with that DataSource through persistence.xml or Spring Boot config.
+4) When you invoke a persistence method:
+     a) The EntityManager checks the current transaction.
+     b) If needed, it obtains a Connection from the connection pool.
+     c) The provider (e.g., Hibernate) maps your entities to SQL and uses the Connection to execute queries.</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Create a API service for a given scenario</t>
+  </si>
+  <si>
+    <t>Difference between Streams vs Collection</t>
+  </si>
+  <si>
+    <t>Find the Employee Names who joined this Month from a Map of employees having fields Id as EmployeeNumber, Employee Object as value.
+Employee Object Fields : EmployeeNumber, Name, DOJ, City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    int currentYear = LocalDate.now().getYear();
+    return employeeMap.values().stream()
+            .filter(emp -&gt; emp.getDoj() != null &amp;&amp; emp.getDoj().getYear() == currentYear)
+            .collect(Collectors.groupingBy(
+                Employee::getCity,
+                Collectors.mapping(Employee::getName, Collectors.toList())
+            ));</t>
+  </si>
+  <si>
+    <t>Difference Between ParallelStream and ForkJoinPool</t>
+  </si>
+  <si>
+    <t>1. Parallel Stream
+What: A high-level abstraction introduced in Java 8 that allows you to process collections in parallel.
+How: Internally uses ForkJoinPool.commonPool() to perform parallelism.
+Use Case: For parallelizing data processing without manually managing threads.
+2. ForkJoinPool
+What: A low-level concurrent framework introduced in Java 7 for recursive task splitting and joining.
+How: Explicitly manages tasks and provides control over parallelism.
+Use Case: Useful for divide-and-conquer algorithms (like merge sort, parallel recursion).</t>
+  </si>
+  <si>
+    <t>explain the process of CI CD in your project</t>
+  </si>
+  <si>
+    <t>Explain about REST Architecture and its Constraints</t>
+  </si>
+  <si>
+    <t>These classes are thread-safe, final, and their state cannot be changed once created.
+Immutable classes introduced in Java 8:
+All java.time classes (LocalDate, Instant, etc.)
+Optional&lt;T&gt;
+Stream API (stateless, functional-style processing)
+Functional interfaces
+Collector factory methods</t>
+  </si>
+  <si>
+    <t>What are Intermediate &amp; Terminal Operators</t>
+  </si>
+  <si>
+    <t>How you handle Transactions in Distrubuted Databases</t>
+  </si>
+  <si>
+    <t>How you handle the Exceptions in API Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what is Collectors.toMap() </t>
+  </si>
+  <si>
+    <t>Collectors.toMap() is a static method in the java.util.stream.Collectors class that collects elements of a Stream into a Map.</t>
+  </si>
+  <si>
+    <t>what is input for ForEach</t>
+  </si>
+  <si>
+    <t>compare forEach in Streams vs enhanced for-each loop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consumer&lt;T&gt; (lambda) </t>
+  </si>
+  <si>
+    <t>Consumer&lt;T&gt; (lambda)  ---- Collection/array element</t>
+  </si>
+  <si>
+    <t>What is @EnableAutoConfiguration, Internal working</t>
+  </si>
+  <si>
+    <t>How to design a new Service Architecture, explain the steps involved in it
+Eg: A user logged into the service, After logging Account Summary has to be sent as Response. How you will design this</t>
+  </si>
+  <si>
+    <t>Exception Handling</t>
+  </si>
+  <si>
+    <t>JPA Implementation</t>
+  </si>
+  <si>
+    <t>How you implement Spring Security in the Microservices</t>
+  </si>
+  <si>
+    <t>Explain the Garbage Collector</t>
+  </si>
+  <si>
+    <t>Print the Longest Word in a given sentence order by desc (rest all will print in order of descending)</t>
+  </si>
+  <si>
+    <t>Reverse a String with out the default methods</t>
+  </si>
+  <si>
+    <t>Arrays.stream(str.split("")).reduce("", (a,b)-&gt;b+a)</t>
+  </si>
+  <si>
+    <t>Print the second highest Salary from a table</t>
+  </si>
+  <si>
+    <t>Sorting</t>
+  </si>
+  <si>
+    <t>how do you perform Natural Order Sorting Collection of Employee Object</t>
+  </si>
+  <si>
+    <t>Implement Comparable&lt;T&gt;</t>
+  </si>
+  <si>
+    <t>Cohesion &amp; Coupling</t>
+  </si>
+  <si>
+    <t>Parellel Sorting</t>
+  </si>
+  <si>
+    <t>Caching Implementation</t>
+  </si>
+  <si>
+    <t>Memory Mining</t>
+  </si>
+  <si>
+    <t>Memory Profiling</t>
+  </si>
+  <si>
+    <t>TCS Internal</t>
+  </si>
+  <si>
+    <t>Date API</t>
+  </si>
+  <si>
+    <t>What are the changes to Data API wrt JDK8, differences between JDK5 and JDK8</t>
+  </si>
+  <si>
+    <t>Iterator: Imperative, one-time use, manual control over iteration.
+Stream: Functional, supports method chaining, parallelism, and lazy evaluation.</t>
+  </si>
+  <si>
+    <t>What is Stream API, what is its significance</t>
+  </si>
+  <si>
+    <t>Difference between Iterator and Stream on an Collection</t>
+  </si>
+  <si>
+    <t>Projections in JPA allow you to select only specific fields instead of loading full entities, optimizing performance and simplifying responses.
+Types of projections: DTOs, Interface-based projections, and Tuple projections.</t>
+  </si>
+  <si>
+    <t>What is a Projection in JPA</t>
+  </si>
+  <si>
+    <t>Explain the Flow of Struts</t>
+  </si>
+  <si>
+    <t>Is there Spring Injections? Which method you will override</t>
+  </si>
+  <si>
+    <t>Have you worked on Concurrency</t>
+  </si>
+  <si>
+    <t>Executor Framework explain, How many types of Pools are there? Explain FixedThreadPool</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>How you monitor a service and ensure its availability always</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>There is a Trade service. Each Trade will intern call 3 services
+Each we need to call 50K Trade services, Create and XML/JSON/otherFormat Response based on input
+How you will acheieve this in Microservice</t>
+  </si>
+  <si>
+    <t>Release Activities</t>
+  </si>
+  <si>
+    <t>How you do Release Activities in your project</t>
+  </si>
+  <si>
+    <t>We follow Scrum-based Agile: Sprint planning, daily standups, code reviews, CI/CD, demos, retrospectives, and backlog grooming. We use tools like Jira, Git, Jenkins, and Confluence, and focus heavily on collaboration, continuous feedback, and working software delivery.</t>
+  </si>
+  <si>
+    <t>Explain how do you follow agile methodologies in your project</t>
+  </si>
+  <si>
+    <t>How do you test Services using JUNIT</t>
+  </si>
+  <si>
+    <t>Have you worked on Procedure, Triggers</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -1654,12 +2586,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1689,13 +2627,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1703,10 +2638,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1718,11 +2650,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2004,37 +2945,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K249"/>
+  <dimension ref="A1:L424"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B250" sqref="B250"/>
+      <pane ySplit="1" topLeftCell="A420" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B425" sqref="B425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="68.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="74.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="68.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="96.28515625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="12" width="9.140625" style="2"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="10" t="s">
@@ -2044,2993 +2986,5374 @@
         <v>6</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="9" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="L1" s="9" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="4">
         <v>44277</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="2">
         <v>36</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D4" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="8" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="3" t="s">
+      <c r="F5" s="12" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D6" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D7" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="3" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="3" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B10" s="3" t="s">
+      <c r="F9" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="11" t="s">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="11" t="s">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="G14" s="6">
+      <c r="G14" s="4">
         <v>44281</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="2">
         <v>55</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="3" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="11" t="s">
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="1" t="s">
+    </row>
+    <row r="18" spans="2:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="B18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="E18" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E18" s="11" t="s">
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="1" t="s">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D19" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D20" s="11" t="s">
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D21" s="11" t="s">
+    </row>
+    <row r="22" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B22" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="E22" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E22" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B23" s="3" t="s">
+    </row>
+    <row r="23" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E23" s="11" t="s">
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="11" t="s">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D26" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D28" s="11" t="s">
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="3" t="s">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="8" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B31" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B32" s="3" t="s">
+      <c r="F31" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E32" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="F32" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B33" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="F33" s="12" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B34" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D34" s="11" t="s">
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B35" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D35" s="11" t="s">
-        <v>112</v>
-      </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" s="3" t="s">
+      <c r="A36" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G36" s="4">
+        <v>44294</v>
+      </c>
+      <c r="H36" s="2">
+        <v>60</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D37" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="G36" s="6">
-        <v>44294</v>
-      </c>
-      <c r="H36" s="3">
-        <v>60</v>
-      </c>
-      <c r="I36" s="3" t="s">
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B40" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B41" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B44" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B50" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G51" s="4">
+        <v>44345</v>
+      </c>
+      <c r="H51" s="2">
+        <v>30</v>
+      </c>
+      <c r="I51" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B37" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B38" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B39" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B40" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B41" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B42" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B43" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B44" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B45" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B46" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B47" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B48" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B49" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B50" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D50" s="11" t="s">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B52" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D52" s="8" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="G51" s="6">
-        <v>44345</v>
-      </c>
-      <c r="H51" s="3">
-        <v>30</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B52" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D52" s="11" t="s">
+    <row r="53" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="B53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D53" s="8" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="B53" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>142</v>
-      </c>
-    </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D54" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B55" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B55" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C55" s="1" t="s">
+      <c r="D55" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="D55" s="11" t="s">
-        <v>146</v>
-      </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D56" s="11" t="s">
+      <c r="D56" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B57" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B57" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C57" s="1" t="s">
+      <c r="D57" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="D57" s="11" t="s">
-        <v>149</v>
-      </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D58" s="11" t="s">
-        <v>150</v>
+      <c r="D58" s="8" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D59" s="11" t="s">
+      <c r="D59" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E59" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="E59" s="11" t="s">
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B60" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C60" s="1" t="s">
+      <c r="D60" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="D60" s="11" t="s">
-        <v>154</v>
-      </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D61" s="11" t="s">
+      <c r="D61" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E61" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="E61" s="11" t="s">
+      <c r="F61" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D62" s="8" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B62" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D62" s="11" t="s">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D63" s="8" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B63" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D63" s="11" t="s">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D64" s="8" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B64" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D64" s="11" t="s">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D65" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B65" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D65" s="11" t="s">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="3" t="s">
+      <c r="B66" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B66" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C66" s="1" t="s">
+      <c r="D66" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="D66" s="11" t="s">
+      <c r="G66" s="4">
+        <v>44348</v>
+      </c>
+      <c r="H66" s="2">
+        <v>30</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D67" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="G66" s="6">
-        <v>44348</v>
-      </c>
-      <c r="H66" s="3">
-        <v>30</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B67" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D67" s="11" t="s">
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B68" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B68" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C68" s="1" t="s">
+      <c r="D68" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="D68" s="11" t="s">
+      <c r="F68" s="12" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D70" s="8" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B69" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B70" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D70" s="11" t="s">
-        <v>167</v>
+      <c r="F70" s="12" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D71" s="11" t="s">
+      <c r="D71" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B72" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C72" s="1" t="s">
+      <c r="D72" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="D72" s="11" t="s">
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D73" s="8" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B73" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D73" s="11" t="s">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B74" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D74" s="1" t="s">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D75" s="8" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B75" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D75" s="11" t="s">
+      <c r="F75" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B76" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C76" s="1" t="s">
+      <c r="D76" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="D76" s="11" t="s">
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B77" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B77" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C77" s="1" t="s">
+      <c r="D77" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="D77" s="11" t="s">
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B78" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C78" s="1" t="s">
+      <c r="D78" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="D78" s="11" t="s">
+      <c r="E78" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="E78" s="11" t="s">
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B79" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B79" s="3" t="s">
+      <c r="D79" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B80" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D79" s="11" t="s">
+      <c r="C80" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D80" s="8" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B80" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D80" s="11" t="s">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B81" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C81" s="1" t="s">
+      <c r="D81" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="D81" s="11" t="s">
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D82" s="8" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B82" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D82" s="11" t="s">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B83" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B83" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C83" s="1" t="s">
+      <c r="D83" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="D83" s="11" t="s">
+      <c r="F83" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D84" s="8" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B84" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D84" s="11" t="s">
-        <v>189</v>
-      </c>
-    </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D85" s="11" t="s">
+      <c r="D85" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D86" s="8" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="B86" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D86" s="11" t="s">
+      <c r="E86" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="E86" s="11" t="s">
+      <c r="F86" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B87" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C87" s="1" t="s">
+      <c r="D87" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="D87" s="11" t="s">
+    </row>
+    <row r="88" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="B88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="B88" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C88" s="1" t="s">
+      <c r="D88" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E88" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="E88" s="11" t="s">
+      <c r="F88" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D89" s="11" t="s">
+      <c r="D89" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B90" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D90" s="8" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B90" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="C90" s="1" t="s">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B91" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D90" s="11" t="s">
+      <c r="C91" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D91" s="8" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B91" s="3" t="s">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B92" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D93" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D91" s="11" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B92" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D92" s="11" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B93" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D93" s="11" t="s">
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D95" s="8" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B94" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D94" s="11" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B95" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D95" s="11" t="s">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="3" t="s">
+      <c r="B96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B96" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C96" s="1" t="s">
+      <c r="D96" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="D96" s="11" t="s">
+      <c r="G96" s="4">
+        <v>44350</v>
+      </c>
+      <c r="H96" s="2">
+        <v>60</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D98" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="G96" s="6">
-        <v>44350</v>
-      </c>
-      <c r="H96" s="3">
-        <v>60</v>
-      </c>
-      <c r="I96" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="97" spans="2:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B97" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D97" s="11" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B98" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D98" s="11" t="s">
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D99" s="8" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B99" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D99" s="11" t="s">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D100" s="8" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B100" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D100" s="11" t="s">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B101" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B101" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C101" s="1" t="s">
+      <c r="D101" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="D101" s="11" t="s">
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B102" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B102" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C102" s="1" t="s">
+      <c r="D102" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="D102" s="11" t="s">
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B103" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D103" s="8" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B103" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D103" s="11" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="104" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B104" s="3" t="s">
+    <row r="104" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B104" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D104" s="11" t="s">
+      <c r="D104" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D105" s="8" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="105" spans="2:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B105" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D105" s="11" t="s">
+      <c r="E105" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="E105" s="11" t="s">
+    </row>
+    <row r="106" spans="2:6" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="B106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D106" s="8" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="106" spans="2:5" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="B106" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D106" s="11" t="s">
+      <c r="E106" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="E106" s="11" t="s">
+      <c r="F106" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B107" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B107" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C107" s="1" t="s">
+      <c r="D107" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="D107" s="11" t="s">
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B108" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D108" s="8" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B108" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D108" s="11" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B109" s="3" t="s">
+    <row r="109" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B110" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B110" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D110" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B111" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B111" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C111" s="1" t="s">
+      <c r="D111" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="D111" s="11" t="s">
+      <c r="F111" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D112" s="8" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B112" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D112" s="11" t="s">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B113" s="2" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B113" s="3" t="s">
+      <c r="C113" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D113" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="C113" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D113" s="11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B114" s="3" t="s">
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D114" s="11" t="s">
+      <c r="D114" s="8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+      <c r="B116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B115" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D115" s="11" t="s">
+      <c r="D116" s="8" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" ht="102" x14ac:dyDescent="0.2">
-      <c r="B116" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C116" s="1" t="s">
+      <c r="E116" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="D116" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="E116" s="11" t="s">
+      <c r="F116" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D117" s="8" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B117" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D117" s="11" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B118" s="3" t="s">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D118" s="11" t="s">
+      <c r="D118" s="8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B119" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D119" s="8" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B119" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C119" s="1" t="s">
+      <c r="E119" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="D119" s="11" t="s">
+      <c r="F119" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B120" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D120" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E119" s="11" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B120" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D120" s="11" t="s">
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A122" s="2" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B121" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D121" s="11" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A122" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="B122" s="3" t="s">
+      <c r="B122" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D122" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="E122" s="11" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B123" s="3" t="s">
+      <c r="D122" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="L122" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B123" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D123" s="11" t="s">
+      <c r="D123" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B125" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D125" s="8" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B124" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D124" s="11" t="s">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C126" s="1" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B125" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D125" s="11" t="s">
+      <c r="D126" s="8" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B126" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C126" s="1" t="s">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B127" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D127" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="D126" s="11" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B127" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D127" s="11" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B128" s="3" t="s">
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B128" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D128" s="11" t="s">
+      <c r="D128" s="8" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B129" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D129" s="8" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B129" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C129" s="1" t="s">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B130" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D130" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="D129" s="11" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B130" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D130" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B131" s="3" t="s">
+      <c r="F130" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B131" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D131" s="11" t="s">
+      <c r="D131" s="8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B132" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B133" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B134" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D134" s="8" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B132" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D132" s="11" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B133" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D133" s="11" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B134" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D134" s="11" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B135" s="3" t="s">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B135" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D135" s="11" t="s">
+      <c r="D135" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="F135" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="B136" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D136" s="8" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="B136" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C136" s="1" t="s">
+      <c r="E136" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D136" s="11" t="s">
+      <c r="F136" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A137" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="E136" s="11" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A137" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="B137" s="3" t="s">
+      <c r="B137" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D137" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="E137" s="11" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B138" s="3" t="s">
+      <c r="D137" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="L137" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D138" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B139" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E139" s="8" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B139" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D139" s="11" t="s">
+      <c r="F139" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B140" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C140" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="E139" s="11" t="s">
+      <c r="D140" s="8" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B141" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D141" s="8" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B140" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C140" s="1" t="s">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B142" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B143" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D143" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="D140" s="11" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B141" s="3" t="s">
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B144" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D144" s="8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B145" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D145" s="8" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B146" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D146" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="F146" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B147" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D147" s="8" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D148" s="8" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D149" s="8" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B150" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C150" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C141" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D141" s="11" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B142" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="D142" s="11" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B143" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D143" s="11" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B144" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D144" s="11" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B145" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D145" s="11" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B146" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D146" s="11" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B147" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D147" s="11" t="s">
+      <c r="D150" s="8" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B148" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D148" s="11" t="s">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A151" s="2" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B149" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D149" s="11" t="s">
+      <c r="B151" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D151" s="8" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B150" s="3" t="s">
+    <row r="152" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="B152" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C150" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D150" s="11" t="s">
+      <c r="C152" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D152" s="8" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A151" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D151" s="11" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="B152" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D152" s="11" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B153" s="3" t="s">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B153" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D153" s="11" t="s">
+      <c r="D153" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="F153" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B154" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D154" s="8" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B155" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C155" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B154" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C154" s="1" t="s">
+      <c r="D155" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="D154" s="11" t="s">
+      <c r="F155" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B156" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C156" s="1" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B155" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C155" s="1" t="s">
+      <c r="D156" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="D155" s="11" t="s">
+      <c r="F156" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B157" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C157" s="1" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B156" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C156" s="1" t="s">
+      <c r="D157" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="D156" s="11" t="s">
+      <c r="F157" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B158" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C158" s="1" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B157" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C157" s="1" t="s">
+      <c r="D158" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="D157" s="11" t="s">
+      <c r="F158" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B159" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D159" s="8" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B158" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C158" s="1" t="s">
+      <c r="E159" t="s">
         <v>296</v>
       </c>
-      <c r="D158" s="11" t="s">
+    </row>
+    <row r="160" spans="1:6" ht="165.75" x14ac:dyDescent="0.2">
+      <c r="B160" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D160" s="8" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B159" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D159" s="11" t="s">
+      <c r="E160" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="E159" t="s">
+      <c r="F160" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B161" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D161" s="8" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="B160" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D160" s="11" t="s">
+      <c r="E161" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="E160" s="11" t="s">
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B162" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C162" s="1" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B161" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="D161" s="11" t="s">
+      <c r="D162" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="E161" s="11" t="s">
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B163" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D163" s="8" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B162" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C162" s="1" t="s">
+      <c r="F163" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="B164" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D164" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="D162" s="1" t="s">
+      <c r="E164" s="8" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B163" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D163" s="11" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" ht="178.5" x14ac:dyDescent="0.2">
-      <c r="B164" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="D164" s="11" t="s">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C165" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="E164" s="11" t="s">
+      <c r="D165" s="8" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B165" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D165" s="11" t="s">
-        <v>311</v>
-      </c>
-    </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B166" s="3" t="s">
+      <c r="B166" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D166" s="11" t="s">
+      <c r="D166" s="8" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B167" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D167" s="8" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B168" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D168" s="8" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B167" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D167" s="11" t="s">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B169" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D169" s="8" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B168" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C168" s="1" t="s">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B170" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D170" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="D168" s="11" t="s">
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B171" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D171" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="F171" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B172" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D172" s="8" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B169" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D169" s="11" t="s">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B173" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D173" s="8" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B170" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D170" s="11" t="s">
+      <c r="F173" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="B174" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D174" s="8" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B171" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D171" s="11" t="s">
+      <c r="E174" s="8" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B172" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D172" s="11" t="s">
+      <c r="F174" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A175" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D175" s="8" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B173" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D173" s="11" t="s">
+      <c r="G175" s="4">
+        <v>44355</v>
+      </c>
+      <c r="H175" s="2">
+        <v>30</v>
+      </c>
+      <c r="I175" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B176" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D176" s="8" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="B174" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D174" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="E174" s="11" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A175" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="B175" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D175" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="G175" s="6">
-        <v>44355</v>
-      </c>
-      <c r="H175" s="3">
-        <v>30</v>
-      </c>
-      <c r="I175" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B176" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="D176" s="11" t="s">
-        <v>324</v>
-      </c>
-    </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B177" s="3" t="s">
+      <c r="B177" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D177" s="11" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" ht="102" x14ac:dyDescent="0.2">
-      <c r="B178" s="3" t="s">
+      <c r="D177" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="B178" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D178" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="E178" s="11" t="s">
-        <v>327</v>
+      <c r="D178" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="E178" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="F178" s="12" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B179" s="3" t="s">
+      <c r="B179" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D179" s="11" t="s">
-        <v>328</v>
+      <c r="D179" s="8" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B180" s="3" t="s">
+      <c r="B180" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D180" s="11" t="s">
-        <v>329</v>
+        <v>144</v>
+      </c>
+      <c r="D180" s="8" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B181" s="3" t="s">
+      <c r="B181" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D181" s="11" t="s">
-        <v>330</v>
+        <v>73</v>
+      </c>
+      <c r="D181" s="8" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B182" s="3" t="s">
+      <c r="B182" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D182" s="11" t="s">
-        <v>331</v>
+        <v>73</v>
+      </c>
+      <c r="D182" s="8" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B183" s="3" t="s">
+      <c r="B183" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D183" s="11" t="s">
-        <v>332</v>
+      <c r="D183" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="F183" s="12" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A184" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="B184" s="3" t="s">
+      <c r="A184" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B184" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D184" s="11" t="s">
-        <v>334</v>
-      </c>
-      <c r="G184" s="6">
+      <c r="D184" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="F184" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="G184" s="4">
         <v>44355</v>
       </c>
-      <c r="H184" s="3">
+      <c r="H184" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B185" s="3" t="s">
+      <c r="B185" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="D185" s="11" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B186" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="D185" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="B186" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D186" s="11" t="s">
+      <c r="D186" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="E186" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="F186" s="12" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B187" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D187" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="F187" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B188" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D188" s="8" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B187" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D187" s="11" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B188" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="D188" s="11" t="s">
-        <v>340</v>
-      </c>
-    </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B189" s="3" t="s">
+      <c r="B189" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D189" s="11" t="s">
-        <v>359</v>
+      <c r="D189" s="8" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B190" s="3" t="s">
+      <c r="B190" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D190" s="11" t="s">
+      <c r="D190" s="8" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B191" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D191" s="8" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B192" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D192" s="8" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A193" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C193" s="1" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B191" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C191" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D191" s="11" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B192" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C192" s="1" t="s">
+      <c r="D193" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="D192" s="11" t="s">
+      <c r="F193" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="G193" s="4">
+        <v>44356</v>
+      </c>
+      <c r="H193" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B194" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C194" s="1" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A193" s="3" t="s">
+      <c r="D194" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="B193" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C193" s="1" t="s">
+      <c r="F194" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B195" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D195" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="D193" s="1" t="s">
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B196" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D196" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="G193" s="6">
-        <v>44356</v>
-      </c>
-      <c r="H193" s="3">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B194" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C194" s="1" t="s">
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B197" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="D194" s="11" t="s">
+      <c r="C197" s="1" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B195" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D195" s="11" t="s">
+      <c r="D197" s="8" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B196" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D196" s="11" t="s">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B198" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C198" s="1" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B197" s="3" t="s">
+      <c r="D198" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="C197" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="D197" s="11" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B198" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="D198" s="11" t="s">
-        <v>355</v>
-      </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B199" s="3" t="s">
+      <c r="B199" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C199" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D199" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="D199" s="11" t="s">
-        <v>213</v>
-      </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B200" s="3" t="s">
+      <c r="B200" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D200" s="11" t="s">
-        <v>328</v>
+      <c r="D200" s="8" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B201" s="3" t="s">
+      <c r="B201" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D201" s="11" t="s">
-        <v>150</v>
+      <c r="D201" s="8" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B202" s="3" t="s">
+      <c r="B202" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="D202" s="11" t="s">
-        <v>357</v>
+        <v>352</v>
+      </c>
+      <c r="D202" s="8" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B203" s="3" t="s">
+      <c r="B203" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D203" s="11" t="s">
-        <v>358</v>
+      <c r="D203" s="8" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B204" s="3" t="s">
+      <c r="B204" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D204" s="11" t="s">
-        <v>360</v>
+      <c r="D204" s="8" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B205" s="3" t="s">
+      <c r="B205" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="D205" s="11" t="s">
-        <v>324</v>
+        <v>331</v>
+      </c>
+      <c r="D205" s="8" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B206" s="3" t="s">
+      <c r="B206" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D206" s="11" t="s">
-        <v>361</v>
+      <c r="D206" s="8" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B207" s="3" t="s">
+      <c r="B207" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D207" s="11" t="s">
-        <v>362</v>
+      <c r="D207" s="8" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B208" s="3" t="s">
-        <v>136</v>
+      <c r="B208" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="D208" s="11" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B209" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="D208" s="8" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B209" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D209" s="11" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B210" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D209" s="8" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B210" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A211" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="B211" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A211" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B211" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="E211" s="11" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B212" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="L211" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B212" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D212" s="11" t="s">
+      <c r="D212" s="8" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B213" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B214" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B215" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C215" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B213" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C213" s="1" t="s">
+      <c r="D215" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="D213" s="1" t="s">
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B216" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D216" s="8" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B214" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C214" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D214" s="1" t="s">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B217" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D217" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B218" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D218" s="8" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B215" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="C215" s="1" t="s">
+    <row r="219" spans="1:12" ht="178.5" x14ac:dyDescent="0.2">
+      <c r="A219" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D219" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="D215" s="11" t="s">
+      <c r="E219" s="8" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B216" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D216" s="11" t="s">
+      <c r="G219" s="4">
+        <v>44358</v>
+      </c>
+      <c r="H219" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B220" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D220" s="8" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B221" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C221" s="1" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B217" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C217" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D217" s="11" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B218" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C218" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="D218" s="11" t="s">
+      <c r="D221" s="1" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="219" spans="1:8" ht="178.5" x14ac:dyDescent="0.2">
-      <c r="A219" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="B219" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C219" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D219" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="E219" s="11" t="s">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B222" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C222" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="G219" s="6">
-        <v>44358</v>
-      </c>
-      <c r="H219" s="3">
+      <c r="D222" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B223" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D223" s="8" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B224" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D224" s="8" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B225" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D225" s="8" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B226" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B227" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D227" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="E227" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="F227" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A228" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D228" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="G228" s="4">
+        <v>44359</v>
+      </c>
+      <c r="H228" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B220" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C220" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="D220" s="11" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B221" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C221" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="D221" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B222" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C222" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="D222" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B223" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C223" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="D223" s="11" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B224" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C224" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D224" s="11" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B225" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C225" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D225" s="11" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B226" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C226" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="D226" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B227" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C227" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="D227" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="E227" s="11" t="s">
+      <c r="I228" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B229" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D229" s="8" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A228" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="B228" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C228" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="D228" s="11" t="s">
-        <v>395</v>
-      </c>
-      <c r="G228" s="6">
-        <v>44359</v>
-      </c>
-      <c r="H228" s="3">
-        <v>30</v>
-      </c>
-      <c r="I228" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B229" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C229" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D229" s="11" t="s">
-        <v>396</v>
-      </c>
-    </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B230" s="3" t="s">
+      <c r="B230" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D230" s="11" t="s">
-        <v>328</v>
+      <c r="D230" s="8" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B231" s="3" t="s">
+      <c r="B231" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="D231" s="11" t="s">
-        <v>398</v>
+        <v>393</v>
+      </c>
+      <c r="D231" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="F231" s="12" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B232" s="3" t="s">
+      <c r="B232" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D232" s="11" t="s">
-        <v>399</v>
+        <v>73</v>
+      </c>
+      <c r="D232" s="8" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B233" s="3" t="s">
+      <c r="B233" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D233" s="11" t="s">
-        <v>400</v>
+        <v>73</v>
+      </c>
+      <c r="D233" s="8" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B234" s="3" t="s">
+      <c r="B234" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D234" s="11" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" ht="102" x14ac:dyDescent="0.2">
-      <c r="A235" s="3" t="s">
+      <c r="D234" s="8" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A235" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D235" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="E235" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="F235" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="G235" s="4">
+        <v>44363</v>
+      </c>
+      <c r="H235" s="2">
+        <v>40</v>
+      </c>
+      <c r="I235" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B236" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C236" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="B235" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C235" s="1" t="s">
+      <c r="D236" s="8" t="s">
         <v>402</v>
       </c>
-      <c r="D235" s="11" t="s">
-        <v>403</v>
-      </c>
-      <c r="E235" s="11" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B236" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C236" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="D236" s="11" t="s">
-        <v>406</v>
-      </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B237" s="3" t="s">
+      <c r="B237" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D237" s="11" t="s">
-        <v>205</v>
+        <v>168</v>
+      </c>
+      <c r="D237" s="8" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B238" s="3" t="s">
+      <c r="B238" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D238" s="11" t="s">
+      <c r="D238" s="8" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B239" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D239" s="8" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="B240" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D240" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="E240" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="F240" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B241" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D241" s="8" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B239" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C239" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D239" s="11" t="s">
+      <c r="F241" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B242" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D242" s="8" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="240" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="B240" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C240" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D240" s="11" t="s">
+      <c r="F242" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B243" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D243" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="E240" s="11" t="s">
+      <c r="F243" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B244" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D244" s="8" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="241" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B241" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C241" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D241" s="11" t="s">
+    <row r="245" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+      <c r="B245" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D245" s="8" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="242" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B242" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C242" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D242" s="11" t="s">
+      <c r="E245" s="8" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="243" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B243" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C243" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D243" s="11" t="s">
+      <c r="F245" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B246" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D246" s="8" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="244" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B244" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C244" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D244" s="11" t="s">
+      <c r="F246" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B247" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D247" s="8" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="245" spans="2:5" ht="102" x14ac:dyDescent="0.2">
-      <c r="B245" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C245" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D245" s="11" t="s">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B248" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D248" s="8" t="s">
         <v>415</v>
       </c>
-      <c r="E245" s="11" t="s">
+      <c r="F248" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" ht="216.75" x14ac:dyDescent="0.2">
+      <c r="B249" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D249" s="8" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="246" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B246" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C246" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D246" s="11" t="s">
+      <c r="E249" s="8" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="247" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B247" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C247" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="D247" s="11" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="248" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B248" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C248" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D248" s="11" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="249" spans="2:5" ht="242.25" x14ac:dyDescent="0.2">
-      <c r="B249" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C249" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D249" s="11" t="s">
+      <c r="F249" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A250" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D250" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G250" s="4">
+        <v>44365</v>
+      </c>
+      <c r="H250" s="2">
+        <v>30</v>
+      </c>
+      <c r="I250" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B251" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C251" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="E249" s="11" t="s">
+      <c r="D251" s="8" t="s">
         <v>421</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B252" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D252" s="8" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B253" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D253" s="8" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B254" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D254" s="8" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B255" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D255" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="E255" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="F255" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B256" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D256" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="F256" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B257" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D257" s="8" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B258" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D258" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="F258" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B259" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D259" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="F259" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B260" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D260" s="8" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B261" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D261" s="8" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B262" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D262" s="8" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B263" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D263" s="8" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B264" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D264" s="8" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B265" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D265" s="8" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A266" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D266" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="G266" s="4">
+        <v>44368</v>
+      </c>
+      <c r="H266" s="2">
+        <v>30</v>
+      </c>
+      <c r="I266" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B267" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D267" s="8" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B268" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D268" s="8" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B269" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D269" s="8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B270" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D270" s="8" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B271" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D271" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="F271" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B272" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D272" s="8" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B273" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="D273" s="8" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B274" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D274" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B275" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D275" s="8" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B276" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D276" s="8" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B277" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D277" s="8" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A278" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D278" s="8" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B279" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D279" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="L279" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B280" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="D280" s="8" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B281" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D281" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="F281" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B282" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D282" s="8" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B283" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="D283" s="8" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B284" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D284" s="8" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A285" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D285" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="E285" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="F285" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="L285" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B286" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D286" s="8" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B287" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="D287" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="E287" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="F287" s="12" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B288" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D288" s="8" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B289" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D289" s="8" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A290" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D290" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="G290" s="4">
+        <v>44370</v>
+      </c>
+      <c r="H290" s="2">
+        <v>30</v>
+      </c>
+      <c r="I290" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B291" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D291" s="8" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="292" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B292" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D292" s="8" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="293" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B293" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D293" s="8" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="294" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B294" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D294" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="295" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B295" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D295" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="296" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B296" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D296" s="8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="297" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B297" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D297" s="8" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="298" spans="1:12" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A298" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D298" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="E298" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="F298" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="L298" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="299" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B299" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D299" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="E299" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="F299" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="300" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B300" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D300" s="8" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="301" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B301" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D301" s="8" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="302" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="B302" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D302" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="E302" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="F302" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="303" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B303" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D303" s="8" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="304" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B304" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D304" s="8" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B305" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D305" s="8" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B306" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D306" s="8" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A307" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D307" s="8" t="s">
+        <v>511</v>
+      </c>
+      <c r="G307" s="4">
+        <v>44376</v>
+      </c>
+      <c r="H307" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="B308" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D308" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="E308" s="8" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B309" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D309" s="8" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B310" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D310" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="F310" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B311" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="D311" s="8" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="B312" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D312" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="E312" s="8" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B313" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D313" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="E313" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="B314" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D314" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="E314" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="F314" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" ht="178.5" x14ac:dyDescent="0.2">
+      <c r="A315" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D315" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="E315" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="F315" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="G315" s="4">
+        <v>44380</v>
+      </c>
+      <c r="H315" s="2">
+        <v>60</v>
+      </c>
+      <c r="I315" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B316" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D316" s="8" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B317" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D317" s="8" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B318" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D318" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="F318" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B319" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D319" s="8" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" ht="229.5" x14ac:dyDescent="0.2">
+      <c r="B320" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="D320" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="E320" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="F320" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="321" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="B321" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D321" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="E321" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="F321" s="12" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="322" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B322" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D322" s="8" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="323" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B323" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D323" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="F323" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="324" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B324" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D324" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="325" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B325" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D325" s="8" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="326" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B326" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="D326" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="F326" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="327" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A327" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D327" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="L327" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="328" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B328" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D328" s="8" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="329" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B329" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D329" s="8" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="330" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B330" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D330" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="F330" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="331" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B331" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D331" s="8" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="332" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B332" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D332" s="8" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="333" spans="1:12" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="B333" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D333" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="E333" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="F333" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="334" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B334" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D334" s="8" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="335" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B335" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D335" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="336" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B336" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="D336" s="8" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="337" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B337" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D337" s="8" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="338" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B338" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D338" s="8" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="339" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B339" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D339" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="340" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B340" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D340" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="341" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B341" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D341" s="8" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="342" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A342" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D342" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="L342" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="343" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B343" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="D343" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="F343" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="344" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B344" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D344" s="8" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="345" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B345" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D345" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="F345" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="346" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A346" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D346" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="G346" s="4">
+        <v>44357</v>
+      </c>
+      <c r="H346" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="347" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B347" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D347" s="8" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="348" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B348" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="D348" s="8" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="349" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B349" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D349" s="8" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="350" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B350" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="D350" s="8" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="351" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B351" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D351" s="8" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="352" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B352" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D352" s="8" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B353" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D353" s="8" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B354" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="D354" s="8" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B355" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D355" s="8" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B356" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D356" s="8" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A357" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D357" s="8" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" ht="178.5" x14ac:dyDescent="0.2">
+      <c r="B358" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="D358" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="E358" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="F358" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B359" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D359" s="8" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B360" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D360" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="F360" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B361" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D361" s="8" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B362" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D362" s="8" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B363" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="D363" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B364" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D364" s="8" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B365" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="D365" s="8" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="B366" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C366" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D366" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="E366" s="8" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A367" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C367" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D367" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="G367" s="4">
+        <v>44360</v>
+      </c>
+      <c r="H367" s="2">
+        <v>50</v>
+      </c>
+      <c r="I367" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B368" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C368" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D368" s="8" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="369" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B369" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D369" s="8" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="370" spans="2:6" ht="191.25" x14ac:dyDescent="0.2">
+      <c r="B370" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D370" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="E370" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="371" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B371" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D371" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="372" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B372" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D372" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="373" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B373" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="D373" s="8" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="374" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B374" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D374" s="8" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="375" spans="2:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="B375" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D375" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="E375" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="F375" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="376" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B376" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="D376" s="8" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="377" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B377" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C377" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D377" s="8" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="378" spans="2:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="B378" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C378" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D378" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="E378" s="8" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="379" spans="2:6" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="B379" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D379" s="8" t="s">
+        <v>616</v>
+      </c>
+      <c r="E379" s="8" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="380" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B380" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D380" s="8" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="381" spans="2:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="B381" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D381" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="E381" s="8" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="382" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B382" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D382" s="8" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="383" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B383" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D383" s="8" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="384" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B384" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D384" s="8" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B385" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D385" s="8" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B386" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D386" s="8" t="s">
+        <v>624</v>
+      </c>
+      <c r="E386" s="8" t="s">
+        <v>625</v>
+      </c>
+      <c r="F386" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B387" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D387" s="8" t="s">
+        <v>626</v>
+      </c>
+      <c r="E387" s="8" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B388" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D388" s="8" t="s">
+        <v>627</v>
+      </c>
+      <c r="E388" s="8" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B389" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D389" s="8" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B390" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D390" s="8" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="B391" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C391" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D391" s="8" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B392" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D392" s="8" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B393" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D393" s="8" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B394" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D394" s="8" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A395" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B395" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D395" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="G395" s="4">
+        <v>44362</v>
+      </c>
+      <c r="H395" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B396" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C396" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D396" s="8" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B397" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D397" s="8" t="s">
+        <v>637</v>
+      </c>
+      <c r="E397" s="8" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B398" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D398" s="8" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B399" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C399" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="D399" s="8" t="s">
+        <v>641</v>
+      </c>
+      <c r="E399" s="8" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A400" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="B400" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C400" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D400" s="8" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B401" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D401" s="8" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B402" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D402" s="8" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B403" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D403" s="8" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B404" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D404" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B405" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D405" s="8" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A406" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B406" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="D406" s="8" t="s">
+        <v>650</v>
+      </c>
+      <c r="G406" s="4">
+        <v>44392</v>
+      </c>
+      <c r="H406" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B407" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C407" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D407" s="8" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B408" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D408" s="8" t="s">
+        <v>653</v>
+      </c>
+      <c r="E408" s="8" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="B409" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C409" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D409" s="8" t="s">
+        <v>655</v>
+      </c>
+      <c r="E409" s="8" t="s">
+        <v>654</v>
+      </c>
+      <c r="F409" s="12" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B410" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D410" s="8" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B411" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C411" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="D411" s="8" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B412" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C412" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D412" s="8" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B413" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C413" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D413" s="8" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B414" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C414" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D414" s="8" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B415" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C415" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D415" s="8" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B416" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C416" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D416" s="8" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="417" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B417" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C417" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="D417" s="8" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="418" spans="2:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="B418" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C418" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="D418" s="8" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="419" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B419" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C419" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D419" s="8" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="420" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B420" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C420" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="D420" s="8" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="421" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B421" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C421" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="D421" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="422" spans="2:5" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B422" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C422" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D422" s="8" t="s">
+        <v>667</v>
+      </c>
+      <c r="E422" s="8" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="423" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B423" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C423" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D423" s="8" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="424" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B424" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C424" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D424" s="8" t="s">
+        <v>669</v>
       </c>
     </row>
   </sheetData>
@@ -5038,12 +8361,18 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$A$2:$A$51</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B648</xm:sqref>
+          <xm:sqref>B2:B3252</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet2!$D$2:$D$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F3388</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5053,189 +8382,219 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="16.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="7"/>
+    <col min="4" max="4" width="11.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="D1" s="6" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B3" s="9" t="s">
+      <c r="D2" s="7" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+      <c r="D3" s="7" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
-        <v>116</v>
+      <c r="A18" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
-        <v>203</v>
+      <c r="A22" s="7" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
         <v>36</v>
       </c>
     </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>437</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:A24">
+  <sortState ref="A2:A26">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/resources/Docs/Java-Interview-Questions.xlsx
+++ b/src/resources/Docs/Java-Interview-Questions.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1731" uniqueCount="745">
   <si>
     <t>Company</t>
   </si>
@@ -2537,6 +2537,459 @@
   </si>
   <si>
     <t>Have you worked on Procedure, Triggers</t>
+  </si>
+  <si>
+    <t>Ultron</t>
+  </si>
+  <si>
+    <t>Explain about the Design Patterns worked in MS, Explain about SAGA</t>
+  </si>
+  <si>
+    <t>Differences between Stream vs ParallelStream</t>
+  </si>
+  <si>
+    <t>Have you worked on Multi Threading</t>
+  </si>
+  <si>
+    <t>Explain about Thread Pool</t>
+  </si>
+  <si>
+    <t>Print the Upper Case from the list of Strings in JDK8</t>
+  </si>
+  <si>
+    <t>How you handle the Rollbacks in the Transactions</t>
+  </si>
+  <si>
+    <t>How you handle the Authentication &amp; Authorisation in the project</t>
+  </si>
+  <si>
+    <t>Interservice Comminication how you handle</t>
+  </si>
+  <si>
+    <t>Given a scenario to build a service, steps you follow to achieve it</t>
+  </si>
+  <si>
+    <t>SQL Joins</t>
+  </si>
+  <si>
+    <t>Explain about Left Outer Join</t>
+  </si>
+  <si>
+    <t>Fetch Last 10 Rows with out any default technique</t>
+  </si>
+  <si>
+    <t>Sub Query</t>
+  </si>
+  <si>
+    <t>What is the Sub Query means</t>
+  </si>
+  <si>
+    <t>What are all the JDK 8 features</t>
+  </si>
+  <si>
+    <t>which all collections used, explain about Concurrent Hash Map Specification</t>
+  </si>
+  <si>
+    <t>ConcurrentHashMap is a thread-safe, high-performance, non-blocking version of HashMap.
+It disallows null keys and values, uses bucket-level locking or CAS (Compare-And-Swap), and its iterators are weakly consistent. It's much faster than a synchronized map for concurrent applications.</t>
+  </si>
+  <si>
+    <t>Have you worked on Database Indexes</t>
+  </si>
+  <si>
+    <t>Optional</t>
+  </si>
+  <si>
+    <t>What is Optional class and its methods</t>
+  </si>
+  <si>
+    <t>WellsFargo</t>
+  </si>
+  <si>
+    <t>2PC</t>
+  </si>
+  <si>
+    <t>What is 2 Phase Commit</t>
+  </si>
+  <si>
+    <t>Authentication</t>
+  </si>
+  <si>
+    <t>What is Mutual Authentication</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">As the name suggests, 2pc divides the transaction into two phases — The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Prepare phase and the Commit phase</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>. In the prepare phase, all the involved services are asked to prepare for a transaction, once all the services acknowledge the prepare they are asked to commit the transaction. If any service responds with a negative acknowledgement (in case of any internal error), the transaction is aborted globally in all the involved services.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mutual Authentication (also called Two-Way Authentication) is a security process where:
+➔ Both the client and the server authenticate each other before communication is established.
+In normal authentication:
+Client authenticates the server (e.g., HTTPS website certificate).
+In </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>mutual authentication</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>:
+Client authenticates server AND
+Server authenticates client.
+Mutual Authentication is when both client and server authenticate each other using certificates (usually via mutual TLS).
+It provides stronger security, typically used in banking, financial systems, and secured microservices communication.</t>
+    </r>
+  </si>
+  <si>
+    <t>Web Service</t>
+  </si>
+  <si>
+    <t>What is a web service means</t>
+  </si>
+  <si>
+    <t>A Web Service is a software system designed to allow communication between two devices (applications) over a network (usually the Internet) using standard protocols like HTTP, XML, JSON, SOAP, REST, etc.
+It allows interoperability — meaning two applications built in different languages (Java, .NET, Python) can talk to each other easily.
+✅ Key Points:
+It exposes functionality over a network via APIs.
+It receives a request, processes it, and sends a response (data exchange).
+Communication is typically stateless.
+Data is usually formatted as XML (for SOAP) or JSON (for REST).
+A web service is a way for two applications to communicate over a network by exchanging data using standard protocols like HTTP, SOAP, or REST.</t>
+  </si>
+  <si>
+    <t>Session</t>
+  </si>
+  <si>
+    <t>What is a session means</t>
+  </si>
+  <si>
+    <t>A session is server-side storage that keeps track of user-specific data across multiple HTTP requests, identified using a session ID.
+A Session is a way to maintain state (user data) across multiple requests made by the same client (browser) to a server.
+Since HTTP is stateless (it doesn’t remember anything between two requests), a Session helps the server remember who the user is and what they were doing during their visit.
+In Spring Boot, session management is built on top of HttpSession.
+You can manually use HttpSession, or use @SessionAttributes (controller level), or @SessionScope (bean level) to manage session-scoped data easily.</t>
+  </si>
+  <si>
+    <t>Difference Between Synchronous vs Asynchronous</t>
+  </si>
+  <si>
+    <t>Difference Between Spring vs SpringBoot</t>
+  </si>
+  <si>
+    <t>When you will use Synchronous Map, explain scenarion when will you use ConcurrentHashMap</t>
+  </si>
+  <si>
+    <t>Java uses Call by Value or Reference</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Java is Call by Value — always</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+For primitives, you pass the value.
+For objects, you pass the value of the reference, not the object itself.</t>
+    </r>
+  </si>
+  <si>
+    <t>How to implement JPA in Spring Boot</t>
+  </si>
+  <si>
+    <t>How to implement Transactions, Transactional Manager in Spring Boot</t>
+  </si>
+  <si>
+    <t>In Spring Boot, TransactionManager is auto-configured.
+You simply use @Transactional at the service layer to control commit/rollback behavior.
+Important Points in Interviews: 
+Only unchecked exceptions (RuntimeException) cause automatic rollback by default.
+For checked exceptions, you have to specify manually like this:
+@Transactional(rollbackFor = Exception.class)
+Transaction is started before method runs and committed/rolled back after method finishes.
+Transactions should always be in the service layer, NOT in the controller or repository layer.</t>
+  </si>
+  <si>
+    <t>Explain about the Synchronization</t>
+  </si>
+  <si>
+    <t>ORM Tools</t>
+  </si>
+  <si>
+    <t>Explain about the ORM Tools you have worked</t>
+  </si>
+  <si>
+    <t>What is a Microservice, if you want to migrate to MS what are all the steps we need to take care</t>
+  </si>
+  <si>
+    <t>How you handle distrubuted database transactions</t>
+  </si>
+  <si>
+    <t>Real life scenarios for HashMap &amp; ConcurrentHashMap</t>
+  </si>
+  <si>
+    <t>There is a Customer with customer Information in it &amp; Account with customerId, AccountType information in it, two Objects.
+Write a Java8 program to Get the Customers who are having Multiple AccountTypes</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        // Step 1: Group Accounts by customerId and collect distinct account types
+        Map&lt;Integer, Set&lt;String&gt;&gt; customerAccountTypes = accounts.stream()
+                .collect(Collectors.groupingBy(
+                       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Account::getCustomerId,
+                        Collectors.mapping(Account::getAccountType, Collectors.toSet())</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+                ));
+        // Step 2: Find Customers who have more than one account type
+        List&lt;Customer&gt; customersWithMultipleAccountTypes = customers.stream()
+                .filter(cust -&gt; customerAccountTypes.containsKey(cust.getCustomerId()))
+                .filter(cust -&gt; customerAccountTypes.get(cust.getCustomerId()).size() &gt; 1)
+                .collect(Collectors.toList());</t>
+    </r>
+  </si>
+  <si>
+    <t>Certificates in Authentication</t>
+  </si>
+  <si>
+    <t>What is Dependency Injection</t>
+  </si>
+  <si>
+    <t>What is IOC Container</t>
+  </si>
+  <si>
+    <t>IOC</t>
+  </si>
+  <si>
+    <t>Diamond Problem</t>
+  </si>
+  <si>
+    <t>Daimond problem is for Interface or classes, resoultion for this</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Key Points:
+Java does not allow multiple inheritance for classes — this avoids the classic diamond problem.
+Java allows multiple inheritance for interfaces, but with default methods in Java 8, you may encounter a form of the diamond problem when different interfaces provide the same default method.
+Java resolves it by allowing you to override the method in the implementing class and use the super keyword to choose the method from a specific interface.
+Diamond Problem in Java occurs when an interface implements multiple default methods with the same signature.
+Java resolves this by requiring explicit overrides in the implementing class and allows the use of super to call the method from specific interfaces.</t>
+  </si>
+  <si>
+    <t>Difference between Horizontal vs Vertical Scaling</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Horizontal Scaling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Scaling Out): Add more machines/instances to handle load. Great for distributed systems.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Vertical Scaling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Scaling Up): Increase the power of a single machine. Simple but limited by hardware.
+Which to Use?
+Horizontal Scaling is the best choice for modern, distributed systems like microservices, cloud-native apps, and websites with rapidly growing traffic.
+Vertical Scaling might be suitable for applications that are not designed to be distributed, like certain database systems or legacy systems where scaling horizontally would be complex.</t>
+    </r>
+  </si>
+  <si>
+    <t>Difference between Cyclic Barrier vs Countdown Latch</t>
+  </si>
+  <si>
+    <t>What is Stream API, are Streams are Immutable ?</t>
+  </si>
+  <si>
+    <t>Difference between Collection &amp; Streams</t>
+  </si>
+  <si>
+    <t>Funtional Interface, what is the use of Default Methods</t>
+  </si>
+  <si>
+    <t>Drawbacks</t>
+  </si>
+  <si>
+    <t>Explain about the Drawbacks of Spring Boot</t>
+  </si>
+  <si>
+    <t>What is @Repository? What is the use of it, how it works internally</t>
+  </si>
+  <si>
+    <t>While Spring Boot offers immense productivity and simplicity, it does come with trade-offs:
+Memory consumption and slower startup due to embedded servers and auto-configuration.
+Limited fine-grained control for complex configurations.
+Not ideal for monolithic systems or legacy applications.
+Dependency bloat due to auto-configuration of unnecessary dependencies.
+Difficult debugging due to abstracted configurations.
+Steep learning curve for beginners.
+Limited flexibility for advanced or non-standard scenarios.</t>
+  </si>
+  <si>
+    <t>Spring: A comprehensive framework for building Java applications, requiring manual configuration and external servers.
+Spring Boot: A simplified version of Spring that provides auto-configuration, embedded servers, and rapid development, especially suited for modern cloud-based applications.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In Spring, IOC (Inversion of Control) Container is a core concept that manages the life cycle and dependencies of objects in a Spring-based application. It is also known as the Spring Container and is responsible for managing beans (objects) and their interactions, including their creation, initialization, and destruction.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>The fundamental principle behind IOC is to invert the control of object creation and dependency management from the application code to the container</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. This helps in promoting loose coupling, reusability, and testability in your application.
+IOC Container is a core component in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Spring that manages the lifecycle and dependencies of objects</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (beans) in a Spring-based application.
+It supports Dependency Injection (DI) to inject objects into classes and helps in loose coupling, easier testing, and centralized configuration.
+Spring provides various types of IOC containers (like BeanFactory and ApplicationContext), and beans are typically defined using annotations like @Component, @Service, and @Repository.</t>
+    </r>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
+  <si>
+    <t>What is the Spring Active Profile</t>
+  </si>
+  <si>
+    <t>Spring Active Profiles allow you to manage environment-specific configurations by defining beans that are conditionally loaded based on the active profile.
+You can define profiles using the @Profile annotation and specify which profile is active via application.properties, programmatically, or in a command-line argument.
+Profiles are useful for separating development, test, and production configurations in a Spring application, making it easier to maintain environment-specific settings.</t>
+  </si>
+  <si>
+    <t>How you will enable Actuator, Swagger URL? What are all configurations needs to be done</t>
+  </si>
+  <si>
+    <t>What is JPA and why do we need it?</t>
+  </si>
+  <si>
+    <t>JPA (Java Persistence API) is a specification for managing relational data in Java applications using object-relational mapping (ORM).
+It simplifies database interactions by allowing developers to work with Java objects instead of SQL queries, providing automatic mapping, transaction management, and support for entity relationships.
+JPA helps improve portability, productivity, and data consistency compared to using raw JDBC, which requires more manual handling of SQL and database connections.</t>
   </si>
 </sst>
 </file>
@@ -2945,11 +3398,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L424"/>
+  <dimension ref="A1:L481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A420" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B425" sqref="B425"/>
+      <pane ySplit="1" topLeftCell="A480" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B482" sqref="B482"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8265,7 +8718,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="417" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B417" s="2" t="s">
         <v>15</v>
       </c>
@@ -8276,7 +8729,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="418" spans="2:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="B418" s="2" t="s">
         <v>15</v>
       </c>
@@ -8287,7 +8740,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="419" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B419" s="2" t="s">
         <v>33</v>
       </c>
@@ -8298,7 +8751,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="420" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B420" s="2" t="s">
         <v>202</v>
       </c>
@@ -8309,7 +8762,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="421" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B421" s="2" t="s">
         <v>33</v>
       </c>
@@ -8320,7 +8773,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="422" spans="2:5" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B422" s="2" t="s">
         <v>225</v>
       </c>
@@ -8334,7 +8787,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="423" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B423" s="2" t="s">
         <v>37</v>
       </c>
@@ -8345,7 +8798,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="424" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B424" s="2" t="s">
         <v>30</v>
       </c>
@@ -8354,6 +8807,771 @@
       </c>
       <c r="D424" s="8" t="s">
         <v>669</v>
+      </c>
+    </row>
+    <row r="425" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A425" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="B425" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C425" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D425" s="8" t="s">
+        <v>671</v>
+      </c>
+      <c r="G425" s="4">
+        <v>44366</v>
+      </c>
+      <c r="L425" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="426" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B426" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C426" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D426" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="427" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B427" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C427" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D427" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="428" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B428" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C428" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D428" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="429" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B429" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C429" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D429" s="8" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="430" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B430" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C430" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D430" s="8" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="431" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A431" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B431" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C431" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D431" s="8" t="s">
+        <v>674</v>
+      </c>
+      <c r="G431" s="4">
+        <v>44367</v>
+      </c>
+      <c r="H431" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="432" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B432" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C432" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D432" s="8" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B433" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C433" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D433" s="8" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B434" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C434" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D434" s="8" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B435" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C435" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D435" s="8" t="s">
+        <v>676</v>
+      </c>
+      <c r="F435" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B436" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C436" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D436" s="8" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B437" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C437" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D437" s="8" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B438" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C438" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="D438" s="8" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B439" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C439" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="D439" s="8" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B440" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C440" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D440" s="8" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B441" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C441" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="D441" s="1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B442" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C442" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D442" s="8" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B443" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C443" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D443" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="E443" s="8" t="s">
+        <v>687</v>
+      </c>
+      <c r="F443" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B444" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C444" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D444" s="8" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B445" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C445" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="D445" s="8" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A446" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="B446" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C446" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="D446" s="8" t="s">
+        <v>693</v>
+      </c>
+      <c r="E446" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="F446" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" ht="165.75" x14ac:dyDescent="0.2">
+      <c r="B447" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C447" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="D447" s="8" t="s">
+        <v>695</v>
+      </c>
+      <c r="E447" s="8" t="s">
+        <v>697</v>
+      </c>
+      <c r="F447" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" ht="178.5" x14ac:dyDescent="0.2">
+      <c r="B448" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C448" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="D448" s="8" t="s">
+        <v>699</v>
+      </c>
+      <c r="E448" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="F448" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="449" spans="2:6" ht="153" x14ac:dyDescent="0.2">
+      <c r="B449" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C449" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="D449" s="8" t="s">
+        <v>702</v>
+      </c>
+      <c r="E449" s="8" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="450" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B450" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C450" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D450" s="8" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="451" spans="2:6" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="B451" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C451" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D451" s="8" t="s">
+        <v>705</v>
+      </c>
+      <c r="E451" s="8" t="s">
+        <v>737</v>
+      </c>
+      <c r="F451" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="452" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B452" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C452" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D452" s="8" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="453" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B453" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C453" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D453" s="8" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="454" spans="2:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B454" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C454" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="D454" s="8" t="s">
+        <v>707</v>
+      </c>
+      <c r="E454" s="8" t="s">
+        <v>708</v>
+      </c>
+      <c r="F454" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="455" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B455" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C455" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D455" s="8" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="456" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B456" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C456" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D456" s="8" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="457" spans="2:6" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="B457" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C457" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E457" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="F457" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="458" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B458" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C458" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D458" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="459" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B459" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C459" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D459" s="1" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="460" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B460" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C460" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="D460" s="1" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="461" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B461" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C461" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D461" s="8" t="s">
+        <v>715</v>
+      </c>
+      <c r="F461" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="462" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B462" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C462" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D462" s="8" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="463" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B463" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C463" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D463" s="8" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="464" spans="2:6" ht="153" x14ac:dyDescent="0.2">
+      <c r="B464" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C464" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D464" s="8" t="s">
+        <v>718</v>
+      </c>
+      <c r="E464" s="8" t="s">
+        <v>719</v>
+      </c>
+      <c r="F464" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="465" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B465" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C465" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D465" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="466" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B466" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C466" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="D466" s="8" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="467" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B467" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C467" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D467" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="468" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B468" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C468" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D468" s="8" t="s">
+        <v>721</v>
+      </c>
+      <c r="F468" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="469" spans="1:9" ht="204" x14ac:dyDescent="0.2">
+      <c r="B469" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C469" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="D469" s="8" t="s">
+        <v>722</v>
+      </c>
+      <c r="E469" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="F469" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="470" spans="1:9" ht="153" x14ac:dyDescent="0.2">
+      <c r="B470" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C470" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="D470" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="E470" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="F470" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="471" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+      <c r="B471" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C471" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D471" s="8" t="s">
+        <v>727</v>
+      </c>
+      <c r="E471" s="8" t="s">
+        <v>728</v>
+      </c>
+      <c r="F471" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="472" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A472" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B472" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C472" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D472" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="F472" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="G472" s="4">
+        <v>44406</v>
+      </c>
+      <c r="H472" s="2">
+        <v>40</v>
+      </c>
+      <c r="I472" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="473" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B473" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C473" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D473" s="8" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="474" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B474" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C474" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D474" s="1" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="475" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B475" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C475" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D475" s="8" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="476" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B476" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C476" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D476" s="8" t="s">
+        <v>731</v>
+      </c>
+      <c r="F476" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="477" spans="1:9" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="B477" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C477" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="D477" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="E477" s="8" t="s">
+        <v>736</v>
+      </c>
+      <c r="F477" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="478" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B478" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C478" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D478" s="8" t="s">
+        <v>735</v>
+      </c>
+      <c r="F478" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="479" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+      <c r="B479" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C479" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="D479" s="8" t="s">
+        <v>740</v>
+      </c>
+      <c r="E479" s="8" t="s">
+        <v>741</v>
+      </c>
+      <c r="F479" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="480" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B480" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C480" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D480" s="8" t="s">
+        <v>742</v>
+      </c>
+      <c r="F480" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="481" spans="2:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="B481" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C481" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D481" s="8" t="s">
+        <v>743</v>
+      </c>
+      <c r="E481" s="8" t="s">
+        <v>744</v>
+      </c>
+      <c r="F481" s="12" t="s">
+        <v>473</v>
       </c>
     </row>
   </sheetData>

--- a/src/resources/Docs/Java-Interview-Questions.xlsx
+++ b/src/resources/Docs/Java-Interview-Questions.xlsx
@@ -18,6 +18,9 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$493</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1731" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2139" uniqueCount="884">
   <si>
     <t>Company</t>
   </si>
@@ -163,9 +166,6 @@
   </si>
   <si>
     <t>Internal Implemenation of SET, how it will handles the duplicate values</t>
-  </si>
-  <si>
-    <t>Difference between Spring Controller &amp; Rest Controller</t>
   </si>
   <si>
     <t>REST</t>
@@ -2288,9 +2288,6 @@
     <t>Have you worked on Asynchronous Frameworks</t>
   </si>
   <si>
-    <t>Explain about the Microservices Architecture</t>
-  </si>
-  <si>
     <t>How do you test Rest Controller using JUNIT</t>
   </si>
   <si>
@@ -2706,9 +2703,6 @@
   </si>
   <si>
     <t>Difference Between Synchronous vs Asynchronous</t>
-  </si>
-  <si>
-    <t>Difference Between Spring vs SpringBoot</t>
   </si>
   <si>
     <t>When you will use Synchronous Map, explain scenarion when will you use ConcurrentHashMap</t>
@@ -2991,6 +2985,666 @@
 It simplifies database interactions by allowing developers to work with Java objects instead of SQL queries, providing automatic mapping, transaction management, and support for entity relationships.
 JPA helps improve portability, productivity, and data consistency compared to using raw JDBC, which requires more manual handling of SQL and database connections.</t>
   </si>
+  <si>
+    <t>ClassA{  method M1(); }
+ClassB extends ClassA{  method M2(); }
+ClassC extends ClassB{ method M3(); }
+can we create object like ClassA object = new ClassC();</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Yes, you can create an object like ClassA object = new ClassC(); — this is perfectly valid in Java.
+Why is it allowed?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Inheritance Principle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: In Java, child class objects can be referred to by parent class references. (Because child class is-a parent class, via inheritance.)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Polymorphism</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: This is the basis for polymorphism in Java — ability to refer to child objects with parent types.
+ClassA obj = new ClassC(); ➔ Allowed.
+You can call only methods available in ClassA directly.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>To access ClassB or ClassC methods, downcasting is needed.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Parent class throws RuntimeException, Child class throws Exception. Is this valid? </t>
+  </si>
+  <si>
+    <t>No, it is NOT valid.
+In Java, a child class method cannot throw broader (more general) checked exceptions than the parent class method.
+Important Points:
+Unchecked exceptions (subclasses of RuntimeException) can be thrown freely.
+Checked exceptions (subclasses of Exception, but not RuntimeException) must match or narrow.
+Overridden methods cannot introduce new checked exceptions not declared by the base class method.
+❌ Parent throws RuntimeException, child cannot throw checked Exception.
+✅ Child can throw unchecked exceptions (like RuntimeException or its subtypes) freely.</t>
+  </si>
+  <si>
+    <t>Explain about Spring Bean Life Cycle</t>
+  </si>
+  <si>
+    <t>Explain about Junit, Mockito, how you test private methods</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Use Reflection</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Not Recommended, but Possible)
+    @Test
+    public void testPrivateAddMethod() throws Exception {
+        MyClass myClass = new MyClass();
+        Method method = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>MyClass.class.getDeclaredMethod</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>("add", int.class, int.class);
+        method.setAccessible(true); // bypass private access
+        int result = (int) method.invoke(myClass, 2, 3);
+        assertEquals(5, result);
+    }</t>
+    </r>
+  </si>
+  <si>
+    <t>Difference between Java7 and Java8</t>
+  </si>
+  <si>
+    <t>Anonymous class ➔ Old, verbose, can extend/implement anything.
+Lambda expression ➔ New, concise, only for Functional Interfaces, better performance.</t>
+  </si>
+  <si>
+    <t>Difference between Anonymous vs Lambda Expresssion</t>
+  </si>
+  <si>
+    <t>what is Lambda Expresssion, relation between FI and LE?</t>
+  </si>
+  <si>
+    <t>Explain about the Spring Security Implementation</t>
+  </si>
+  <si>
+    <t>Explain about the Exception Implementation or handling in Microservices</t>
+  </si>
+  <si>
+    <t>Difference between @Controller vs @RestController</t>
+  </si>
+  <si>
+    <t>Explain difference between Final, Finally, Finalize</t>
+  </si>
+  <si>
+    <t>try, finally, catch blocks exists. Will this ordered code works?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>No, try + finally + catch order will NOT work</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>. Compiler will throw an error.
+✅ Valid Orders:
+try + catch,          try + finally,        try + catch + finally
+🔴 Invalid:
+try + finally + catch ➔ ❌ Not allowed</t>
+    </r>
+  </si>
+  <si>
+    <t>Difference between Checked Exceptions vs Un-Checked Exceptions</t>
+  </si>
+  <si>
+    <t>Clone</t>
+  </si>
+  <si>
+    <t>Difference between Shallow Copy vs Deep Copy</t>
+  </si>
+  <si>
+    <t>Interceptor</t>
+  </si>
+  <si>
+    <t>What is an Interceptor</t>
+  </si>
+  <si>
+    <t>Which are all the methods in Object class we cannot override</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>❌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Cannot override: getClass(), wait(), notify(), notifyAll() (all are final).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Can override: toString(), equals(), hashCode(), clone().</t>
+    </r>
+  </si>
+  <si>
+    <t>JDK7</t>
+  </si>
+  <si>
+    <t>Explain the features of JDK 7</t>
+  </si>
+  <si>
+    <t>Explain the feature try with resources</t>
+  </si>
+  <si>
+    <t>try {
+    // risky code
+} catch (IOException | SQLException e) {
+    System.out.println("Exception occurred: " + e.getMessage());
+}
+If the try block throws either IOException or SQLException, this single catch block will handle it.
+👉 Key Rules:
+Exceptions must be unrelated (no parent-child relationship between them).
+The caught exception variable (e) is final (you cannot assign a new value to it inside the catch block).
+Common handling logic is applied for all exceptions caught.
+Compiler ensures no duplicate exception types inside the |.</t>
+  </si>
+  <si>
+    <t>Multi Catch Block and its specifications</t>
+  </si>
+  <si>
+    <t>Explain all the HTTP Methods and it uses</t>
+  </si>
+  <si>
+    <t>Difference Between List vs Set, Internal Implementation of SET</t>
+  </si>
+  <si>
+    <t>Explain HashMap internal Implementation</t>
+  </si>
+  <si>
+    <t>Explain about the Actuator, how you implement it</t>
+  </si>
+  <si>
+    <t>Features of JDK8</t>
+  </si>
+  <si>
+    <t>Explain about Funtional Interface &amp; Lambda Expression</t>
+  </si>
+  <si>
+    <t>Print the first 2 values of a LinkedHashMap</t>
+  </si>
+  <si>
+    <t>Can we replace the Lamda Expression with Anonymous class</t>
+  </si>
+  <si>
+    <t>Yes, you can replace a Lambda Expression with an Anonymous Class, but Lambda Expressions are more concise and readable.
+Anonymous Classes are useful if you need to implement multiple methods (like when extending a class), while Lambdas are ideal for functional interfaces.</t>
+  </si>
+  <si>
+    <t>Spring Modules</t>
+  </si>
+  <si>
+    <t>Explain the Spring Modules</t>
+  </si>
+  <si>
+    <t>Implementation of Many to Many Relation</t>
+  </si>
+  <si>
+    <t>Caching</t>
+  </si>
+  <si>
+    <t>Explain the Technical Architecture of Microservices</t>
+  </si>
+  <si>
+    <t>Which are all the Annotations you used in Spring Boot</t>
+  </si>
+  <si>
+    <t>IRIS</t>
+  </si>
+  <si>
+    <t>Cohesion</t>
+  </si>
+  <si>
+    <t>What is Cohesion &amp; Coupling</t>
+  </si>
+  <si>
+    <t>Difference between Encapsulation vs Abstraction</t>
+  </si>
+  <si>
+    <t>Print the First Non-Repeated word from a given string</t>
+  </si>
+  <si>
+    <t>Password should string or char Array ? Why is it so?</t>
+  </si>
+  <si>
+    <t>char[] is preferred over String for storing passwords because:
+String is immutable and may remain in memory longer.
+char[] allows explicit memory clearing for better security.
+Sensitive data in String can be leaked or logged, while char[] gives you control over erasing the data.</t>
+  </si>
+  <si>
+    <t>Difference between Externalisation vs Serialization</t>
+  </si>
+  <si>
+    <t>IO Streams</t>
+  </si>
+  <si>
+    <t>Different streams you worked on</t>
+  </si>
+  <si>
+    <t>Difference between Input Stream and Reader</t>
+  </si>
+  <si>
+    <t>InputStream: Handles binary data (bytes), good for non-text files (images, audio, etc.).
+Reader: Handles character data (text), best for reading text-based files.
+Conversion: Use InputStreamReader to convert InputStream to a Reader if you need to read text from a byte stream.</t>
+  </si>
+  <si>
+    <t>Difference between Parellelism vs Concurrency</t>
+  </si>
+  <si>
+    <t>Real-World Analogy:
+Concurrency: Imagine a person juggling 3 balls. The person is not throwing all balls at once, but instead, they are managing them by switching hands in quick succession.
+Parallelism: Imagine three people, each throwing one ball at the same time. They’re all working together to get the task done faster.
+Can Concurrency and Parallelism Happen Together?
+Yes! Concurrency and parallelism can coexist in systems:
+For example, a multi-core machine may execute several concurrent tasks in parallel. Each task is handled on a separate core, but the tasks may also be interdependent and require management.
+Concurrency: Handling multiple tasks at once (task switching), but not necessarily simultaneously.
+Parallelism: Executing multiple tasks at the same time (in parallel on multiple cores/processors).</t>
+  </si>
+  <si>
+    <t>Difference Between Synchronization vs Object Lock</t>
+  </si>
+  <si>
+    <t>Synchronization: Mechanism to control access to a method/block of code in a multi-threaded environment, ensuring only one thread accesses the critical section at a time.
+Object Lock: Internal lock (monitor) associated with an object, used by synchronization to control access.</t>
+  </si>
+  <si>
+    <t>Explain about the Strategic Design Pattern, Decorator Design Pattern</t>
+  </si>
+  <si>
+    <t>Executor Framework will use which data structure</t>
+  </si>
+  <si>
+    <t>The Executor Framework in Java generally uses a BlockingQueue (like LinkedBlockingQueue, ArrayBlockingQueue, or SynchronousQueue) to manage tasks before they are executed by threads in the pool.
+This data structure helps in managing tasks, supporting blocking operations when the pool is full or when there are no tasks.</t>
+  </si>
+  <si>
+    <t>JSP</t>
+  </si>
+  <si>
+    <t>Explain about the JSP life cycle</t>
+  </si>
+  <si>
+    <t>why _jspService</t>
+  </si>
+  <si>
+    <t>extends in jsp</t>
+  </si>
+  <si>
+    <t>what are page directives</t>
+  </si>
+  <si>
+    <t>how you handle request and response in JSP</t>
+  </si>
+  <si>
+    <t>How you handle session in JSP</t>
+  </si>
+  <si>
+    <t>Differnce between Fail-Fast and Fail-Safe</t>
+  </si>
+  <si>
+    <t>String vs char[] as password</t>
+  </si>
+  <si>
+    <t>Is it possible to call Non-Static method from a Static method</t>
+  </si>
+  <si>
+    <t>Yes, it is possible to call a non-static method from a static method in Java, but it requires an instance of the class to be created because non-static methods belong to instances of a class, whereas static methods belong to the class itself.
+How to Call Non-Static Method from Static Method:
+To call a non-static method from a static method, you must do the following:
+Create an instance of the class within the static method.
+Use the instance to call the non-static method.</t>
+  </si>
+  <si>
+    <t>Why Interfaces required</t>
+  </si>
+  <si>
+    <t>Diamond Problem explain</t>
+  </si>
+  <si>
+    <t>Exception occurred, it is handled. What happens to that object now?</t>
+  </si>
+  <si>
+    <t>When an exception occurs and is caught (handled) in Java, the exception object typically becomes eligible for garbage collection after the exception is handled, if no references to it remain.
+After an exception is thrown and handled in a catch block, the exception object becomes eligible for garbage collection once it goes out of scope and is no longer referenced.</t>
+  </si>
+  <si>
+    <t>Validations in Struts</t>
+  </si>
+  <si>
+    <t>How can you call a JSP from a java class</t>
+  </si>
+  <si>
+    <t>Difference between HashMap vs Hash Table</t>
+  </si>
+  <si>
+    <t>What is Synchronization</t>
+  </si>
+  <si>
+    <t>Multi Threading have you worked</t>
+  </si>
+  <si>
+    <t>How to pass values from one JSP or Other JSP</t>
+  </si>
+  <si>
+    <t>what is Static</t>
+  </si>
+  <si>
+    <t>Spring Web</t>
+  </si>
+  <si>
+    <t>what is Spring Web flow</t>
+  </si>
+  <si>
+    <t>Brillio</t>
+  </si>
+  <si>
+    <t>what is Lambda Expresssion, relation between FI and LE? Why default methods</t>
+  </si>
+  <si>
+    <t>What is ThreadPool executor</t>
+  </si>
+  <si>
+    <t>What is Executor Thread</t>
+  </si>
+  <si>
+    <t>What is Proirity Queue</t>
+  </si>
+  <si>
+    <t>What is @AutoConfiguration</t>
+  </si>
+  <si>
+    <t>Starters</t>
+  </si>
+  <si>
+    <t>What are different Spring Boot Starters</t>
+  </si>
+  <si>
+    <t>ThymLeaf</t>
+  </si>
+  <si>
+    <t>What is ThymLeaf</t>
+  </si>
+  <si>
+    <t>How do you configure Database in Spring Boot</t>
+  </si>
+  <si>
+    <t>How do you fetch values from a Database in Spring Boot</t>
+  </si>
+  <si>
+    <t>How do you handle transactions in Database in Spring Boot</t>
+  </si>
+  <si>
+    <t>Sort a list in descending order in JDK8</t>
+  </si>
+  <si>
+    <t>How many types of Injections are there</t>
+  </si>
+  <si>
+    <t>What is Stream API</t>
+  </si>
+  <si>
+    <t>What is Predicate</t>
+  </si>
+  <si>
+    <t>What is @Qualifier Annotation</t>
+  </si>
+  <si>
+    <t>Persistant</t>
+  </si>
+  <si>
+    <t>Multi data source configuration</t>
+  </si>
+  <si>
+    <t>Can we use POST method for fetching?</t>
+  </si>
+  <si>
+    <t>🏅 Best Practice Recommendation
+Use GET to retrieve data when possible, as it is semantically correct for fetching resources.
+Use POST for data that may modify server state or requires complex data payloads that can't be handled by URL query parameters.
+⚡ TL DR for Interviews
+Yes, you can use POST to fetch data, but it’s not semantically correct and generally not recommended in RESTful APIs. GET should be used for fetching data, while POST should be reserved for creating or modifying resources or handling complex queries that don’t fit in a URL.</t>
+  </si>
+  <si>
+    <t>Compsition</t>
+  </si>
+  <si>
+    <t>What is Composition, Aggregation</t>
+  </si>
+  <si>
+    <t>Can we extend a String Class</t>
+  </si>
+  <si>
+    <t>Make an Employee Class as Immutable</t>
+  </si>
+  <si>
+    <t>HashMap and how it is important?
+Adding an employee object as Key in Hashmap?
+What Happens ? How it behaves?</t>
+  </si>
+  <si>
+    <t>Internal Implementation of Hashmap</t>
+  </si>
+  <si>
+    <t>Print the Most Repeated word from a given Scentence</t>
+  </si>
+  <si>
+    <t>Print the given string in ascending order
+Eg: This test is Hello Bye
+OP: Hello is this bye test</t>
+  </si>
+  <si>
+    <t>Internal Working of Compare method of Comparator Interface</t>
+  </si>
+  <si>
+    <t>🔹 Summary of Internal Working:
+Input: The compare() method receives two objects (parameters o1 and o2).
+Comparison Logic: The method applies business logic to compare these objects (e.g., comparing fields like age, name).
+Return Value: Based on the comparison:
+Positive number (&gt; 0) means o1 is greater than o2.
+Negative number (&lt; 0) means o1 is less than o2.
+Zero (0) means o1 is equal to o2.</t>
+  </si>
+  <si>
+    <t>What is output
+        method1(1);
+        method1("Krishna");
+        method1(null);</t>
+  </si>
+  <si>
+    <t>There are 3 threads where Thread1 prints 1, Thread2 prints 2, Thread3 prints 3
+Write a Program to print values sequentially.
+Output: 1 2 3 1 2 3 1 2 3</t>
+  </si>
+  <si>
+    <t>Bottom Line</t>
+  </si>
+  <si>
+    <t>Create two lists out of a hash map using streams in one shot</t>
+  </si>
+  <si>
+    <t>You can use Java Streams to extract keys and values from a HashMap and collect them into two separate lists by calling keySet().stream() for keys and values().stream() for values, and using the Collectors.toList() to collect the results.</t>
+  </si>
+  <si>
+    <t>Idempotency</t>
+  </si>
+  <si>
+    <t>what is Idempotency</t>
+  </si>
+  <si>
+    <t>how to change the port for the application</t>
+  </si>
+  <si>
+    <t>how do you configure dynamic port for the application</t>
+  </si>
+  <si>
+    <t>Set Random Port: Use server.port=0 in application.properties or application.yml for a random port.
+Access Port Dynamically: Inject local.server.port or use @Value to retrieve the port.
+Set Port via Command-Line Arguments: Pass --server.port=&lt;desired_port&gt; when running the app.
+Set Port Programmatically: Use SpringApplication.setDefaultProperties() to dynamically configure the port.</t>
+  </si>
+  <si>
+    <t>Have you worked on Kafka</t>
+  </si>
+  <si>
+    <t>How you configure an End Point</t>
+  </si>
+  <si>
+    <t>React JS</t>
+  </si>
+  <si>
+    <t>Have you worked on React JS</t>
+  </si>
+  <si>
+    <t>SocGen</t>
+  </si>
+  <si>
+    <t>Difference between Map and FlatMap</t>
+  </si>
+  <si>
+    <t>Optional.isEmpty() significance over regular NULL Check</t>
+  </si>
+  <si>
+    <t>Find the *.txt file names from a given list.
+If there is a name like abc.txt123.txt ? How to handle this</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        // Regular expression to match files ending with .txt (and ensure it's not part of a larger string)
+        String regex = "^[\\w,\\s-]+\\.txt$";</t>
+  </si>
+  <si>
+    <t>Write a program to find a loop in Linked List</t>
+  </si>
+  <si>
+    <t>arr[] = {23,24,25,21,19,26,23}
+output: [1,1,3,2,1,-1,-2]
+Find the iteration count for every temparature which are greater than the given value</t>
+  </si>
+  <si>
+    <t>How to make a class an Immutable</t>
+  </si>
+  <si>
+    <t>What are proxy Annotations</t>
+  </si>
 </sst>
 </file>
 
@@ -2999,7 +3653,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -3035,6 +3689,20 @@
       <u/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="9" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -3398,17 +4066,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L481"/>
+  <dimension ref="A1:L601"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A480" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B482" sqref="B482"/>
+      <pane ySplit="1" topLeftCell="A584" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B602" sqref="B602"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="2" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="68.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="96.28515625" style="8" customWidth="1"/>
@@ -3439,7 +4107,7 @@
         <v>6</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>1</v>
@@ -3457,7 +4125,7 @@
         <v>39</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -3502,27 +4170,27 @@
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>45</v>
+        <v>755</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>48</v>
-      </c>
       <c r="F5" s="12" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -3530,10 +4198,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -3541,10 +4209,10 @@
         <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -3552,10 +4220,10 @@
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -3563,13 +4231,13 @@
         <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>55</v>
-      </c>
       <c r="F9" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
@@ -3580,7 +4248,7 @@
         <v>35</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -3588,24 +4256,24 @@
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="8" t="s">
         <v>61</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -3613,24 +4281,24 @@
         <v>15</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="8" t="s">
         <v>70</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>71</v>
       </c>
       <c r="G14" s="4">
         <v>44281</v>
@@ -3650,7 +4318,7 @@
         <v>20</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -3658,10 +4326,10 @@
         <v>9</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>73</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
@@ -3669,10 +4337,10 @@
         <v>9</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="51" x14ac:dyDescent="0.2">
@@ -3680,13 +4348,13 @@
         <v>9</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="E18" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
@@ -3694,10 +4362,10 @@
         <v>9</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
@@ -3705,10 +4373,10 @@
         <v>9</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>82</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
@@ -3716,10 +4384,10 @@
         <v>9</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>84</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
@@ -3727,13 +4395,13 @@
         <v>9</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="E22" s="8" t="s">
         <v>87</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
@@ -3744,10 +4412,10 @@
         <v>35</v>
       </c>
       <c r="D23" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
@@ -3755,10 +4423,10 @@
         <v>9</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
@@ -3766,10 +4434,10 @@
         <v>15</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
@@ -3777,10 +4445,10 @@
         <v>15</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>93</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
@@ -3788,21 +4456,21 @@
         <v>37</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="8" t="s">
         <v>95</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
@@ -3810,10 +4478,10 @@
         <v>12</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
@@ -3824,7 +4492,7 @@
         <v>35</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
@@ -3832,13 +4500,13 @@
         <v>15</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
@@ -3849,13 +4517,13 @@
         <v>21</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E32" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="E32" s="8" t="s">
-        <v>105</v>
-      </c>
       <c r="F32" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -3863,13 +4531,13 @@
         <v>15</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="D33" s="8" t="s">
-        <v>107</v>
-      </c>
       <c r="F33" s="12" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -3877,10 +4545,10 @@
         <v>9</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D34" s="8" t="s">
         <v>108</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -3888,15 +4556,15 @@
         <v>15</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35" s="8" t="s">
         <v>110</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>15</v>
@@ -3905,7 +4573,7 @@
         <v>20</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G36" s="4">
         <v>44294</v>
@@ -3922,10 +4590,10 @@
         <v>30</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -3933,10 +4601,10 @@
         <v>15</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D38" s="8" t="s">
         <v>115</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -3944,35 +4612,35 @@
         <v>15</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="D41" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
@@ -3980,16 +4648,16 @@
         <v>15</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E42" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="D42" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>124</v>
-      </c>
       <c r="F42" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -3997,10 +4665,10 @@
         <v>15</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -4008,10 +4676,10 @@
         <v>33</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D44" s="8" t="s">
         <v>126</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -4019,10 +4687,10 @@
         <v>9</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D45" s="8" t="s">
         <v>129</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -4030,10 +4698,10 @@
         <v>9</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D46" s="8" t="s">
         <v>84</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -4041,10 +4709,10 @@
         <v>9</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -4052,10 +4720,10 @@
         <v>9</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -4063,10 +4731,10 @@
         <v>9</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -4074,24 +4742,24 @@
         <v>37</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="D51" s="8" t="s">
         <v>136</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>137</v>
       </c>
       <c r="G51" s="4">
         <v>44345</v>
@@ -4105,13 +4773,13 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
@@ -4119,10 +4787,10 @@
         <v>9</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -4130,10 +4798,10 @@
         <v>9</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -4141,32 +4809,32 @@
         <v>15</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D55" s="8" t="s">
         <v>144</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B57" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C57" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D57" s="8" t="s">
         <v>147</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -4177,7 +4845,7 @@
         <v>20</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
@@ -4188,10 +4856,10 @@
         <v>18</v>
       </c>
       <c r="D59" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E59" s="8" t="s">
         <v>150</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
@@ -4199,10 +4867,10 @@
         <v>9</v>
       </c>
       <c r="C60" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D60" s="8" t="s">
         <v>152</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
@@ -4213,13 +4881,13 @@
         <v>18</v>
       </c>
       <c r="D61" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="E61" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="E61" s="8" t="s">
-        <v>155</v>
-      </c>
       <c r="F61" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
@@ -4227,10 +4895,10 @@
         <v>9</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
@@ -4238,10 +4906,10 @@
         <v>9</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
@@ -4249,10 +4917,10 @@
         <v>9</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
@@ -4260,24 +4928,24 @@
         <v>9</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C66" s="1" t="s">
+      <c r="D66" s="8" t="s">
         <v>161</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>162</v>
       </c>
       <c r="G66" s="4">
         <v>44348</v>
@@ -4294,24 +4962,24 @@
         <v>9</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C68" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D68" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="D68" s="8" t="s">
-        <v>165</v>
-      </c>
       <c r="F68" s="12" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
@@ -4319,10 +4987,10 @@
         <v>12</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>45</v>
+        <v>755</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
@@ -4330,13 +4998,13 @@
         <v>9</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
@@ -4344,10 +5012,10 @@
         <v>15</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
@@ -4355,10 +5023,10 @@
         <v>9</v>
       </c>
       <c r="C72" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D72" s="8" t="s">
         <v>168</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
@@ -4366,10 +5034,10 @@
         <v>9</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
@@ -4377,10 +5045,10 @@
         <v>9</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
@@ -4388,13 +5056,13 @@
         <v>9</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
@@ -4402,21 +5070,21 @@
         <v>9</v>
       </c>
       <c r="C76" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D76" s="8" t="s">
         <v>173</v>
-      </c>
-      <c r="D76" s="8" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B77" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C77" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D77" s="8" t="s">
         <v>175</v>
-      </c>
-      <c r="D77" s="8" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
@@ -4424,13 +5092,13 @@
         <v>9</v>
       </c>
       <c r="C78" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D78" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="D78" s="8" t="s">
+      <c r="E78" s="8" t="s">
         <v>178</v>
-      </c>
-      <c r="E78" s="8" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
@@ -4438,10 +5106,10 @@
         <v>30</v>
       </c>
       <c r="C79" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D79" s="8" t="s">
         <v>180</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
@@ -4449,10 +5117,10 @@
         <v>30</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
@@ -4460,10 +5128,10 @@
         <v>9</v>
       </c>
       <c r="C81" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D81" s="8" t="s">
         <v>183</v>
-      </c>
-      <c r="D81" s="8" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
@@ -4471,10 +5139,10 @@
         <v>9</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
@@ -4482,13 +5150,13 @@
         <v>12</v>
       </c>
       <c r="C83" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D83" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="D83" s="8" t="s">
-        <v>187</v>
-      </c>
       <c r="F83" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
@@ -4496,21 +5164,21 @@
         <v>9</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B85" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
@@ -4518,16 +5186,16 @@
         <v>9</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D86" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E86" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="E86" s="8" t="s">
-        <v>191</v>
-      </c>
       <c r="F86" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
@@ -4535,10 +5203,10 @@
         <v>9</v>
       </c>
       <c r="C87" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D87" s="8" t="s">
         <v>192</v>
-      </c>
-      <c r="D87" s="8" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="51" x14ac:dyDescent="0.2">
@@ -4546,21 +5214,21 @@
         <v>9</v>
       </c>
       <c r="C88" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E88" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="E88" s="8" t="s">
-        <v>195</v>
-      </c>
       <c r="F88" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>9</v>
@@ -4569,40 +5237,40 @@
         <v>35</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B90" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B91" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B92" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
@@ -4610,10 +5278,10 @@
         <v>9</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
@@ -4621,10 +5289,10 @@
         <v>9</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
@@ -4632,24 +5300,24 @@
         <v>9</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C96" s="1" t="s">
+      <c r="D96" s="8" t="s">
         <v>206</v>
-      </c>
-      <c r="D96" s="8" t="s">
-        <v>207</v>
       </c>
       <c r="G96" s="4">
         <v>44350</v>
@@ -4666,10 +5334,10 @@
         <v>9</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.2">
@@ -4677,10 +5345,10 @@
         <v>9</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.2">
@@ -4688,10 +5356,10 @@
         <v>9</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.2">
@@ -4699,10 +5367,10 @@
         <v>9</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.2">
@@ -4710,10 +5378,10 @@
         <v>15</v>
       </c>
       <c r="C101" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D101" s="8" t="s">
         <v>211</v>
-      </c>
-      <c r="D101" s="8" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.2">
@@ -4721,10 +5389,10 @@
         <v>15</v>
       </c>
       <c r="C102" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D102" s="8" t="s">
         <v>213</v>
-      </c>
-      <c r="D102" s="8" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.2">
@@ -4732,10 +5400,10 @@
         <v>12</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="104" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
@@ -4746,7 +5414,7 @@
         <v>20</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="105" spans="2:6" ht="38.25" x14ac:dyDescent="0.2">
@@ -4754,13 +5422,13 @@
         <v>9</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D105" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="E105" s="8" t="s">
         <v>218</v>
-      </c>
-      <c r="E105" s="8" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="106" spans="2:6" ht="63.75" x14ac:dyDescent="0.2">
@@ -4768,38 +5436,38 @@
         <v>9</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D106" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="E106" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="E106" s="8" t="s">
-        <v>221</v>
-      </c>
       <c r="F106" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B107" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C107" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D107" s="8" t="s">
         <v>222</v>
-      </c>
-      <c r="D107" s="8" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B108" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.2">
@@ -4810,7 +5478,7 @@
         <v>35</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.2">
@@ -4821,7 +5489,7 @@
         <v>35</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.2">
@@ -4829,13 +5497,13 @@
         <v>15</v>
       </c>
       <c r="C111" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D111" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="D111" s="8" t="s">
-        <v>228</v>
-      </c>
       <c r="F111" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.2">
@@ -4843,21 +5511,21 @@
         <v>9</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B113" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D113" s="8" t="s">
         <v>230</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D113" s="8" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
@@ -4868,7 +5536,7 @@
         <v>41</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
@@ -4876,10 +5544,10 @@
         <v>9</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="116" spans="1:12" ht="102" x14ac:dyDescent="0.2">
@@ -4887,16 +5555,16 @@
         <v>9</v>
       </c>
       <c r="C116" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D116" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="D116" s="8" t="s">
+      <c r="E116" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="E116" s="8" t="s">
-        <v>237</v>
-      </c>
       <c r="F116" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.2">
@@ -4904,10 +5572,10 @@
         <v>9</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.2">
@@ -4918,24 +5586,24 @@
         <v>35</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="119" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B119" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C119" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D119" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="D119" s="8" t="s">
+      <c r="E119" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="E119" s="8" t="s">
-        <v>244</v>
-      </c>
       <c r="F119" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.2">
@@ -4943,10 +5611,10 @@
         <v>37</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.2">
@@ -4954,15 +5622,15 @@
         <v>9</v>
       </c>
       <c r="C121" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D121" s="8" t="s">
         <v>177</v>
-      </c>
-      <c r="D121" s="8" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>15</v>
@@ -4971,10 +5639,10 @@
         <v>35</v>
       </c>
       <c r="D122" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="L122" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="L122" s="2" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.2">
@@ -4982,10 +5650,10 @@
         <v>15</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.2">
@@ -4993,10 +5661,10 @@
         <v>9</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.2">
@@ -5004,10 +5672,10 @@
         <v>30</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.2">
@@ -5015,10 +5683,10 @@
         <v>9</v>
       </c>
       <c r="C126" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D126" s="8" t="s">
         <v>253</v>
-      </c>
-      <c r="D126" s="8" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.2">
@@ -5026,10 +5694,10 @@
         <v>12</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.2">
@@ -5040,7 +5708,7 @@
         <v>31</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.2">
@@ -5048,10 +5716,10 @@
         <v>15</v>
       </c>
       <c r="C129" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D129" s="8" t="s">
         <v>257</v>
-      </c>
-      <c r="D129" s="8" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
@@ -5059,13 +5727,13 @@
         <v>15</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F130" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.2">
@@ -5076,7 +5744,7 @@
         <v>35</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.2">
@@ -5084,10 +5752,10 @@
         <v>15</v>
       </c>
       <c r="C132" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D132" s="8" t="s">
         <v>211</v>
-      </c>
-      <c r="D132" s="8" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
@@ -5095,10 +5763,10 @@
         <v>30</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
@@ -5106,10 +5774,10 @@
         <v>30</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
@@ -5120,10 +5788,10 @@
         <v>35</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F135" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="136" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
@@ -5131,21 +5799,21 @@
         <v>15</v>
       </c>
       <c r="C136" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D136" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="D136" s="8" t="s">
+      <c r="E136" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="E136" s="8" t="s">
-        <v>266</v>
-      </c>
       <c r="F136" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>15</v>
@@ -5154,10 +5822,10 @@
         <v>35</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L137" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
@@ -5165,10 +5833,10 @@
         <v>9</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
@@ -5176,16 +5844,16 @@
         <v>15</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D139" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E139" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="E139" s="8" t="s">
-        <v>270</v>
-      </c>
       <c r="F139" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
@@ -5193,21 +5861,21 @@
         <v>15</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B141" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C141" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C141" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="D141" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.2">
@@ -5215,43 +5883,43 @@
         <v>15</v>
       </c>
       <c r="C142" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D142" s="8" t="s">
         <v>257</v>
-      </c>
-      <c r="D142" s="8" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B143" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B144" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B145" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
@@ -5259,24 +5927,24 @@
         <v>15</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F146" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B147" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
@@ -5284,10 +5952,10 @@
         <v>9</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
@@ -5295,10 +5963,10 @@
         <v>9</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
@@ -5306,24 +5974,24 @@
         <v>12</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D151" s="8" t="s">
         <v>281</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D151" s="8" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="51" x14ac:dyDescent="0.2">
@@ -5331,10 +5999,10 @@
         <v>12</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
@@ -5342,38 +6010,38 @@
         <v>15</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F153" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B154" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C154" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D154" s="8" t="s">
         <v>285</v>
-      </c>
-      <c r="D154" s="8" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B155" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C155" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D155" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="D155" s="8" t="s">
-        <v>288</v>
-      </c>
       <c r="F155" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
@@ -5381,13 +6049,13 @@
         <v>15</v>
       </c>
       <c r="C156" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D156" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="D156" s="8" t="s">
-        <v>290</v>
-      </c>
       <c r="F156" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
@@ -5395,13 +6063,13 @@
         <v>12</v>
       </c>
       <c r="C157" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D157" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="D157" s="8" t="s">
-        <v>292</v>
-      </c>
       <c r="F157" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
@@ -5409,13 +6077,13 @@
         <v>9</v>
       </c>
       <c r="C158" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D158" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="D158" s="8" t="s">
-        <v>294</v>
-      </c>
       <c r="F158" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
@@ -5423,13 +6091,13 @@
         <v>9</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D159" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="E159" t="s">
         <v>295</v>
-      </c>
-      <c r="E159" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="165.75" x14ac:dyDescent="0.2">
@@ -5437,16 +6105,16 @@
         <v>9</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D160" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="E160" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="E160" s="8" t="s">
-        <v>298</v>
-      </c>
       <c r="F160" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
@@ -5454,13 +6122,13 @@
         <v>15</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D161" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="E161" s="8" t="s">
         <v>299</v>
-      </c>
-      <c r="E161" s="8" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
@@ -5468,10 +6136,10 @@
         <v>9</v>
       </c>
       <c r="C162" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D162" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
@@ -5479,13 +6147,13 @@
         <v>9</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F163" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="140.25" x14ac:dyDescent="0.2">
@@ -5493,13 +6161,13 @@
         <v>9</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D164" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="E164" s="8" t="s">
         <v>304</v>
-      </c>
-      <c r="E164" s="8" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
@@ -5507,10 +6175,10 @@
         <v>9</v>
       </c>
       <c r="C165" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D165" s="8" t="s">
         <v>307</v>
-      </c>
-      <c r="D165" s="8" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
@@ -5521,7 +6189,7 @@
         <v>41</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
@@ -5529,10 +6197,10 @@
         <v>9</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">
@@ -5540,10 +6208,10 @@
         <v>34</v>
       </c>
       <c r="C168" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D168" s="8" t="s">
         <v>311</v>
-      </c>
-      <c r="D168" s="8" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.2">
@@ -5551,10 +6219,10 @@
         <v>9</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
@@ -5562,10 +6230,10 @@
         <v>9</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
@@ -5573,13 +6241,13 @@
         <v>9</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F171" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
@@ -5587,10 +6255,10 @@
         <v>9</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
@@ -5598,13 +6266,13 @@
         <v>12</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F173" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="51" x14ac:dyDescent="0.2">
@@ -5612,30 +6280,30 @@
         <v>12</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D174" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="E174" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="E174" s="8" t="s">
-        <v>318</v>
-      </c>
       <c r="F174" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D175" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G175" s="4">
         <v>44355</v>
@@ -5652,10 +6320,10 @@
         <v>15</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
@@ -5666,7 +6334,7 @@
         <v>35</v>
       </c>
       <c r="D177" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
@@ -5677,13 +6345,13 @@
         <v>20</v>
       </c>
       <c r="D178" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="E178" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="E178" s="8" t="s">
-        <v>323</v>
-      </c>
       <c r="F178" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
@@ -5691,10 +6359,10 @@
         <v>15</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D179" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
@@ -5702,10 +6370,10 @@
         <v>15</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D180" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
@@ -5713,10 +6381,10 @@
         <v>9</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D181" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
@@ -5724,10 +6392,10 @@
         <v>9</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
@@ -5738,15 +6406,15 @@
         <v>20</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F183" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>15</v>
@@ -5755,10 +6423,10 @@
         <v>20</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F184" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G184" s="4">
         <v>44355</v>
@@ -5772,10 +6440,10 @@
         <v>15</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D185" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -5786,13 +6454,13 @@
         <v>35</v>
       </c>
       <c r="D186" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E186" s="8" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F186" s="12" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
@@ -5800,13 +6468,13 @@
         <v>30</v>
       </c>
       <c r="C187" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D187" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="D187" s="8" t="s">
-        <v>334</v>
-      </c>
       <c r="F187" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
@@ -5814,10 +6482,10 @@
         <v>36</v>
       </c>
       <c r="C188" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D188" s="8" t="s">
         <v>335</v>
-      </c>
-      <c r="D188" s="8" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
@@ -5828,7 +6496,7 @@
         <v>35</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
@@ -5839,7 +6507,7 @@
         <v>35</v>
       </c>
       <c r="D190" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
@@ -5847,10 +6515,10 @@
         <v>15</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D191" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
@@ -5858,27 +6526,27 @@
         <v>15</v>
       </c>
       <c r="C192" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D192" s="8" t="s">
         <v>338</v>
-      </c>
-      <c r="D192" s="8" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C193" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B193" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C193" s="1" t="s">
+      <c r="D193" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="D193" s="1" t="s">
-        <v>342</v>
-      </c>
       <c r="F193" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G193" s="4">
         <v>44356</v>
@@ -5892,13 +6560,13 @@
         <v>9</v>
       </c>
       <c r="C194" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D194" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="D194" s="8" t="s">
-        <v>344</v>
-      </c>
       <c r="F194" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
@@ -5906,10 +6574,10 @@
         <v>9</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D195" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
@@ -5917,32 +6585,32 @@
         <v>9</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D196" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B197" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C197" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="C197" s="1" t="s">
+      <c r="D197" s="8" t="s">
         <v>348</v>
-      </c>
-      <c r="D197" s="8" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B198" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C198" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D198" s="8" t="s">
         <v>350</v>
-      </c>
-      <c r="D198" s="8" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
@@ -5950,10 +6618,10 @@
         <v>15</v>
       </c>
       <c r="C199" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D199" s="8" t="s">
         <v>211</v>
-      </c>
-      <c r="D199" s="8" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
@@ -5961,10 +6629,10 @@
         <v>15</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D200" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
@@ -5975,7 +6643,7 @@
         <v>20</v>
       </c>
       <c r="D201" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
@@ -5983,10 +6651,10 @@
         <v>15</v>
       </c>
       <c r="C202" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D202" s="8" t="s">
         <v>352</v>
-      </c>
-      <c r="D202" s="8" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
@@ -5994,10 +6662,10 @@
         <v>15</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D203" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
@@ -6008,7 +6676,7 @@
         <v>35</v>
       </c>
       <c r="D204" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
@@ -6016,10 +6684,10 @@
         <v>15</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D205" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
@@ -6027,10 +6695,10 @@
         <v>15</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D206" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
@@ -6041,18 +6709,18 @@
         <v>22</v>
       </c>
       <c r="D207" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B208" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C208" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D208" s="8" t="s">
         <v>359</v>
-      </c>
-      <c r="D208" s="8" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.2">
@@ -6060,10 +6728,10 @@
         <v>37</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D209" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.2">
@@ -6074,24 +6742,24 @@
         <v>33</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C211" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B211" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C211" s="1" t="s">
+      <c r="D211" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="D211" s="1" t="s">
-        <v>365</v>
-      </c>
       <c r="L211" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.2">
@@ -6102,7 +6770,7 @@
         <v>35</v>
       </c>
       <c r="D212" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.2">
@@ -6110,10 +6778,10 @@
         <v>9</v>
       </c>
       <c r="C213" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D213" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="D213" s="1" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.2">
@@ -6124,18 +6792,18 @@
         <v>15</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B215" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C215" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D215" s="8" t="s">
         <v>370</v>
-      </c>
-      <c r="D215" s="8" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.2">
@@ -6143,10 +6811,10 @@
         <v>15</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D216" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.2">
@@ -6154,10 +6822,10 @@
         <v>15</v>
       </c>
       <c r="C217" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D217" s="8" t="s">
         <v>211</v>
-      </c>
-      <c r="D217" s="8" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.2">
@@ -6165,27 +6833,27 @@
         <v>15</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D218" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="219" spans="1:12" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D219" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="E219" s="8" t="s">
         <v>374</v>
-      </c>
-      <c r="E219" s="8" t="s">
-        <v>375</v>
       </c>
       <c r="G219" s="4">
         <v>44358</v>
@@ -6199,10 +6867,10 @@
         <v>9</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D220" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.2">
@@ -6210,10 +6878,10 @@
         <v>15</v>
       </c>
       <c r="C221" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D221" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="D221" s="1" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.2">
@@ -6221,10 +6889,10 @@
         <v>15</v>
       </c>
       <c r="C222" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D222" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="D222" s="1" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.2">
@@ -6232,21 +6900,21 @@
         <v>15</v>
       </c>
       <c r="C223" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D223" s="8" t="s">
         <v>381</v>
-      </c>
-      <c r="D223" s="8" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B224" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D224" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.2">
@@ -6254,10 +6922,10 @@
         <v>15</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D225" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.2">
@@ -6265,41 +6933,41 @@
         <v>9</v>
       </c>
       <c r="C226" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D226" s="1" t="s">
         <v>384</v>
-      </c>
-      <c r="D226" s="1" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="227" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B227" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C227" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D227" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="D227" s="8" t="s">
+      <c r="E227" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="E227" s="8" t="s">
-        <v>388</v>
-      </c>
       <c r="F227" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C228" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D228" s="8" t="s">
         <v>390</v>
-      </c>
-      <c r="D228" s="8" t="s">
-        <v>391</v>
       </c>
       <c r="G228" s="4">
         <v>44359</v>
@@ -6316,10 +6984,10 @@
         <v>15</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D229" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.2">
@@ -6327,10 +6995,10 @@
         <v>15</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D230" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.2">
@@ -6338,13 +7006,13 @@
         <v>15</v>
       </c>
       <c r="C231" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D231" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="D231" s="8" t="s">
-        <v>394</v>
-      </c>
       <c r="F231" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.2">
@@ -6352,10 +7020,10 @@
         <v>9</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D232" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.2">
@@ -6363,10 +7031,10 @@
         <v>9</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D233" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.2">
@@ -6377,27 +7045,27 @@
         <v>35</v>
       </c>
       <c r="D234" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="235" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C235" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="B235" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C235" s="1" t="s">
+      <c r="D235" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="D235" s="8" t="s">
+      <c r="E235" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="E235" s="8" t="s">
-        <v>400</v>
-      </c>
       <c r="F235" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G235" s="4">
         <v>44363</v>
@@ -6411,13 +7079,13 @@
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B236" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C236" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D236" s="8" t="s">
         <v>401</v>
-      </c>
-      <c r="D236" s="8" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.2">
@@ -6425,10 +7093,10 @@
         <v>9</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D237" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.2">
@@ -6439,7 +7107,7 @@
         <v>35</v>
       </c>
       <c r="D238" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.2">
@@ -6447,10 +7115,10 @@
         <v>9</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D239" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="240" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
@@ -6458,16 +7126,16 @@
         <v>9</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D240" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="E240" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="E240" s="8" t="s">
-        <v>406</v>
-      </c>
       <c r="F240" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.2">
@@ -6475,13 +7143,13 @@
         <v>9</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D241" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F241" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.2">
@@ -6489,13 +7157,13 @@
         <v>9</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D242" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F242" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.2">
@@ -6503,13 +7171,13 @@
         <v>9</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D243" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F243" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.2">
@@ -6517,10 +7185,10 @@
         <v>9</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D244" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="245" spans="1:9" ht="102" x14ac:dyDescent="0.2">
@@ -6528,16 +7196,16 @@
         <v>9</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D245" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="E245" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="E245" s="8" t="s">
-        <v>412</v>
-      </c>
       <c r="F245" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.2">
@@ -6545,24 +7213,24 @@
         <v>9</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D246" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F246" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B247" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D247" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.2">
@@ -6570,13 +7238,13 @@
         <v>9</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D248" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F248" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="249" spans="1:9" ht="216.75" x14ac:dyDescent="0.2">
@@ -6584,30 +7252,30 @@
         <v>15</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D249" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="E249" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="E249" s="8" t="s">
-        <v>417</v>
-      </c>
       <c r="F249" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D250" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G250" s="4">
         <v>44365</v>
@@ -6624,10 +7292,10 @@
         <v>15</v>
       </c>
       <c r="C251" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D251" s="8" t="s">
         <v>420</v>
-      </c>
-      <c r="D251" s="8" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.2">
@@ -6638,7 +7306,7 @@
         <v>12</v>
       </c>
       <c r="D252" s="8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.2">
@@ -6649,7 +7317,7 @@
         <v>12</v>
       </c>
       <c r="D253" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.2">
@@ -6660,7 +7328,7 @@
         <v>12</v>
       </c>
       <c r="D254" s="8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="255" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
@@ -6671,13 +7339,13 @@
         <v>35</v>
       </c>
       <c r="D255" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E255" s="8" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F255" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.2">
@@ -6685,13 +7353,13 @@
         <v>15</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D256" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F256" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.2">
@@ -6702,7 +7370,7 @@
         <v>35</v>
       </c>
       <c r="D257" s="8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.2">
@@ -6710,13 +7378,13 @@
         <v>15</v>
       </c>
       <c r="C258" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D258" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="D258" s="8" t="s">
-        <v>430</v>
-      </c>
       <c r="F258" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="259" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -6724,35 +7392,35 @@
         <v>15</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D259" s="8" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F259" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B260" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C260" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D260" s="8" t="s">
         <v>432</v>
-      </c>
-      <c r="D260" s="8" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B261" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D261" s="8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="262" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -6760,10 +7428,10 @@
         <v>15</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D262" s="8" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.2">
@@ -6774,43 +7442,43 @@
         <v>33</v>
       </c>
       <c r="D263" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B264" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D264" s="8" t="s">
         <v>437</v>
-      </c>
-      <c r="C264" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="D264" s="8" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B265" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D265" s="8" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="266" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D266" s="8" t="s">
         <v>440</v>
-      </c>
-      <c r="B266" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C266" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D266" s="8" t="s">
-        <v>441</v>
       </c>
       <c r="G266" s="4">
         <v>44368</v>
@@ -6824,24 +7492,24 @@
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B267" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C267" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="D267" s="8" t="s">
         <v>442</v>
-      </c>
-      <c r="D267" s="8" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B268" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C268" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D268" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="D268" s="8" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.2">
@@ -6849,10 +7517,10 @@
         <v>9</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D269" s="8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.2">
@@ -6860,10 +7528,10 @@
         <v>9</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D270" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.2">
@@ -6871,13 +7539,13 @@
         <v>15</v>
       </c>
       <c r="C271" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D271" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="D271" s="8" t="s">
-        <v>449</v>
-      </c>
       <c r="F271" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.2">
@@ -6885,21 +7553,21 @@
         <v>30</v>
       </c>
       <c r="C272" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D272" s="8" t="s">
         <v>450</v>
-      </c>
-      <c r="D272" s="8" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B273" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C273" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D273" s="8" t="s">
         <v>452</v>
-      </c>
-      <c r="D273" s="8" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.2">
@@ -6907,10 +7575,10 @@
         <v>15</v>
       </c>
       <c r="C274" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D274" s="8" t="s">
         <v>211</v>
-      </c>
-      <c r="D274" s="8" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.2">
@@ -6918,10 +7586,10 @@
         <v>37</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D275" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.2">
@@ -6929,10 +7597,10 @@
         <v>12</v>
       </c>
       <c r="C276" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D276" s="8" t="s">
         <v>455</v>
-      </c>
-      <c r="D276" s="8" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.2">
@@ -6940,38 +7608,38 @@
         <v>9</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D277" s="8" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D278" s="8" t="s">
         <v>458</v>
-      </c>
-      <c r="B278" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C278" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D278" s="8" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B279" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C279" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D279" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="D279" s="8" t="s">
-        <v>461</v>
-      </c>
       <c r="L279" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.2">
@@ -6979,10 +7647,10 @@
         <v>9</v>
       </c>
       <c r="C280" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D280" s="8" t="s">
         <v>462</v>
-      </c>
-      <c r="D280" s="8" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.2">
@@ -6990,13 +7658,13 @@
         <v>9</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D281" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F281" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.2">
@@ -7004,10 +7672,10 @@
         <v>9</v>
       </c>
       <c r="C282" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D282" s="8" t="s">
         <v>464</v>
-      </c>
-      <c r="D282" s="8" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.2">
@@ -7015,10 +7683,10 @@
         <v>15</v>
       </c>
       <c r="C283" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="D283" s="8" t="s">
         <v>466</v>
-      </c>
-      <c r="D283" s="8" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.2">
@@ -7026,33 +7694,33 @@
         <v>9</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D284" s="8" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="285" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B285" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D285" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="E285" s="8" t="s">
         <v>468</v>
       </c>
-      <c r="E285" s="8" t="s">
-        <v>469</v>
-      </c>
       <c r="F285" s="12" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L285" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.2">
@@ -7060,10 +7728,10 @@
         <v>9</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D286" s="8" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="287" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
@@ -7071,27 +7739,27 @@
         <v>15</v>
       </c>
       <c r="C287" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D287" s="8" t="s">
         <v>471</v>
       </c>
-      <c r="D287" s="8" t="s">
-        <v>472</v>
-      </c>
       <c r="E287" s="8" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F287" s="12" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B288" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C288" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D288" s="8" t="s">
         <v>338</v>
-      </c>
-      <c r="D288" s="8" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.2">
@@ -7099,24 +7767,24 @@
         <v>9</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D289" s="8" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C290" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="B290" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C290" s="1" t="s">
+      <c r="D290" s="8" t="s">
         <v>481</v>
-      </c>
-      <c r="D290" s="8" t="s">
-        <v>482</v>
       </c>
       <c r="G290" s="4">
         <v>44370</v>
@@ -7130,24 +7798,24 @@
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B291" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C291" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="D291" s="8" t="s">
         <v>442</v>
-      </c>
-      <c r="D291" s="8" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B292" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D292" s="8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.2">
@@ -7155,10 +7823,10 @@
         <v>12</v>
       </c>
       <c r="C293" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D293" s="8" t="s">
         <v>484</v>
-      </c>
-      <c r="D293" s="8" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.2">
@@ -7166,10 +7834,10 @@
         <v>9</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D294" s="8" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.2">
@@ -7177,10 +7845,10 @@
         <v>9</v>
       </c>
       <c r="C295" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D295" s="8" t="s">
         <v>129</v>
-      </c>
-      <c r="D295" s="8" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.2">
@@ -7188,10 +7856,10 @@
         <v>9</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D296" s="8" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.2">
@@ -7199,33 +7867,33 @@
         <v>9</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D297" s="8" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="298" spans="1:12" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B298" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C298" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D298" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D298" s="8" t="s">
+      <c r="E298" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="E298" s="8" t="s">
-        <v>498</v>
-      </c>
       <c r="F298" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L298" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="299" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
@@ -7233,16 +7901,16 @@
         <v>12</v>
       </c>
       <c r="C299" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="D299" s="8" t="s">
         <v>499</v>
       </c>
-      <c r="D299" s="8" t="s">
+      <c r="E299" s="8" t="s">
         <v>500</v>
       </c>
-      <c r="E299" s="8" t="s">
-        <v>501</v>
-      </c>
       <c r="F299" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.2">
@@ -7250,10 +7918,10 @@
         <v>9</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D300" s="8" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.2">
@@ -7261,27 +7929,27 @@
         <v>30</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D301" s="8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="302" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
       <c r="B302" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D302" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="E302" s="8" t="s">
         <v>504</v>
       </c>
-      <c r="E302" s="8" t="s">
-        <v>505</v>
-      </c>
       <c r="F302" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.2">
@@ -7292,7 +7960,7 @@
         <v>22</v>
       </c>
       <c r="D303" s="8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.2">
@@ -7303,7 +7971,7 @@
         <v>35</v>
       </c>
       <c r="D304" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.2">
@@ -7311,10 +7979,10 @@
         <v>9</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D305" s="8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.2">
@@ -7325,21 +7993,21 @@
         <v>20</v>
       </c>
       <c r="D306" s="8" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A307" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D307" s="8" t="s">
         <v>510</v>
-      </c>
-      <c r="B307" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C307" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D307" s="8" t="s">
-        <v>511</v>
       </c>
       <c r="G307" s="4">
         <v>44376</v>
@@ -7353,13 +8021,13 @@
         <v>9</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D308" s="8" t="s">
+        <v>511</v>
+      </c>
+      <c r="E308" s="8" t="s">
         <v>512</v>
-      </c>
-      <c r="E308" s="8" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.2">
@@ -7367,10 +8035,10 @@
         <v>15</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D309" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.2">
@@ -7378,13 +8046,13 @@
         <v>9</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D310" s="8" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F310" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.2">
@@ -7392,10 +8060,10 @@
         <v>9</v>
       </c>
       <c r="C311" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D311" s="8" t="s">
         <v>516</v>
-      </c>
-      <c r="D311" s="8" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="312" spans="1:9" ht="51" x14ac:dyDescent="0.2">
@@ -7403,64 +8071,64 @@
         <v>9</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D312" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="E312" s="8" t="s">
         <v>518</v>
-      </c>
-      <c r="E312" s="8" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="313" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B313" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="D313" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="E313" s="8" t="s">
         <v>522</v>
-      </c>
-      <c r="C313" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="D313" s="8" t="s">
-        <v>520</v>
-      </c>
-      <c r="E313" s="8" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="314" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
       <c r="B314" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D314" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="E314" s="8" t="s">
         <v>524</v>
       </c>
-      <c r="E314" s="8" t="s">
-        <v>525</v>
-      </c>
       <c r="F314" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="315" spans="1:9" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A315" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C315" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="D315" s="8" t="s">
         <v>526</v>
       </c>
-      <c r="D315" s="8" t="s">
+      <c r="E315" s="8" t="s">
         <v>527</v>
       </c>
-      <c r="E315" s="8" t="s">
-        <v>528</v>
-      </c>
       <c r="F315" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G315" s="4">
         <v>44380</v>
@@ -7477,10 +8145,10 @@
         <v>15</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D316" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.2">
@@ -7488,10 +8156,10 @@
         <v>15</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D317" s="8" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.2">
@@ -7502,10 +8170,10 @@
         <v>20</v>
       </c>
       <c r="D318" s="8" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F318" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.2">
@@ -7513,10 +8181,10 @@
         <v>15</v>
       </c>
       <c r="C319" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D319" s="8" t="s">
         <v>531</v>
-      </c>
-      <c r="D319" s="8" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="320" spans="1:9" ht="229.5" x14ac:dyDescent="0.2">
@@ -7524,16 +8192,16 @@
         <v>15</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D320" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="E320" s="8" t="s">
         <v>535</v>
       </c>
-      <c r="E320" s="8" t="s">
-        <v>536</v>
-      </c>
       <c r="F320" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="321" spans="1:12" ht="51" x14ac:dyDescent="0.2">
@@ -7541,16 +8209,16 @@
         <v>9</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D321" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="E321" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="E321" s="8" t="s">
-        <v>538</v>
-      </c>
       <c r="F321" s="12" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.2">
@@ -7558,10 +8226,10 @@
         <v>9</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D322" s="8" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.2">
@@ -7569,13 +8237,13 @@
         <v>9</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D323" s="8" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F323" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.2">
@@ -7583,10 +8251,10 @@
         <v>9</v>
       </c>
       <c r="C324" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D324" s="1" t="s">
         <v>541</v>
-      </c>
-      <c r="D324" s="1" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.2">
@@ -7594,10 +8262,10 @@
         <v>15</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D325" s="8" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.2">
@@ -7605,30 +8273,30 @@
         <v>15</v>
       </c>
       <c r="C326" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D326" s="8" t="s">
         <v>544</v>
       </c>
-      <c r="D326" s="8" t="s">
-        <v>545</v>
-      </c>
       <c r="F326" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A327" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D327" s="8" t="s">
         <v>546</v>
       </c>
-      <c r="B327" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C327" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D327" s="8" t="s">
-        <v>547</v>
-      </c>
       <c r="L327" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.2">
@@ -7636,10 +8304,10 @@
         <v>34</v>
       </c>
       <c r="C328" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D328" s="8" t="s">
         <v>548</v>
-      </c>
-      <c r="D328" s="8" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="329" spans="1:12" x14ac:dyDescent="0.2">
@@ -7647,10 +8315,10 @@
         <v>9</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D329" s="8" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="330" spans="1:12" x14ac:dyDescent="0.2">
@@ -7661,10 +8329,10 @@
         <v>22</v>
       </c>
       <c r="D330" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F330" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="331" spans="1:12" x14ac:dyDescent="0.2">
@@ -7672,10 +8340,10 @@
         <v>9</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D331" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="332" spans="1:12" x14ac:dyDescent="0.2">
@@ -7683,10 +8351,10 @@
         <v>9</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D332" s="8" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="333" spans="1:12" ht="127.5" x14ac:dyDescent="0.2">
@@ -7697,13 +8365,13 @@
         <v>22</v>
       </c>
       <c r="D333" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="E333" s="8" t="s">
         <v>554</v>
       </c>
-      <c r="E333" s="8" t="s">
-        <v>555</v>
-      </c>
       <c r="F333" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="334" spans="1:12" x14ac:dyDescent="0.2">
@@ -7711,10 +8379,10 @@
         <v>9</v>
       </c>
       <c r="C334" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="D334" s="8" t="s">
         <v>556</v>
-      </c>
-      <c r="D334" s="8" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="335" spans="1:12" x14ac:dyDescent="0.2">
@@ -7722,10 +8390,10 @@
         <v>9</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.2">
@@ -7733,10 +8401,10 @@
         <v>9</v>
       </c>
       <c r="C336" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="D336" s="8" t="s">
         <v>559</v>
-      </c>
-      <c r="D336" s="8" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="337" spans="1:12" x14ac:dyDescent="0.2">
@@ -7744,10 +8412,10 @@
         <v>9</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D337" s="8" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="338" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
@@ -7755,10 +8423,10 @@
         <v>9</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D338" s="8" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="339" spans="1:12" x14ac:dyDescent="0.2">
@@ -7766,10 +8434,10 @@
         <v>9</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D339" s="8" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="340" spans="1:12" x14ac:dyDescent="0.2">
@@ -7777,10 +8445,10 @@
         <v>9</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D340" s="8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="341" spans="1:12" x14ac:dyDescent="0.2">
@@ -7788,27 +8456,27 @@
         <v>9</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D341" s="8" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="342" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A342" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C342" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="B342" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C342" s="1" t="s">
+      <c r="D342" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="D342" s="1" t="s">
-        <v>568</v>
-      </c>
       <c r="L342" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="343" spans="1:12" x14ac:dyDescent="0.2">
@@ -7816,24 +8484,24 @@
         <v>9</v>
       </c>
       <c r="C343" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D343" s="8" t="s">
         <v>569</v>
       </c>
-      <c r="D343" s="8" t="s">
-        <v>570</v>
-      </c>
       <c r="F343" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="344" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B344" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D344" s="8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="345" spans="1:12" x14ac:dyDescent="0.2">
@@ -7844,24 +8512,24 @@
         <v>22</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F345" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A346" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D346" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G346" s="4">
         <v>44357</v>
@@ -7875,10 +8543,10 @@
         <v>9</v>
       </c>
       <c r="C347" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="D347" s="8" t="s">
         <v>574</v>
-      </c>
-      <c r="D347" s="8" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.2">
@@ -7886,10 +8554,10 @@
         <v>9</v>
       </c>
       <c r="C348" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="D348" s="8" t="s">
         <v>576</v>
-      </c>
-      <c r="D348" s="8" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.2">
@@ -7897,10 +8565,10 @@
         <v>9</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D349" s="8" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.2">
@@ -7908,10 +8576,10 @@
         <v>9</v>
       </c>
       <c r="C350" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="D350" s="8" t="s">
         <v>579</v>
-      </c>
-      <c r="D350" s="8" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.2">
@@ -7919,10 +8587,10 @@
         <v>9</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D351" s="8" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.2">
@@ -7930,10 +8598,10 @@
         <v>30</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D352" s="8" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.2">
@@ -7941,10 +8609,10 @@
         <v>9</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D353" s="8" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.2">
@@ -7952,10 +8620,10 @@
         <v>12</v>
       </c>
       <c r="C354" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="D354" s="8" t="s">
         <v>584</v>
-      </c>
-      <c r="D354" s="8" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.2">
@@ -7966,7 +8634,7 @@
         <v>20</v>
       </c>
       <c r="D355" s="8" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.2">
@@ -7974,15 +8642,15 @@
         <v>9</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D356" s="8" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A357" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B357" s="2" t="s">
         <v>9</v>
@@ -7991,7 +8659,7 @@
         <v>35</v>
       </c>
       <c r="D357" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="358" spans="1:9" ht="178.5" x14ac:dyDescent="0.2">
@@ -7999,16 +8667,16 @@
         <v>15</v>
       </c>
       <c r="C358" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="D358" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="D358" s="1" t="s">
+      <c r="E358" s="8" t="s">
         <v>590</v>
       </c>
-      <c r="E358" s="8" t="s">
-        <v>591</v>
-      </c>
       <c r="F358" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.2">
@@ -8016,10 +8684,10 @@
         <v>12</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D359" s="8" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="360" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -8027,13 +8695,13 @@
         <v>12</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D360" s="8" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F360" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.2">
@@ -8041,10 +8709,10 @@
         <v>9</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D361" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.2">
@@ -8052,10 +8720,10 @@
         <v>15</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D362" s="8" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.2">
@@ -8063,10 +8731,10 @@
         <v>15</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.2">
@@ -8074,21 +8742,21 @@
         <v>9</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D364" s="8" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B365" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C365" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="D365" s="8" t="s">
         <v>596</v>
-      </c>
-      <c r="D365" s="8" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="366" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
@@ -8096,27 +8764,27 @@
         <v>9</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D366" s="8" t="s">
+        <v>597</v>
+      </c>
+      <c r="E366" s="8" t="s">
         <v>598</v>
-      </c>
-      <c r="E366" s="8" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A367" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B367" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D367" s="8" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G367" s="4">
         <v>44360</v>
@@ -8136,7 +8804,7 @@
         <v>35</v>
       </c>
       <c r="D368" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="369" spans="2:6" x14ac:dyDescent="0.2">
@@ -8144,10 +8812,10 @@
         <v>15</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D369" s="8" t="s">
-        <v>601</v>
+        <v>118</v>
       </c>
     </row>
     <row r="370" spans="2:6" ht="191.25" x14ac:dyDescent="0.2">
@@ -8155,13 +8823,13 @@
         <v>37</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D370" s="8" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E370" s="8" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="371" spans="2:6" x14ac:dyDescent="0.2">
@@ -8169,10 +8837,10 @@
         <v>37</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="372" spans="2:6" x14ac:dyDescent="0.2">
@@ -8180,10 +8848,10 @@
         <v>9</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="373" spans="2:6" x14ac:dyDescent="0.2">
@@ -8191,10 +8859,10 @@
         <v>12</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D373" s="8" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="374" spans="2:6" x14ac:dyDescent="0.2">
@@ -8205,7 +8873,7 @@
         <v>20</v>
       </c>
       <c r="D374" s="8" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="375" spans="2:6" ht="102" x14ac:dyDescent="0.2">
@@ -8216,13 +8884,13 @@
         <v>20</v>
       </c>
       <c r="D375" s="8" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E375" s="8" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="F375" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="376" spans="2:6" x14ac:dyDescent="0.2">
@@ -8230,10 +8898,10 @@
         <v>15</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D376" s="8" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="377" spans="2:6" x14ac:dyDescent="0.2">
@@ -8241,10 +8909,10 @@
         <v>9</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D377" s="8" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="378" spans="2:6" ht="102" x14ac:dyDescent="0.2">
@@ -8252,13 +8920,13 @@
         <v>9</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D378" s="8" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E378" s="8" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="379" spans="2:6" ht="114.75" x14ac:dyDescent="0.2">
@@ -8266,13 +8934,13 @@
         <v>9</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D379" s="8" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E379" s="8" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="380" spans="2:6" x14ac:dyDescent="0.2">
@@ -8280,24 +8948,24 @@
         <v>33</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D380" s="8" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="381" spans="2:6" ht="102" x14ac:dyDescent="0.2">
       <c r="B381" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D381" s="8" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E381" s="8" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="382" spans="2:6" x14ac:dyDescent="0.2">
@@ -8305,21 +8973,21 @@
         <v>9</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D382" s="8" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="383" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B383" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D383" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="384" spans="2:6" x14ac:dyDescent="0.2">
@@ -8327,10 +8995,10 @@
         <v>15</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D384" s="8" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.2">
@@ -8338,10 +9006,10 @@
         <v>15</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D385" s="8" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="386" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
@@ -8349,16 +9017,16 @@
         <v>9</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D386" s="8" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E386" s="8" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F386" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.2">
@@ -8366,13 +9034,13 @@
         <v>9</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D387" s="8" t="s">
+        <v>624</v>
+      </c>
+      <c r="E387" s="8" t="s">
         <v>626</v>
-      </c>
-      <c r="E387" s="8" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.2">
@@ -8380,13 +9048,13 @@
         <v>9</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D388" s="8" t="s">
+        <v>625</v>
+      </c>
+      <c r="E388" s="8" t="s">
         <v>627</v>
-      </c>
-      <c r="E388" s="8" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.2">
@@ -8394,10 +9062,10 @@
         <v>12</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D389" s="8" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.2">
@@ -8405,21 +9073,21 @@
         <v>15</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D390" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="391" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B391" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D391" s="8" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.2">
@@ -8427,10 +9095,10 @@
         <v>15</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D392" s="8" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.2">
@@ -8441,7 +9109,7 @@
         <v>20</v>
       </c>
       <c r="D393" s="8" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.2">
@@ -8449,24 +9117,24 @@
         <v>15</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D394" s="8" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A395" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B395" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D395" s="8" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="G395" s="4">
         <v>44362</v>
@@ -8480,10 +9148,10 @@
         <v>9</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D396" s="8" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.2">
@@ -8491,13 +9159,13 @@
         <v>9</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D397" s="8" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E397" s="8" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.2">
@@ -8505,10 +9173,10 @@
         <v>30</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D398" s="8" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.2">
@@ -8516,57 +9184,69 @@
         <v>9</v>
       </c>
       <c r="C399" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="D399" s="8" t="s">
+        <v>639</v>
+      </c>
+      <c r="E399" s="8" t="s">
         <v>640</v>
-      </c>
-      <c r="D399" s="8" t="s">
-        <v>641</v>
-      </c>
-      <c r="E399" s="8" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A400" s="2" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B400" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D400" s="8" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B401" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C401" s="1" t="s">
+        <v>638</v>
+      </c>
       <c r="D401" s="8" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B402" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C402" s="1" t="s">
+        <v>783</v>
+      </c>
       <c r="D402" s="8" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B403" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C403" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="D403" s="8" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B404" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C404" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="D404" s="8" t="s">
         <v>11</v>
       </c>
@@ -8575,22 +9255,25 @@
       <c r="B405" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C405" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="D405" s="8" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A406" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B406" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D406" s="8" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="G406" s="4">
         <v>44392</v>
@@ -8604,10 +9287,10 @@
         <v>9</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D407" s="8" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="408" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
@@ -8615,13 +9298,13 @@
         <v>9</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D408" s="8" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="E408" s="8" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="409" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -8632,13 +9315,13 @@
         <v>20</v>
       </c>
       <c r="D409" s="8" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E409" s="8" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="F409" s="12" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="410" spans="1:8" x14ac:dyDescent="0.2">
@@ -8646,10 +9329,10 @@
         <v>15</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D410" s="8" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="411" spans="1:8" x14ac:dyDescent="0.2">
@@ -8657,32 +9340,32 @@
         <v>15</v>
       </c>
       <c r="C411" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="D411" s="8" t="s">
         <v>533</v>
-      </c>
-      <c r="D411" s="8" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="412" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B412" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D412" s="8" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="413" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B413" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D413" s="8" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.2">
@@ -8690,10 +9373,10 @@
         <v>9</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D414" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="415" spans="1:8" x14ac:dyDescent="0.2">
@@ -8704,7 +9387,7 @@
         <v>22</v>
       </c>
       <c r="D415" s="8" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="416" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
@@ -8715,7 +9398,7 @@
         <v>22</v>
       </c>
       <c r="D416" s="8" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="417" spans="1:12" x14ac:dyDescent="0.2">
@@ -8723,10 +9406,10 @@
         <v>15</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D417" s="8" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="418" spans="1:12" ht="51" x14ac:dyDescent="0.2">
@@ -8734,10 +9417,10 @@
         <v>15</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D418" s="8" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="419" spans="1:12" x14ac:dyDescent="0.2">
@@ -8745,21 +9428,21 @@
         <v>33</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D419" s="8" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="420" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B420" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C420" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D420" s="8" t="s">
         <v>452</v>
-      </c>
-      <c r="D420" s="8" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="421" spans="1:12" x14ac:dyDescent="0.2">
@@ -8767,24 +9450,24 @@
         <v>33</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D421" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="422" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B422" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D422" s="8" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E422" s="8" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="423" spans="1:12" x14ac:dyDescent="0.2">
@@ -8792,10 +9475,10 @@
         <v>37</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D423" s="8" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="424" spans="1:12" x14ac:dyDescent="0.2">
@@ -8803,15 +9486,15 @@
         <v>30</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D424" s="8" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="425" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A425" s="2" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B425" s="2" t="s">
         <v>15</v>
@@ -8820,13 +9503,13 @@
         <v>35</v>
       </c>
       <c r="D425" s="8" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G425" s="4">
         <v>44366</v>
       </c>
       <c r="L425" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="426" spans="1:12" x14ac:dyDescent="0.2">
@@ -8834,10 +9517,10 @@
         <v>15</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D426" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="427" spans="1:12" x14ac:dyDescent="0.2">
@@ -8845,10 +9528,10 @@
         <v>9</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D427" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="428" spans="1:12" x14ac:dyDescent="0.2">
@@ -8856,10 +9539,10 @@
         <v>9</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D428" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="429" spans="1:12" x14ac:dyDescent="0.2">
@@ -8867,10 +9550,10 @@
         <v>9</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D429" s="8" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="430" spans="1:12" x14ac:dyDescent="0.2">
@@ -8878,24 +9561,24 @@
         <v>9</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D430" s="8" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="431" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A431" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B431" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D431" s="8" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G431" s="4">
         <v>44367</v>
@@ -8909,10 +9592,10 @@
         <v>9</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D432" s="8" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.2">
@@ -8923,7 +9606,7 @@
         <v>20</v>
       </c>
       <c r="D433" s="8" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.2">
@@ -8931,10 +9614,10 @@
         <v>15</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D434" s="8" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.2">
@@ -8942,13 +9625,13 @@
         <v>15</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D435" s="8" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="F435" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.2">
@@ -8956,10 +9639,10 @@
         <v>15</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D436" s="8" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.2">
@@ -8967,10 +9650,10 @@
         <v>15</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D437" s="8" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.2">
@@ -8978,10 +9661,10 @@
         <v>34</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D438" s="8" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.2">
@@ -8989,10 +9672,10 @@
         <v>30</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D439" s="8" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.2">
@@ -9000,10 +9683,10 @@
         <v>30</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D440" s="8" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.2">
@@ -9011,10 +9694,10 @@
         <v>30</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D441" s="1" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.2">
@@ -9022,10 +9705,10 @@
         <v>9</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D442" s="8" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="443" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
@@ -9036,13 +9719,13 @@
         <v>41</v>
       </c>
       <c r="D443" s="8" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E443" s="8" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F443" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.2">
@@ -9050,10 +9733,10 @@
         <v>30</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D444" s="8" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.2">
@@ -9061,30 +9744,30 @@
         <v>9</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D445" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="446" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A446" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="B446" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C446" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="D446" s="8" t="s">
         <v>691</v>
       </c>
-      <c r="B446" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C446" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="D446" s="8" t="s">
-        <v>693</v>
-      </c>
       <c r="E446" s="8" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="F446" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="447" spans="1:6" ht="165.75" x14ac:dyDescent="0.2">
@@ -9092,16 +9775,16 @@
         <v>15</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D447" s="8" t="s">
+        <v>693</v>
+      </c>
+      <c r="E447" s="8" t="s">
         <v>695</v>
       </c>
-      <c r="E447" s="8" t="s">
-        <v>697</v>
-      </c>
       <c r="F447" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="448" spans="1:6" ht="178.5" x14ac:dyDescent="0.2">
@@ -9109,16 +9792,16 @@
         <v>15</v>
       </c>
       <c r="C448" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="D448" s="8" t="s">
+        <v>697</v>
+      </c>
+      <c r="E448" s="8" t="s">
         <v>698</v>
       </c>
-      <c r="D448" s="8" t="s">
-        <v>699</v>
-      </c>
-      <c r="E448" s="8" t="s">
-        <v>700</v>
-      </c>
       <c r="F448" s="12" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="449" spans="2:6" ht="153" x14ac:dyDescent="0.2">
@@ -9126,13 +9809,13 @@
         <v>15</v>
       </c>
       <c r="C449" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="D449" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="E449" s="8" t="s">
         <v>701</v>
-      </c>
-      <c r="D449" s="8" t="s">
-        <v>702</v>
-      </c>
-      <c r="E449" s="8" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="450" spans="2:6" x14ac:dyDescent="0.2">
@@ -9140,10 +9823,10 @@
         <v>9</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D450" s="8" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="451" spans="2:6" ht="63.75" x14ac:dyDescent="0.2">
@@ -9151,27 +9834,27 @@
         <v>12</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D451" s="8" t="s">
-        <v>705</v>
+        <v>254</v>
       </c>
       <c r="E451" s="8" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="F451" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="452" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B452" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D452" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="453" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
@@ -9182,7 +9865,7 @@
         <v>22</v>
       </c>
       <c r="D453" s="8" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="454" spans="2:6" ht="38.25" x14ac:dyDescent="0.2">
@@ -9190,16 +9873,16 @@
         <v>9</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D454" s="8" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="E454" s="8" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="F454" s="12" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="455" spans="2:6" x14ac:dyDescent="0.2">
@@ -9207,10 +9890,10 @@
         <v>12</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D455" s="8" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="456" spans="2:6" x14ac:dyDescent="0.2">
@@ -9221,7 +9904,7 @@
         <v>20</v>
       </c>
       <c r="D456" s="8" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
     </row>
     <row r="457" spans="2:6" ht="140.25" x14ac:dyDescent="0.2">
@@ -9229,13 +9912,13 @@
         <v>12</v>
       </c>
       <c r="C457" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E457" s="8" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="F457" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="458" spans="2:6" x14ac:dyDescent="0.2">
@@ -9243,10 +9926,10 @@
         <v>9</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D458" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="459" spans="2:6" x14ac:dyDescent="0.2">
@@ -9254,10 +9937,10 @@
         <v>9</v>
       </c>
       <c r="C459" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D459" s="1" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="460" spans="2:6" x14ac:dyDescent="0.2">
@@ -9265,10 +9948,10 @@
         <v>12</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="D460" s="1" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
     </row>
     <row r="461" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
@@ -9276,13 +9959,13 @@
         <v>15</v>
       </c>
       <c r="C461" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D461" s="8" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="F461" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="462" spans="2:6" x14ac:dyDescent="0.2">
@@ -9290,10 +9973,10 @@
         <v>30</v>
       </c>
       <c r="C462" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D462" s="8" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="463" spans="2:6" x14ac:dyDescent="0.2">
@@ -9301,10 +9984,10 @@
         <v>9</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D463" s="8" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="464" spans="2:6" ht="153" x14ac:dyDescent="0.2">
@@ -9312,16 +9995,16 @@
         <v>9</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D464" s="8" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="E464" s="8" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="F464" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="465" spans="1:9" x14ac:dyDescent="0.2">
@@ -9329,10 +10012,10 @@
         <v>15</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D465" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="466" spans="1:9" x14ac:dyDescent="0.2">
@@ -9340,10 +10023,10 @@
         <v>15</v>
       </c>
       <c r="C466" s="1" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D466" s="8" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="467" spans="1:9" x14ac:dyDescent="0.2">
@@ -9351,41 +10034,41 @@
         <v>15</v>
       </c>
       <c r="C467" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D467" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="468" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B468" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C468" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D468" s="8" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="F468" s="12" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="469" spans="1:9" ht="204" x14ac:dyDescent="0.2">
       <c r="B469" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C469" s="1" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="D469" s="8" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E469" s="8" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="F469" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="470" spans="1:9" ht="153" x14ac:dyDescent="0.2">
@@ -9393,50 +10076,50 @@
         <v>9</v>
       </c>
       <c r="C470" s="1" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="D470" s="8" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="E470" s="8" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="F470" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="471" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="B471" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C471" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D471" s="8" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="E471" s="8" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="F471" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="472" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A472" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B472" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D472" s="8" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="F472" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G472" s="4">
         <v>44406</v>
@@ -9453,10 +10136,10 @@
         <v>9</v>
       </c>
       <c r="C473" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D473" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="474" spans="1:9" x14ac:dyDescent="0.2">
@@ -9464,10 +10147,10 @@
         <v>9</v>
       </c>
       <c r="C474" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D474" s="1" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
     </row>
     <row r="475" spans="1:9" x14ac:dyDescent="0.2">
@@ -9475,10 +10158,10 @@
         <v>9</v>
       </c>
       <c r="C475" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D475" s="8" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="476" spans="1:9" x14ac:dyDescent="0.2">
@@ -9486,13 +10169,13 @@
         <v>9</v>
       </c>
       <c r="C476" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D476" s="8" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="F476" s="12" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="477" spans="1:9" ht="114.75" x14ac:dyDescent="0.2">
@@ -9500,16 +10183,16 @@
         <v>12</v>
       </c>
       <c r="C477" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="D477" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="E477" s="8" t="s">
         <v>733</v>
       </c>
-      <c r="D477" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="E477" s="8" t="s">
-        <v>736</v>
-      </c>
       <c r="F477" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="478" spans="1:9" x14ac:dyDescent="0.2">
@@ -9520,10 +10203,10 @@
         <v>20</v>
       </c>
       <c r="D478" s="8" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="F478" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="479" spans="1:9" ht="102" x14ac:dyDescent="0.2">
@@ -9531,16 +10214,16 @@
         <v>12</v>
       </c>
       <c r="C479" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="D479" s="8" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="E479" s="8" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="F479" s="12" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="480" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -9548,16 +10231,16 @@
         <v>12</v>
       </c>
       <c r="C480" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D480" s="8" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="F480" s="12" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="481" spans="2:6" ht="102" x14ac:dyDescent="0.2">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="481" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="B481" s="2" t="s">
         <v>15</v>
       </c>
@@ -9565,13 +10248,1510 @@
         <v>20</v>
       </c>
       <c r="D481" s="8" t="s">
+        <v>740</v>
+      </c>
+      <c r="E481" s="8" t="s">
+        <v>741</v>
+      </c>
+      <c r="F481" s="12" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="482" spans="1:8" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="B482" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C482" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D482" s="8" t="s">
+        <v>742</v>
+      </c>
+      <c r="E482" s="8" t="s">
         <v>743</v>
       </c>
-      <c r="E481" s="8" t="s">
+      <c r="F482" s="12" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="483" spans="1:8" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="B483" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C483" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D483" s="8" t="s">
         <v>744</v>
       </c>
-      <c r="F481" s="12" t="s">
+      <c r="E483" s="8" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="484" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B484" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C484" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D484" s="8" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="485" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B485" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C485" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D485" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="486" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B486" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C486" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D486" s="8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="487" spans="1:8" ht="153" x14ac:dyDescent="0.2">
+      <c r="B487" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C487" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D487" s="8" t="s">
+        <v>747</v>
+      </c>
+      <c r="E487" s="8" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="488" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B488" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C488" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D488" s="8" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="489" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B489" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C489" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D489" s="8" t="s">
+        <v>751</v>
+      </c>
+      <c r="E489" s="8" t="s">
+        <v>750</v>
+      </c>
+      <c r="F489" s="12" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="490" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B490" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C490" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D490" s="8" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="491" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B491" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C491" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D491" s="8" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="492" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B492" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C492" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D492" s="8" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B493" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C493" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D493" s="8" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="494" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A494" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B494" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C494" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D494" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="G494" s="4">
+        <v>44408</v>
+      </c>
+      <c r="H494" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="495" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B495" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C495" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D495" s="8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="496" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B496" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C496" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D496" s="8" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="B497" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C497" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D497" s="8" t="s">
+        <v>757</v>
+      </c>
+      <c r="E497" s="8" t="s">
+        <v>758</v>
+      </c>
+      <c r="F497" s="12" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B498" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C498" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D498" s="8" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="499" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B499" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C499" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="D499" s="8" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="500" spans="1:8" ht="165.75" x14ac:dyDescent="0.2">
+      <c r="B500" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C500" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D500" s="8" t="s">
+        <v>770</v>
+      </c>
+      <c r="E500" s="8" t="s">
+        <v>769</v>
+      </c>
+      <c r="F500" s="12" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="501" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B501" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C501" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="D501" s="1" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="502" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B502" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C502" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="D502" s="8" t="s">
+        <v>764</v>
+      </c>
+      <c r="E502" s="8" t="s">
+        <v>765</v>
+      </c>
+      <c r="F502" s="12" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="503" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B503" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C503" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="D503" s="8" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="504" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B504" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C504" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D504" s="8" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="505" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B505" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C505" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D505" s="8" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="506" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B506" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C506" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D506" s="8" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="507" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B507" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C507" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D507" s="8" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="508" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B508" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C508" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D508" s="8" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="509" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B509" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C509" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D509" s="8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="510" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B510" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C510" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D510" s="8" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="511" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B511" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C511" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D511" s="8" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="512" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A512" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B512" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C512" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D512" s="8" t="s">
+        <v>775</v>
+      </c>
+      <c r="G512" s="4">
+        <v>44408</v>
+      </c>
+      <c r="H512" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="513" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B513" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C513" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D513" s="1" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="514" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B514" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C514" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D514" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="515" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B515" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C515" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D515" s="8" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="516" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="B516" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C516" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D516" s="8" t="s">
+        <v>778</v>
+      </c>
+      <c r="E516" s="8" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="517" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B517" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C517" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="D517" s="1" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="518" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B518" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C518" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D518" s="8" t="s">
+        <v>782</v>
+      </c>
+      <c r="F518" s="12" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="519" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B519" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C519" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D519" s="8" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="520" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B520" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C520" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D520" s="8" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="521" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A521" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="B521" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C521" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="D521" s="8" t="s">
+        <v>788</v>
+      </c>
+      <c r="G521" s="4">
+        <v>44415</v>
+      </c>
+      <c r="H521" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="522" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B522" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C522" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D522" s="8" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="523" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B523" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C523" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D523" s="8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="524" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B524" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C524" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D524" s="8" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="525" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B525" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C525" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D525" s="8" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="526" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B526" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C526" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D526" s="8" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="527" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="B527" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C527" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D527" s="8" t="s">
+        <v>791</v>
+      </c>
+      <c r="E527" s="8" t="s">
+        <v>792</v>
+      </c>
+      <c r="F527" s="12" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="528" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B528" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C528" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D528" s="8" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="529" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B529" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C529" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="D529" s="8" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="530" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B530" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C530" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D530" s="8" t="s">
+        <v>796</v>
+      </c>
+      <c r="E530" s="8" t="s">
+        <v>797</v>
+      </c>
+      <c r="F530" s="12" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="531" spans="1:7" ht="204" x14ac:dyDescent="0.2">
+      <c r="B531" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C531" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D531" s="8" t="s">
+        <v>798</v>
+      </c>
+      <c r="E531" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="F531" s="12" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="532" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="B532" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C532" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D532" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="E532" s="8" t="s">
+        <v>801</v>
+      </c>
+      <c r="F532" s="12" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="533" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B533" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C533" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D533" s="8" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="534" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B534" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C534" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D534" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="535" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="B535" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C535" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D535" s="8" t="s">
+        <v>803</v>
+      </c>
+      <c r="E535" s="8" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="536" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A536" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B536" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C536" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="D536" s="8" t="s">
+        <v>806</v>
+      </c>
+      <c r="G536" s="4">
+        <v>44419</v>
+      </c>
+    </row>
+    <row r="537" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B537" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C537" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="D537" s="8" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="538" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B538" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C538" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="D538" s="8" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="539" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B539" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C539" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="D539" s="8" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="540" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B540" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C540" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="D540" s="8" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="541" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B541" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C541" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="D541" s="8" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="542" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B542" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C542" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D542" s="8" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="543" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B543" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C543" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D543" s="8" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="544" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="B544" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C544" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="D544" s="8" t="s">
+        <v>814</v>
+      </c>
+      <c r="E544" s="8" t="s">
+        <v>815</v>
+      </c>
+      <c r="F544" s="12" t="s">
         <v>473</v>
+      </c>
+    </row>
+    <row r="545" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B545" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C545" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D545" s="8" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="546" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B546" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C546" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="D546" s="1" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="547" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="B547" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C547" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D547" s="8" t="s">
+        <v>818</v>
+      </c>
+      <c r="E547" s="8" t="s">
+        <v>819</v>
+      </c>
+      <c r="F547" s="12" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="548" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B548" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C548" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D548" s="8" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="549" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B549" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C549" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="D549" s="8" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="550" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B550" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C550" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D550" s="8" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="551" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B551" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C551" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D551" s="1" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="552" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B552" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C552" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D552" s="8" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="553" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B553" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C553" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="D553" s="8" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="554" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B554" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C554" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="D554" s="1" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="555" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B555" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C555" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="D555" s="1" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="556" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A556" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="B556" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C556" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D556" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="G556" s="4">
+        <v>44420</v>
+      </c>
+      <c r="H556" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="557" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B557" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C557" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D557" s="8" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="558" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B558" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C558" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D558" s="8" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="559" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B559" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C559" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D559" s="8" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="560" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B560" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C560" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D560" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="561" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B561" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C561" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D561" s="8" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="562" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B562" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C562" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D562" s="8" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="563" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B563" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C563" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="D563" s="8" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="564" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B564" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C564" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="D564" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="565" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B565" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C565" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D565" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="566" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B566" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C566" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D566" s="8" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="567" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B567" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C567" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D567" s="8" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="568" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B568" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C568" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D568" s="8" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="569" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B569" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C569" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="D569" s="8" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="570" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B570" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C570" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D570" s="8" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="571" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B571" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C571" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D571" s="8" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="572" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B572" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C572" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D572" s="8" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="573" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B573" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C573" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D573" s="8" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="574" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A574" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="B574" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C574" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D574" s="8" t="s">
+        <v>848</v>
+      </c>
+      <c r="G574" s="4">
+        <v>44422</v>
+      </c>
+    </row>
+    <row r="575" spans="1:8" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="B575" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C575" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D575" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="E575" s="8" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="576" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A576" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B576" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C576" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="D576" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="G576" s="4">
+        <v>44423</v>
+      </c>
+      <c r="H576" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="577" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B577" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C577" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D577" s="8" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="578" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B578" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C578" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D578" s="8" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="579" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B579" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C579" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D579" s="8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="580" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B580" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C580" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D580" s="8" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="581" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B581" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C581" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D581" s="8" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="582" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B582" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C582" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D582" s="8" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="583" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B583" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C583" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D583" s="8" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="584" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+      <c r="B584" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C584" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D584" s="8" t="s">
+        <v>859</v>
+      </c>
+      <c r="E584" s="8" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="585" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="B585" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C585" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D585" s="8" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="586" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B586" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C586" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D586" s="8" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="587" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A587" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="B587" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C587" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D587" s="8" t="s">
+        <v>864</v>
+      </c>
+      <c r="E587" s="8" t="s">
+        <v>865</v>
+      </c>
+      <c r="G587" s="4">
+        <v>44431</v>
+      </c>
+      <c r="H587" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="588" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B588" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C588" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="D588" s="1" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="589" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B589" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C589" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D589" s="8" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="590" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="B590" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C590" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D590" s="8" t="s">
+        <v>869</v>
+      </c>
+      <c r="E590" s="8" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="591" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B591" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C591" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D591" s="8" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="592" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B592" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C592" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D592" s="8" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="593" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B593" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C593" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="D593" s="8" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="594" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A594" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="B594" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C594" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D594" s="8" t="s">
+        <v>876</v>
+      </c>
+      <c r="G594" s="4">
+        <v>44441</v>
+      </c>
+      <c r="H594" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="595" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B595" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C595" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="D595" s="8" t="s">
+        <v>877</v>
+      </c>
+      <c r="F595" s="12" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="596" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B596" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C596" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D596" s="8" t="s">
+        <v>878</v>
+      </c>
+      <c r="E596" s="8" t="s">
+        <v>879</v>
+      </c>
+      <c r="F596" s="12" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="597" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B597" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C597" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D597" s="8" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="598" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="B598" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C598" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D598" s="8" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="599" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B599" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C599" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D599" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="600" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B600" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C600" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D600" s="8" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="601" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B601" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C601" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D601" s="8" t="s">
+        <v>883</v>
       </c>
     </row>
   </sheetData>
@@ -9626,12 +11806,12 @@
         <v>8</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>10</v>
@@ -9640,12 +11820,12 @@
         <v>26</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>14</v>
@@ -9654,12 +11834,12 @@
         <v>27</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>25</v>
@@ -9668,7 +11848,7 @@
         <v>28</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -9682,7 +11862,7 @@
         <v>29</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -9693,12 +11873,12 @@
         <v>19</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>16</v>
@@ -9714,7 +11894,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>11</v>
@@ -9722,7 +11902,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>21</v>
@@ -9748,22 +11928,22 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
@@ -9773,12 +11953,12 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
@@ -9788,12 +11968,12 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
@@ -9808,7 +11988,7 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
   </sheetData>

--- a/src/resources/Docs/Java-Interview-Questions.xlsx
+++ b/src/resources/Docs/Java-Interview-Questions.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2139" uniqueCount="884">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2353" uniqueCount="965">
   <si>
     <t>Company</t>
   </si>
@@ -3644,6 +3644,297 @@
   </si>
   <si>
     <t>What are proxy Annotations</t>
+  </si>
+  <si>
+    <t>Order performance in Parellel Streams</t>
+  </si>
+  <si>
+    <t>Parallel streams improve performance for large datasets but may have overhead.
+Unordered parallel streams are faster but do not guarantee order.
+Ordered parallel streams guarantee order but may perform slower due to synchronization overhead.
+Use forEachOrdered() when order is essential but expect some performance penalty.</t>
+  </si>
+  <si>
+    <t>how to Handle expections in Streams while processing</t>
+  </si>
+  <si>
+    <t>Use try-catch inside the lambda: Catch exceptions in individual stream operations and handle them accordingly (e.g., log or return a default value).
+Helper methods: Use helper methods to encapsulate exception handling logic, and then use these methods inside your stream operations.
+Parallel Streams: Handle exceptions the same way as in sequential streams, but be aware of the challenges with parallel execution (e.g., thread coordination).
+Wrap checked exceptions: For checked exceptions, wrap them into unchecked exceptions, or use helper methods to manage them.</t>
+  </si>
+  <si>
+    <t>How the Optional Class is implemented, methods you worked on it</t>
+  </si>
+  <si>
+    <t>How the Garbage Collector works in case of Weak HashMap</t>
+  </si>
+  <si>
+    <t>Optional is a container for values that may be absent. It helps in avoiding NullPointerExceptions by providing a clean API to work with potentially null values.
+Internally, Optional uses a simple private final field to store the value and provides various utility methods for safely handling the presence or absence of the value.</t>
+  </si>
+  <si>
+    <t>A WeakHashMap is a special kind of Map in Java, where the keys are stored as weak references. This means that if there are no strong references to a key object, it becomes eligible for garbage collection. In other words, the entries in a WeakHashMap can be automatically removed by the garbage collector when the key is no longer in use.
+Summary of Key Points:
+Weak References: The keys in WeakHashMap are stored as weak references. This means that the map does not prevent the garbage collection of the keys when there are no strong references to them.
+Automatic Cleanup: Entries in the map are automatically removed during garbage collection when their keys are no longer reachable via strong references.
+Use Case: WeakHashMap is useful for caching scenarios or when you want the map entries to be automatically cleared once the keys are no longer in use.
+Not for Permanent Storage: WeakHashMap is not ideal for storing data you want to keep around permanently; it’s used for temporary mappings where the existence of the key in the map should not prevent it from being garbage collected.</t>
+  </si>
+  <si>
+    <t>When you inject a Prototype bean into a Singleton bean, Spring creates a single instance of the prototype bean and injects it into the singleton bean. This means that all subsequent requests to the singleton bean will use the same instance of the prototype bean, which defeats the purpose of having a prototype scope.</t>
+  </si>
+  <si>
+    <t>Spring provides a way to address this issue using @Lookup annotation, ApplicationContext.getBean(), or ObjectFactory/Provider to handle the injection of a prototype bean into a singleton bean.
+Which Approach to Choose?
+@Lookup is the simplest and most straightforward method, and it works well if you want Spring to handle the lifecycle management.
+ApplicationContext.getBean() is useful when you need more control over when the prototype bean is fetched, but it involves more boilerplate code.
+ObjectFactory/Provider are great for more flexibility, especially if you need to inject beans dynamically and on demand.</t>
+  </si>
+  <si>
+    <t>Dispatcher</t>
+  </si>
+  <si>
+    <t>In Spring MVC, the DispatcherServlet acts as the front controller, receiving all incoming HTTP requests and delegating them to the appropriate handlers. It manages the request processing lifecycle, coordinating with other components like HandlerMapping, HandlerAdapter, and ViewResolver to process requests and render responses.</t>
+  </si>
+  <si>
+    <t>What is Dispatcher Servlet in Spring</t>
+  </si>
+  <si>
+    <t>What are the spring profiles</t>
+  </si>
+  <si>
+    <t>Embedded Server</t>
+  </si>
+  <si>
+    <t>Exclude the Embedded Server Tomcat and include a new server. What we have to do</t>
+  </si>
+  <si>
+    <t>Exclude Tomcat: Exclude spring-boot-starter-tomcat from the spring-boot-starter-web dependency.
+Add Jetty/Undertow: Add the desired server's starter, like spring-boot-starter-jetty or spring-boot-starter-undertow.
+Rebuild and Test: Rebuild your application and confirm that it is using the new server.</t>
+  </si>
+  <si>
+    <t>Tweleve Factor</t>
+  </si>
+  <si>
+    <t>Tweleve Factor or 12 Factor in Microservices</t>
+  </si>
+  <si>
+    <t>e-Commerce</t>
+  </si>
+  <si>
+    <t>System Design for E-Commerce application</t>
+  </si>
+  <si>
+    <t>Will the Stream API supports Concurrency ?</t>
+  </si>
+  <si>
+    <t>Yes, the Stream API supports concurrency through parallel streams, which use multiple threads to process elements concurrently. However, care must be taken when using parallel streams to avoid side effects and ensure thread safety.</t>
+  </si>
+  <si>
+    <t>Explain about the Concurrent Hash Map</t>
+  </si>
+  <si>
+    <t>Explain about the Spring Security</t>
+  </si>
+  <si>
+    <t>Count of each character in a given string</t>
+  </si>
+  <si>
+    <t>To design a feature which one you will select Interface or Abstract Class</t>
+  </si>
+  <si>
+    <t>How to handle the common atrributes in a project</t>
+  </si>
+  <si>
+    <t>To handle common attributes in a project:
+Use centralized configuration (properties or YAML files) for environment-related values.
+Use constants or enums for shared values across your application.
+Implement a base entity for common fields in database entities.
+Use ThreadLocal for user/session data that’s thread-specific.
+Leverage interceptors/filters for injecting common attributes in requests.
+Use DI (Dependency Injection) to manage common services centrally.
+Use AOP for handling cross-cutting concerns like logging, auditing, or security.</t>
+  </si>
+  <si>
+    <t>Explain about the Spring Security, JWT implementation</t>
+  </si>
+  <si>
+    <t>Load Balancer</t>
+  </si>
+  <si>
+    <t>How you implement the Load Balancer</t>
+  </si>
+  <si>
+    <t>How you implemente the caching in Microservices</t>
+  </si>
+  <si>
+    <t>Exception Handling in Spring Boot</t>
+  </si>
+  <si>
+    <t>Explain about kubernetes, Docker, Jenkins how you use in your project</t>
+  </si>
+  <si>
+    <t>Apart from fallback methods, Hystrix provides several other features to improve fault tolerance and manage failures:
+Circuit Breaker: Prevents requests to failing services.
+Timeouts: Configures the maximum time allowed for an operation.
+Thread Isolation: Executes operations in separate threads to avoid blocking.
+Bulkhead Pattern: Isolates failures to prevent cascading effects.
+Metrics and Monitoring: Provides real-time monitoring of Hystrix metrics.
+Request Collapsing: Batches multiple requests to reduce load.
+Fallback Hierarchy: Allows cascading fallback mechanisms.
+Error Thresholds: Configures when a circuit breaker should open based on failure rate or number of requests.</t>
+  </si>
+  <si>
+    <t>in hystrix apart from fallback what else is there ?</t>
+  </si>
+  <si>
+    <t>Delloitte</t>
+  </si>
+  <si>
+    <t>How you design a database Architecture</t>
+  </si>
+  <si>
+    <t>How you design a Table in case of large data insertions happens to table continuously</t>
+  </si>
+  <si>
+    <t>For handling continuous large data insertions, the following strategies should be considered:
+Table Partitioning to split data based on time or ranges.
+Batch Insertions and Bulk Load Tools for efficient data insertion.
+Indexing for fast lookups and query performance, but balance with the impact on insert performance.
+Optimizing Write-Ahead Logs (WAL) and using atomic transactions.
+Data Archival for periodic removal of older data.
+Concurrency Control via row-level locking or optimistic locking.
+Offload read operations using replicas.
+Denormalization where appropriate for performance.
+Materialized Views for pre-aggregated data.
+Database Configuration and Tuning for optimal performance.</t>
+  </si>
+  <si>
+    <t>Difference between Stateless and StateFull in case of Microservices Architecture</t>
+  </si>
+  <si>
+    <t>Weather Application</t>
+  </si>
+  <si>
+    <t>Design an application for weather report</t>
+  </si>
+  <si>
+    <t>Stateless Microservices: Do not maintain any state between requests. They are easier to scale and fault-tolerant.
+Stateful Microservices: Maintain state between requests, often required for session management or long-running tasks but harder to scale and manage.</t>
+  </si>
+  <si>
+    <t>Explain about the Spring Security Implementation, types in it</t>
+  </si>
+  <si>
+    <t>Photon</t>
+  </si>
+  <si>
+    <t>Explain about the Functional Interface</t>
+  </si>
+  <si>
+    <t>Write the code for Factory Pattern</t>
+  </si>
+  <si>
+    <t>Employee table contains 20 records, fetch the records from 6th to 10th Records only.</t>
+  </si>
+  <si>
+    <t>How many ways you can create a bean in Spring Boot</t>
+  </si>
+  <si>
+    <t>Most common ways: @Component and @Bean methods.
+Advanced: Programmatic bean registration or importing XML configs.
+Profile/Condition-based for environment-specific beans.</t>
+  </si>
+  <si>
+    <t>How you handle the Transactions and Rollbacks in Spring Boot</t>
+  </si>
+  <si>
+    <t>Spring AOP explain</t>
+  </si>
+  <si>
+    <t>Spring JDBC Template</t>
+  </si>
+  <si>
+    <t>OAUTH Implementation</t>
+  </si>
+  <si>
+    <t>Batch</t>
+  </si>
+  <si>
+    <t>Explain about the Eureka Service Discovery</t>
+  </si>
+  <si>
+    <t>Explain about the Circuit Breaker</t>
+  </si>
+  <si>
+    <t>Difference between Map vs Filter</t>
+  </si>
+  <si>
+    <t>What is Flat Map</t>
+  </si>
+  <si>
+    <t>What is Transactional Propogation</t>
+  </si>
+  <si>
+    <t>Savyint</t>
+  </si>
+  <si>
+    <t>Explain about the Project Architecture</t>
+  </si>
+  <si>
+    <t>How do you do Auto Scaling, explain step by step</t>
+  </si>
+  <si>
+    <t>I18N</t>
+  </si>
+  <si>
+    <t>How you implement internationalization in Spring Boot project</t>
+  </si>
+  <si>
+    <t>Cyclic Dependency</t>
+  </si>
+  <si>
+    <t>how do you handle Cyclic Dependencies in Entities</t>
+  </si>
+  <si>
+    <t>Always say: "We prefer using DTOs and controlled mapping to avoid cyclic dependencies between entities, especially in a microservices or large-scale application."</t>
+  </si>
+  <si>
+    <t>Composite Key implementation in JPA entities</t>
+  </si>
+  <si>
+    <t>How you handle exceptions in Spring Boot</t>
+  </si>
+  <si>
+    <t>Difference between @Mock vs @MockBean</t>
+  </si>
+  <si>
+    <t>What is thread</t>
+  </si>
+  <si>
+    <t>What are all the java concurrency classes</t>
+  </si>
+  <si>
+    <t>How you keep count of instances of objects of a class</t>
+  </si>
+  <si>
+    <t>Explain about the JPA implementation</t>
+  </si>
+  <si>
+    <t>Explain java static and its uses</t>
+  </si>
+  <si>
+    <t>Explain the CI CD process in your project</t>
+  </si>
+  <si>
+    <t>Explain the synchronization concept</t>
+  </si>
+  <si>
+    <t>Use static int counter.
+Increment inside the constructor.
+Use AtomicInteger for thread safety if required.</t>
   </si>
 </sst>
 </file>
@@ -4066,11 +4357,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L601"/>
+  <dimension ref="A1:L660"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A584" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B602" sqref="B602"/>
+      <pane ySplit="1" topLeftCell="A640" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A660" sqref="A660"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11752,6 +12043,796 @@
       </c>
       <c r="D601" s="8" t="s">
         <v>883</v>
+      </c>
+    </row>
+    <row r="602" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A602" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B602" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C602" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D602" s="8" t="s">
+        <v>884</v>
+      </c>
+      <c r="E602" s="8" t="s">
+        <v>885</v>
+      </c>
+      <c r="F602" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="603" spans="1:8" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="B603" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C603" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D603" s="8" t="s">
+        <v>886</v>
+      </c>
+      <c r="E603" s="8" t="s">
+        <v>887</v>
+      </c>
+      <c r="G603" s="4">
+        <v>44555</v>
+      </c>
+      <c r="H603" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="604" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="B604" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C604" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="D604" s="8" t="s">
+        <v>888</v>
+      </c>
+      <c r="E604" s="8" t="s">
+        <v>890</v>
+      </c>
+      <c r="F604" s="12" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="605" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B605" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C605" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D605" s="8" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="606" spans="1:8" ht="216.75" x14ac:dyDescent="0.2">
+      <c r="B606" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C606" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D606" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="E606" s="8" t="s">
+        <v>891</v>
+      </c>
+      <c r="F606" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="607" spans="1:8" ht="153" x14ac:dyDescent="0.2">
+      <c r="B607" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C607" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D607" s="8" t="s">
+        <v>892</v>
+      </c>
+      <c r="E607" s="8" t="s">
+        <v>893</v>
+      </c>
+      <c r="F607" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="608" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B608" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C608" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="D608" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="E608" s="8" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="609" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B609" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C609" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D609" s="8" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="610" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B610" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C610" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="D610" s="8" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="611" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B611" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C611" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="D611" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="E611" s="8" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="612" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B612" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C612" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="D612" s="1" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="613" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B613" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C613" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="D613" s="8" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="614" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B614" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C614" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D614" s="8" t="s">
+        <v>905</v>
+      </c>
+      <c r="E614" s="8" t="s">
+        <v>906</v>
+      </c>
+      <c r="F614" s="12" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="615" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B615" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C615" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D615" s="8" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="616" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B616" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C616" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D616" s="8" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="617" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B617" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C617" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D617" s="1" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="618" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A618" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B618" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C618" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D618" s="8" t="s">
+        <v>909</v>
+      </c>
+      <c r="G618" s="4">
+        <v>44560</v>
+      </c>
+      <c r="H618" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="619" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B619" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C619" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D619" s="8" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="620" spans="1:8" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="B620" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C620" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D620" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="E620" s="8" t="s">
+        <v>912</v>
+      </c>
+      <c r="F620" s="12" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="621" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B621" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C621" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D621" s="1" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="622" spans="1:8" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="B622" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C622" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="D622" s="8" t="s">
+        <v>920</v>
+      </c>
+      <c r="E622" s="8" t="s">
+        <v>919</v>
+      </c>
+      <c r="F622" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="623" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B623" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C623" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="D623" s="8" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="624" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B624" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C624" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="D624" s="8" t="s">
+        <v>916</v>
+      </c>
+      <c r="F624" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="625" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B625" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C625" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D625" s="8" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="626" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B626" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C626" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D626" s="8" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="627" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A627" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="B627" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C627" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D627" s="8" t="s">
+        <v>922</v>
+      </c>
+      <c r="F627" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="G627" s="4">
+        <v>44568</v>
+      </c>
+      <c r="H627" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="628" spans="1:8" ht="153" x14ac:dyDescent="0.2">
+      <c r="B628" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C628" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D628" s="8" t="s">
+        <v>923</v>
+      </c>
+      <c r="E628" s="8" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="629" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="B629" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C629" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D629" s="8" t="s">
+        <v>925</v>
+      </c>
+      <c r="E629" s="8" t="s">
+        <v>928</v>
+      </c>
+      <c r="F629" s="12" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="630" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B630" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C630" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="D630" s="8" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="631" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B631" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C631" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D631" s="1" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="632" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A632" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="B632" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C632" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D632" s="8" t="s">
+        <v>931</v>
+      </c>
+      <c r="G632" s="4">
+        <v>44568</v>
+      </c>
+      <c r="H632" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="633" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B633" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C633" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D633" s="8" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="634" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B634" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C634" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D634" s="8" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="635" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B635" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C635" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="D635" s="8" t="s">
+        <v>934</v>
+      </c>
+      <c r="E635" s="8" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="636" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B636" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C636" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D636" s="8" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="637" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B637" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C637" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D637" s="8" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="638" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B638" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C638" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D638" s="8" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="639" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B639" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C639" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D639" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="F639" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="640" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B640" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C640" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D640" s="8" t="s">
+        <v>939</v>
+      </c>
+      <c r="F640" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="641" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B641" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C641" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="D641" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="F641" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="642" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B642" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C642" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D642" s="1" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="643" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B643" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C643" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="D643" s="8" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="644" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B644" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C644" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D644" s="8" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="645" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B645" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C645" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D645" s="8" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="646" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B646" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C646" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D646" s="8" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="647" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A647" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="B647" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C647" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D647" s="8" t="s">
+        <v>947</v>
+      </c>
+      <c r="G647" s="4">
+        <v>44573</v>
+      </c>
+      <c r="H647" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="648" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B648" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C648" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D648" s="8" t="s">
+        <v>948</v>
+      </c>
+      <c r="F648" s="12" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="649" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B649" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C649" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="D649" s="8" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="650" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B650" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C650" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="D650" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="E650" s="8" t="s">
+        <v>953</v>
+      </c>
+      <c r="F650" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="651" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B651" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C651" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D651" s="8" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="652" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B652" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C652" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D652" s="8" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="653" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B653" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C653" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D653" s="8" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="654" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B654" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C654" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D654" s="8" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="655" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B655" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C655" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D655" s="8" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="656" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B656" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C656" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="D656" s="8" t="s">
+        <v>959</v>
+      </c>
+      <c r="F656" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="657" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B657" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C657" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D657" s="8" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="658" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B658" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C658" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="D658" s="8" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="659" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B659" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C659" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D659" s="8" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="660" spans="2:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B660" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C660" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D660" s="8" t="s">
+        <v>963</v>
+      </c>
+      <c r="E660" s="8" t="s">
+        <v>964</v>
+      </c>
+      <c r="F660" s="12" t="s">
+        <v>473</v>
       </c>
     </row>
   </sheetData>

--- a/src/resources/Docs/Java-Interview-Questions.xlsx
+++ b/src/resources/Docs/Java-Interview-Questions.xlsx
@@ -19,7 +19,7 @@
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$493</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$1043</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3412" uniqueCount="1307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3826" uniqueCount="1438">
   <si>
     <t>Company</t>
   </si>
@@ -3872,9 +3872,6 @@
     <t>Savyint</t>
   </si>
   <si>
-    <t>Explain about the Project Architecture</t>
-  </si>
-  <si>
     <t>How do you do Auto Scaling, explain step by step</t>
   </si>
   <si>
@@ -5209,6 +5206,421 @@
   </si>
   <si>
     <t>Tesco Account</t>
+  </si>
+  <si>
+    <t>Difference between Blocking IO vs Non-Blocking IO</t>
+  </si>
+  <si>
+    <t>Print sum of salaries of employees whose age &lt;30</t>
+  </si>
+  <si>
+    <t>Difference between Function and Procedure</t>
+  </si>
+  <si>
+    <t>DB SQL file Versioning</t>
+  </si>
+  <si>
+    <t>GIT PR steps involved it it</t>
+  </si>
+  <si>
+    <t>Vulnerability</t>
+  </si>
+  <si>
+    <t>Have you used Vulnerability tools</t>
+  </si>
+  <si>
+    <t>CI CD Flow, Jenkins, Docker, K8S, YAML Files</t>
+  </si>
+  <si>
+    <t>Pods</t>
+  </si>
+  <si>
+    <t>How you maintain Pods, commands to see pods</t>
+  </si>
+  <si>
+    <t>Spring Security Implementation, Multiple Roles how you handle</t>
+  </si>
+  <si>
+    <t>How you maintain Logs, commands to see logs</t>
+  </si>
+  <si>
+    <t>Writing test cases without an entity validation</t>
+  </si>
+  <si>
+    <t>Circuit Breaker, SAGA, 2PC Design Pattern</t>
+  </si>
+  <si>
+    <t>WebFlux</t>
+  </si>
+  <si>
+    <t>Atomic</t>
+  </si>
+  <si>
+    <t>Atomic Variables</t>
+  </si>
+  <si>
+    <t>Have reduced any latency while consuming the services</t>
+  </si>
+  <si>
+    <t>Methodologies</t>
+  </si>
+  <si>
+    <t>How you code Methodologies
+What development practices, principles, or methodologies do you follow when writing code in a professional project?</t>
+  </si>
+  <si>
+    <t>I follow clean code, SOLID principles, layered architecture, design patterns, and TDD. I ensure my code is scalable, testable, and CI/CD ready with best practices in version control, documentation, and Agile delivery.
+CoreJava\src\com\prac\learning\core\CodeMethodologies.md</t>
+  </si>
+  <si>
+    <t>American Express</t>
+  </si>
+  <si>
+    <t>Convert list of string numbers into Integers using JDK8</t>
+  </si>
+  <si>
+    <t>Why Default methods</t>
+  </si>
+  <si>
+    <t>Difference between ArryaList vs LinkedList</t>
+  </si>
+  <si>
+    <t>Which data structure you will use for a string to make reverse.
+You should not use any default methods like reverse(), forLoop, while loop</t>
+  </si>
+  <si>
+    <t>Stack Implementation Program</t>
+  </si>
+  <si>
+    <t>Jar</t>
+  </si>
+  <si>
+    <t>How you implement own jar including in project</t>
+  </si>
+  <si>
+    <t>Explain annotation @AutoConfiguration</t>
+  </si>
+  <si>
+    <t>Roles related to Annotations</t>
+  </si>
+  <si>
+    <t>Spring Factories</t>
+  </si>
+  <si>
+    <t>Spring Factories explain</t>
+  </si>
+  <si>
+    <t>Design Patterns you worked in Microservices
+2PC, SAGA, Hystrix, Interceptors</t>
+  </si>
+  <si>
+    <t>JPA Implementation, Transactions how you maintain</t>
+  </si>
+  <si>
+    <t>Docker, K8S any experiene</t>
+  </si>
+  <si>
+    <t>Orchestration</t>
+  </si>
+  <si>
+    <t>Multi Threading have you worked.
+Callable, Future, CompletableFuture</t>
+  </si>
+  <si>
+    <t>Communication</t>
+  </si>
+  <si>
+    <t>Inter Service Communication</t>
+  </si>
+  <si>
+    <t>load roles based on annotations in a Spring Boot application</t>
+  </si>
+  <si>
+    <t>Use @EnableMethodSecurity(prePostEnabled = true)
+Annotate methods with @PreAuthorize("hasRole('X')")
+Ensure user roles are returned as ROLE_X from UserDetails
+Works for both in-memory and DB-backed users
+CoreJava\src\com\prac\learning\sboot\security\LoadRoles_Based_on_Annotations.md</t>
+  </si>
+  <si>
+    <t>Kafka have you worked it?</t>
+  </si>
+  <si>
+    <t>Tesco</t>
+  </si>
+  <si>
+    <t>Open API</t>
+  </si>
+  <si>
+    <t>Vertex</t>
+  </si>
+  <si>
+    <t>Goldmansacs</t>
+  </si>
+  <si>
+    <t>HashSet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Person p1 = new Person("xyz", 35);
+        Person p2 = new Person("xyz", 25);
+        Set&lt;Person&gt; set = new HashSet&lt;&gt;();
+        set.add(p1); set.add(p2);
+        System.out.println(set);</t>
+  </si>
+  <si>
+    <t>[Person{name='xyz', age=35}, Person{name='xyz', age=25}]</t>
+  </si>
+  <si>
+    <t>Group Annagrams program</t>
+  </si>
+  <si>
+    <t>Print the second shortes element in the array with out sorting</t>
+  </si>
+  <si>
+    <t>How to make Mulitple Streams in to a single stream</t>
+  </si>
+  <si>
+    <t>ArrayLIst</t>
+  </si>
+  <si>
+    <t>internal working of ArrayList.get(index)</t>
+  </si>
+  <si>
+    <t>Write a program to validate usename , password using Optional Class</t>
+  </si>
+  <si>
+    <t>Use Optional to avoid NullPointerException.
+Always validate using .isPresent() or ifPresentOrElse.
+Clean code and readable for username/password validations</t>
+  </si>
+  <si>
+    <t>Difference Between O(N) vs O(logN)</t>
+  </si>
+  <si>
+    <t>What is Spring Cloud Bus</t>
+  </si>
+  <si>
+    <t>What is Rate Limiter</t>
+  </si>
+  <si>
+    <t>Rate Limiter</t>
+  </si>
+  <si>
+    <t>Lowes</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>Process of DEV, QA</t>
+  </si>
+  <si>
+    <t>Pentration</t>
+  </si>
+  <si>
+    <t>Pentration Testing</t>
+  </si>
+  <si>
+    <t>how you test service using Mockito</t>
+  </si>
+  <si>
+    <t>Difference Between Refresh Tokens vs Access Tokens</t>
+  </si>
+  <si>
+    <t>Jenkins, Docker, K8S, YAML Files</t>
+  </si>
+  <si>
+    <t>How you do Performance Testing</t>
+  </si>
+  <si>
+    <t>Any Design experience</t>
+  </si>
+  <si>
+    <t>Flow of Dev to Prod deployment</t>
+  </si>
+  <si>
+    <t>Spring Security Implementation, JWT flow, JDBC Auth Flow</t>
+  </si>
+  <si>
+    <t>write a program to make a given string as palindrome</t>
+  </si>
+  <si>
+    <t>Print 10th Highest salary</t>
+  </si>
+  <si>
+    <t>2nd Largest element from an array without sorting</t>
+  </si>
+  <si>
+    <t>Danske Bank</t>
+  </si>
+  <si>
+    <t>Print numbers which starts with 1 from a given list</t>
+  </si>
+  <si>
+    <t>Print Employees by name, age from a given list</t>
+  </si>
+  <si>
+    <t>Tables Customer, Order exists
+Print customername and their orders count</t>
+  </si>
+  <si>
+    <t>Significance of hystrix retry</t>
+  </si>
+  <si>
+    <t>Diamond Problem in JDK8</t>
+  </si>
+  <si>
+    <t>A huge list of employees existing; How to get results in optimized way</t>
+  </si>
+  <si>
+    <t>How you design the data structure</t>
+  </si>
+  <si>
+    <t>What are the issues resolved in Microservices</t>
+  </si>
+  <si>
+    <t>Explain the Microservice Architecture</t>
+  </si>
+  <si>
+    <t>UI has to call multiple services, how to get optmized data</t>
+  </si>
+  <si>
+    <t>Explain about @Configuration, @Component</t>
+  </si>
+  <si>
+    <t>Transaction Management, 2PC, SAGA</t>
+  </si>
+  <si>
+    <t>Dependencies pom.xml</t>
+  </si>
+  <si>
+    <t>Lombok</t>
+  </si>
+  <si>
+    <t>Lombok ?</t>
+  </si>
+  <si>
+    <t>Changes made in Jenkins</t>
+  </si>
+  <si>
+    <t>Deutsche Bank</t>
+  </si>
+  <si>
+    <t>Difference between HTTP vs HTTPS, Internally what happens</t>
+  </si>
+  <si>
+    <t>Factorial Program</t>
+  </si>
+  <si>
+    <t>Databases Indexes what does it do</t>
+  </si>
+  <si>
+    <t>Modules you worked on</t>
+  </si>
+  <si>
+    <t>what are all the Actuator methods &amp; features</t>
+  </si>
+  <si>
+    <t>HTTP: Simple, fast, insecure. All data is plain.
+HTTPS: Uses SSL/TLS to encrypt data.
+Internally: TLS handshake with asymmetric → symmetric key transition.
+Secure from eavesdropping, tampering, and impersonation.</t>
+  </si>
+  <si>
+    <t>Flow of deployment</t>
+  </si>
+  <si>
+    <t>Profiles</t>
+  </si>
+  <si>
+    <t>Spring Profiles</t>
+  </si>
+  <si>
+    <t>SSL</t>
+  </si>
+  <si>
+    <t>SSL Integration</t>
+  </si>
+  <si>
+    <t>OpenShift</t>
+  </si>
+  <si>
+    <t>what is OpenShift</t>
+  </si>
+  <si>
+    <t>If we have only one pod, how to maintain the Resellience</t>
+  </si>
+  <si>
+    <t>Certificates</t>
+  </si>
+  <si>
+    <t>How to create Certificates in cloud applications</t>
+  </si>
+  <si>
+    <t>CBA</t>
+  </si>
+  <si>
+    <t>Common Wealth Bank Of Australia</t>
+  </si>
+  <si>
+    <t>What happens when a same key added to map already exists</t>
+  </si>
+  <si>
+    <t>Difference between Comparator vs Comparable</t>
+  </si>
+  <si>
+    <t>What is ThreadPool, Executor Framework</t>
+  </si>
+  <si>
+    <t>Design Patterns used in Java</t>
+  </si>
+  <si>
+    <t>First non-repeated character from a given string</t>
+  </si>
+  <si>
+    <t>Spring Boot Version, features explain in it</t>
+  </si>
+  <si>
+    <t>How you handle Transactions Spring Boot, Distrubuted Databases</t>
+  </si>
+  <si>
+    <t>Explain about your Project Architecture</t>
+  </si>
+  <si>
+    <t>Explain about your Project Structure . Poms, maven</t>
+  </si>
+  <si>
+    <t>Spring Security Implementation. JWT and Authorisation, Authentication</t>
+  </si>
+  <si>
+    <t>JWT Implementation , internal working detailly</t>
+  </si>
+  <si>
+    <t>Code Deployment Process</t>
+  </si>
+  <si>
+    <t>Development</t>
+  </si>
+  <si>
+    <t>Code Development Process</t>
+  </si>
+  <si>
+    <t>Cloud Technologies you worked</t>
+  </si>
+  <si>
+    <t>Asynchronous Communication Implementation -- Kafka, MQ</t>
+  </si>
+  <si>
+    <t>Any external server used for deployment</t>
+  </si>
+  <si>
+    <t>ThreadPool configuration in Server</t>
+  </si>
+  <si>
+    <t>configure a ThreadPoolTaskExecutor for handling concurrent tasks efficiently (like @Async tasks, scheduled tasks, or custom business logic processing).</t>
+  </si>
+  <si>
+    <t>ANZ</t>
   </si>
 </sst>
 </file>
@@ -5631,11 +6043,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M965"/>
+  <dimension ref="A1:M1090"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A944" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B965" sqref="B965"/>
+      <pane ySplit="1" topLeftCell="A1069" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1090" sqref="B1090"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5652,7 +6064,7 @@
     <col min="10" max="10" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.140625" style="2"/>
-    <col min="13" max="13" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -5694,7 +6106,7 @@
         <v>491</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -6203,7 +6615,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>121</v>
@@ -6242,7 +6654,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
-        <v>33</v>
+        <v>345</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>125</v>
@@ -6711,7 +7123,7 @@
         <v>167</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
@@ -8305,7 +8717,7 @@
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B210" s="2" t="s">
-        <v>33</v>
+        <v>345</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>33</v>
@@ -8925,7 +9337,7 @@
         <v>167</v>
       </c>
       <c r="D256" s="8" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="F256" s="12" t="s">
         <v>471</v>
@@ -9005,7 +9417,7 @@
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B263" s="2" t="s">
-        <v>33</v>
+        <v>345</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>33</v>
@@ -10514,7 +10926,7 @@
     </row>
     <row r="380" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B380" s="2" t="s">
-        <v>33</v>
+        <v>345</v>
       </c>
       <c r="C380" s="1" t="s">
         <v>125</v>
@@ -10994,7 +11406,7 @@
     </row>
     <row r="419" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B419" s="2" t="s">
-        <v>33</v>
+        <v>345</v>
       </c>
       <c r="C419" s="1" t="s">
         <v>125</v>
@@ -11016,7 +11428,7 @@
     </row>
     <row r="421" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B421" s="2" t="s">
-        <v>33</v>
+        <v>345</v>
       </c>
       <c r="C421" s="1" t="s">
         <v>660</v>
@@ -12596,7 +13008,7 @@
         <v>167</v>
       </c>
       <c r="D542" s="8" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="543" spans="1:7" x14ac:dyDescent="0.2">
@@ -13937,13 +14349,13 @@
         <v>943</v>
       </c>
       <c r="B647" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C647" s="1" t="s">
         <v>121</v>
       </c>
       <c r="D647" s="8" t="s">
-        <v>944</v>
+        <v>1425</v>
       </c>
       <c r="G647" s="4">
         <v>44573</v>
@@ -13960,7 +14372,7 @@
         <v>117</v>
       </c>
       <c r="D648" s="8" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="F648" s="12" t="s">
         <v>470</v>
@@ -13971,10 +14383,10 @@
         <v>12</v>
       </c>
       <c r="C649" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="D649" s="8" t="s">
         <v>946</v>
-      </c>
-      <c r="D649" s="8" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="650" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
@@ -13982,13 +14394,13 @@
         <v>12</v>
       </c>
       <c r="C650" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="D650" s="1" t="s">
         <v>948</v>
       </c>
-      <c r="D650" s="1" t="s">
+      <c r="E650" s="8" t="s">
         <v>949</v>
-      </c>
-      <c r="E650" s="8" t="s">
-        <v>950</v>
       </c>
       <c r="F650" s="12" t="s">
         <v>471</v>
@@ -14002,7 +14414,7 @@
         <v>20</v>
       </c>
       <c r="D651" s="8" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="652" spans="1:8" x14ac:dyDescent="0.2">
@@ -14013,7 +14425,7 @@
         <v>143</v>
       </c>
       <c r="D652" s="8" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="653" spans="1:8" x14ac:dyDescent="0.2">
@@ -14024,7 +14436,7 @@
         <v>167</v>
       </c>
       <c r="D653" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="654" spans="1:8" x14ac:dyDescent="0.2">
@@ -14035,7 +14447,7 @@
         <v>83</v>
       </c>
       <c r="D654" s="8" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="655" spans="1:8" x14ac:dyDescent="0.2">
@@ -14046,7 +14458,7 @@
         <v>22</v>
       </c>
       <c r="D655" s="8" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="656" spans="1:8" x14ac:dyDescent="0.2">
@@ -14057,7 +14469,7 @@
         <v>576</v>
       </c>
       <c r="D656" s="8" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="F656" s="12" t="s">
         <v>471</v>
@@ -14071,7 +14483,7 @@
         <v>20</v>
       </c>
       <c r="D657" s="8" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="658" spans="1:8" x14ac:dyDescent="0.2">
@@ -14082,7 +14494,7 @@
         <v>571</v>
       </c>
       <c r="D658" s="8" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="659" spans="1:8" x14ac:dyDescent="0.2">
@@ -14093,7 +14505,7 @@
         <v>125</v>
       </c>
       <c r="D659" s="8" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="660" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
@@ -14104,10 +14516,10 @@
         <v>53</v>
       </c>
       <c r="D660" s="8" t="s">
+        <v>959</v>
+      </c>
+      <c r="E660" s="8" t="s">
         <v>960</v>
-      </c>
-      <c r="E660" s="8" t="s">
-        <v>961</v>
       </c>
       <c r="F660" s="12" t="s">
         <v>471</v>
@@ -14141,7 +14553,7 @@
         <v>7</v>
       </c>
       <c r="D662" s="8" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="663" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
@@ -14149,13 +14561,13 @@
         <v>9</v>
       </c>
       <c r="C663" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="D663" s="8" t="s">
         <v>963</v>
       </c>
-      <c r="D663" s="8" t="s">
+      <c r="E663" s="8" t="s">
         <v>964</v>
-      </c>
-      <c r="E663" s="8" t="s">
-        <v>965</v>
       </c>
       <c r="F663" s="12" t="s">
         <v>471</v>
@@ -14166,13 +14578,13 @@
         <v>12</v>
       </c>
       <c r="C664" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D664" s="8" t="s">
         <v>966</v>
       </c>
-      <c r="D664" s="8" t="s">
+      <c r="E664" s="8" t="s">
         <v>967</v>
-      </c>
-      <c r="E664" s="8" t="s">
-        <v>968</v>
       </c>
     </row>
     <row r="665" spans="1:8" x14ac:dyDescent="0.2">
@@ -14183,7 +14595,7 @@
         <v>379</v>
       </c>
       <c r="D665" s="8" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="666" spans="1:8" x14ac:dyDescent="0.2">
@@ -14194,7 +14606,7 @@
         <v>167</v>
       </c>
       <c r="D666" s="8" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="F666" s="12" t="s">
         <v>470</v>
@@ -14205,10 +14617,10 @@
         <v>37</v>
       </c>
       <c r="C667" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="D667" s="8" t="s">
         <v>971</v>
-      </c>
-      <c r="D667" s="8" t="s">
-        <v>972</v>
       </c>
       <c r="F667" s="12" t="s">
         <v>470</v>
@@ -14222,7 +14634,7 @@
         <v>20</v>
       </c>
       <c r="D668" s="8" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="F668" s="12" t="s">
         <v>470</v>
@@ -14236,7 +14648,7 @@
         <v>114</v>
       </c>
       <c r="D669" s="8" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="F669" s="12" t="s">
         <v>470</v>
@@ -14250,7 +14662,7 @@
         <v>56</v>
       </c>
       <c r="D670" s="8" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="671" spans="1:8" x14ac:dyDescent="0.2">
@@ -14272,7 +14684,7 @@
         <v>167</v>
       </c>
       <c r="D672" s="8" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="673" spans="2:6" x14ac:dyDescent="0.2">
@@ -14283,7 +14695,7 @@
         <v>72</v>
       </c>
       <c r="D673" s="8" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="674" spans="2:6" x14ac:dyDescent="0.2">
@@ -14294,7 +14706,7 @@
         <v>72</v>
       </c>
       <c r="D674" s="8" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="675" spans="2:6" x14ac:dyDescent="0.2">
@@ -14313,10 +14725,10 @@
         <v>12</v>
       </c>
       <c r="C676" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="D676" s="8" t="s">
         <v>979</v>
-      </c>
-      <c r="D676" s="8" t="s">
-        <v>980</v>
       </c>
     </row>
     <row r="677" spans="2:6" x14ac:dyDescent="0.2">
@@ -14324,10 +14736,10 @@
         <v>12</v>
       </c>
       <c r="C677" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="D677" s="8" t="s">
         <v>981</v>
-      </c>
-      <c r="D677" s="8" t="s">
-        <v>982</v>
       </c>
     </row>
     <row r="678" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
@@ -14338,10 +14750,10 @@
         <v>24</v>
       </c>
       <c r="D678" s="8" t="s">
+        <v>982</v>
+      </c>
+      <c r="E678" s="8" t="s">
         <v>983</v>
-      </c>
-      <c r="E678" s="8" t="s">
-        <v>984</v>
       </c>
     </row>
     <row r="679" spans="2:6" ht="51" x14ac:dyDescent="0.2">
@@ -14352,10 +14764,10 @@
         <v>117</v>
       </c>
       <c r="D679" s="8" t="s">
+        <v>984</v>
+      </c>
+      <c r="E679" s="8" t="s">
         <v>985</v>
-      </c>
-      <c r="E679" s="8" t="s">
-        <v>986</v>
       </c>
     </row>
     <row r="680" spans="2:6" x14ac:dyDescent="0.2">
@@ -14366,7 +14778,7 @@
         <v>214</v>
       </c>
       <c r="D680" s="8" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="681" spans="2:6" x14ac:dyDescent="0.2">
@@ -14377,7 +14789,7 @@
         <v>24</v>
       </c>
       <c r="D681" s="8" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="682" spans="2:6" ht="51" x14ac:dyDescent="0.2">
@@ -14388,10 +14800,10 @@
         <v>41</v>
       </c>
       <c r="D682" s="8" t="s">
+        <v>988</v>
+      </c>
+      <c r="E682" s="8" t="s">
         <v>989</v>
-      </c>
-      <c r="E682" s="8" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="683" spans="2:6" x14ac:dyDescent="0.2">
@@ -14402,7 +14814,7 @@
         <v>141</v>
       </c>
       <c r="D683" s="8" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="684" spans="2:6" x14ac:dyDescent="0.2">
@@ -14413,7 +14825,7 @@
         <v>345</v>
       </c>
       <c r="D684" s="8" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="685" spans="2:6" x14ac:dyDescent="0.2">
@@ -14421,10 +14833,10 @@
         <v>45</v>
       </c>
       <c r="C685" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="D685" s="1" t="s">
         <v>993</v>
-      </c>
-      <c r="D685" s="1" t="s">
-        <v>994</v>
       </c>
     </row>
     <row r="686" spans="2:6" x14ac:dyDescent="0.2">
@@ -14432,10 +14844,10 @@
         <v>45</v>
       </c>
       <c r="C686" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="D686" s="8" t="s">
         <v>995</v>
-      </c>
-      <c r="D686" s="8" t="s">
-        <v>996</v>
       </c>
       <c r="F686" s="12" t="s">
         <v>471</v>
@@ -14477,7 +14889,7 @@
         <v>20</v>
       </c>
       <c r="D689" s="8" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="690" spans="1:8" x14ac:dyDescent="0.2">
@@ -14488,7 +14900,7 @@
         <v>167</v>
       </c>
       <c r="D690" s="8" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="691" spans="1:8" x14ac:dyDescent="0.2">
@@ -14499,7 +14911,7 @@
         <v>81</v>
       </c>
       <c r="D691" s="8" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="692" spans="1:8" x14ac:dyDescent="0.2">
@@ -14507,10 +14919,10 @@
         <v>15</v>
       </c>
       <c r="C692" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D692" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="693" spans="1:8" x14ac:dyDescent="0.2">
@@ -14521,7 +14933,7 @@
         <v>309</v>
       </c>
       <c r="D693" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="694" spans="1:8" x14ac:dyDescent="0.2">
@@ -14529,24 +14941,24 @@
         <v>345</v>
       </c>
       <c r="C694" s="1" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D694" s="1" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="695" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A695" s="2" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B695" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C695" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="D695" s="8" t="s">
         <v>995</v>
-      </c>
-      <c r="D695" s="8" t="s">
-        <v>996</v>
       </c>
       <c r="G695" s="4">
         <v>44578</v>
@@ -14574,10 +14986,10 @@
         <v>9</v>
       </c>
       <c r="C697" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D697" s="1" t="s">
         <v>1004</v>
-      </c>
-      <c r="D697" s="1" t="s">
-        <v>1005</v>
       </c>
     </row>
     <row r="698" spans="1:8" x14ac:dyDescent="0.2">
@@ -14599,7 +15011,7 @@
         <v>72</v>
       </c>
       <c r="D699" s="8" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="700" spans="1:8" x14ac:dyDescent="0.2">
@@ -14610,7 +15022,7 @@
         <v>24</v>
       </c>
       <c r="D700" s="8" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="701" spans="1:8" x14ac:dyDescent="0.2">
@@ -14621,7 +15033,7 @@
         <v>49</v>
       </c>
       <c r="D701" s="8" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="702" spans="1:8" x14ac:dyDescent="0.2">
@@ -14632,7 +15044,7 @@
         <v>452</v>
       </c>
       <c r="D702" s="8" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="703" spans="1:8" x14ac:dyDescent="0.2">
@@ -14640,10 +15052,10 @@
         <v>45</v>
       </c>
       <c r="C703" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="D703" s="1" t="s">
         <v>993</v>
-      </c>
-      <c r="D703" s="1" t="s">
-        <v>994</v>
       </c>
     </row>
     <row r="704" spans="1:8" x14ac:dyDescent="0.2">
@@ -14654,7 +15066,7 @@
         <v>20</v>
       </c>
       <c r="D704" s="8" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="705" spans="1:8" x14ac:dyDescent="0.2">
@@ -14668,7 +15080,7 @@
         <v>72</v>
       </c>
       <c r="D705" s="8" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="F705" s="12" t="s">
         <v>471</v>
@@ -14688,7 +15100,7 @@
         <v>204</v>
       </c>
       <c r="D706" s="8" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="707" spans="1:8" x14ac:dyDescent="0.2">
@@ -14699,7 +15111,7 @@
         <v>143</v>
       </c>
       <c r="D707" s="8" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="708" spans="1:8" x14ac:dyDescent="0.2">
@@ -14710,7 +15122,7 @@
         <v>143</v>
       </c>
       <c r="D708" s="8" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="F708" s="12" t="s">
         <v>471</v>
@@ -14724,7 +15136,7 @@
         <v>7</v>
       </c>
       <c r="D709" s="8" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="710" spans="1:8" x14ac:dyDescent="0.2">
@@ -14735,7 +15147,7 @@
         <v>143</v>
       </c>
       <c r="D710" s="8" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="711" spans="1:8" x14ac:dyDescent="0.2">
@@ -14746,7 +15158,7 @@
         <v>41</v>
       </c>
       <c r="D711" s="1" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="712" spans="1:8" x14ac:dyDescent="0.2">
@@ -14757,7 +15169,7 @@
         <v>167</v>
       </c>
       <c r="D712" s="8" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="713" spans="1:8" x14ac:dyDescent="0.2">
@@ -14768,7 +15180,7 @@
         <v>35</v>
       </c>
       <c r="D713" s="1" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="714" spans="1:8" x14ac:dyDescent="0.2">
@@ -14790,7 +15202,7 @@
         <v>225</v>
       </c>
       <c r="D715" s="8" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="716" spans="1:8" x14ac:dyDescent="0.2">
@@ -14801,7 +15213,7 @@
         <v>35</v>
       </c>
       <c r="D716" s="8" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="717" spans="1:8" x14ac:dyDescent="0.2">
@@ -14823,7 +15235,7 @@
         <v>20</v>
       </c>
       <c r="D718" s="8" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="F718" s="12" t="s">
         <v>471</v>
@@ -14837,7 +15249,7 @@
         <v>107</v>
       </c>
       <c r="D719" s="8" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="F719" s="12" t="s">
         <v>471</v>
@@ -14851,12 +15263,12 @@
         <v>76</v>
       </c>
       <c r="D720" s="8" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="721" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A721" s="2" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B721" s="2" t="s">
         <v>15</v>
@@ -14893,7 +15305,7 @@
         <v>377</v>
       </c>
       <c r="D723" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="724" spans="1:8" x14ac:dyDescent="0.2">
@@ -14904,7 +15316,7 @@
         <v>530</v>
       </c>
       <c r="D724" s="8" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="725" spans="1:8" x14ac:dyDescent="0.2">
@@ -14915,7 +15327,7 @@
         <v>214</v>
       </c>
       <c r="D725" s="8" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="F725" s="12" t="s">
         <v>470</v>
@@ -14929,7 +15341,7 @@
         <v>214</v>
       </c>
       <c r="D726" s="8" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="727" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
@@ -14940,10 +15352,10 @@
         <v>571</v>
       </c>
       <c r="D727" s="8" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E727" s="8" t="s">
         <v>1027</v>
-      </c>
-      <c r="E727" s="8" t="s">
-        <v>1028</v>
       </c>
     </row>
     <row r="728" spans="1:8" x14ac:dyDescent="0.2">
@@ -14954,7 +15366,7 @@
         <v>365</v>
       </c>
       <c r="D728" s="8" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="729" spans="1:8" x14ac:dyDescent="0.2">
@@ -14976,7 +15388,7 @@
         <v>15</v>
       </c>
       <c r="D730" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="731" spans="1:8" x14ac:dyDescent="0.2">
@@ -14987,7 +15399,7 @@
         <v>35</v>
       </c>
       <c r="D731" s="8" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="732" spans="1:8" x14ac:dyDescent="0.2">
@@ -14995,10 +15407,10 @@
         <v>345</v>
       </c>
       <c r="C732" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D732" s="8" t="s">
         <v>1031</v>
-      </c>
-      <c r="D732" s="8" t="s">
-        <v>1032</v>
       </c>
       <c r="F732" s="12" t="s">
         <v>470</v>
@@ -15009,10 +15421,10 @@
         <v>134</v>
       </c>
       <c r="C733" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D733" s="1" t="s">
         <v>1033</v>
-      </c>
-      <c r="D733" s="1" t="s">
-        <v>1034</v>
       </c>
       <c r="F733" s="12" t="s">
         <v>470</v>
@@ -15029,7 +15441,7 @@
         <v>94</v>
       </c>
       <c r="D734" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="F734" s="12" t="s">
         <v>471</v>
@@ -15043,7 +15455,7 @@
         <v>72</v>
       </c>
       <c r="D735" s="8" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="736" spans="1:8" x14ac:dyDescent="0.2">
@@ -15054,7 +15466,7 @@
         <v>167</v>
       </c>
       <c r="D736" s="8" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="737" spans="1:8" x14ac:dyDescent="0.2">
@@ -15065,7 +15477,7 @@
         <v>72</v>
       </c>
       <c r="D737" s="8" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="738" spans="1:8" x14ac:dyDescent="0.2">
@@ -15076,7 +15488,7 @@
         <v>179</v>
       </c>
       <c r="D738" s="8" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="739" spans="1:8" x14ac:dyDescent="0.2">
@@ -15087,7 +15499,7 @@
         <v>225</v>
       </c>
       <c r="D739" s="8" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="740" spans="1:8" x14ac:dyDescent="0.2">
@@ -15095,13 +15507,13 @@
         <v>9</v>
       </c>
       <c r="C740" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="D740" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E740" s="8" t="s">
         <v>1043</v>
-      </c>
-      <c r="E740" s="8" t="s">
-        <v>1044</v>
       </c>
       <c r="F740" s="12" t="s">
         <v>470</v>
@@ -15112,10 +15524,10 @@
         <v>12</v>
       </c>
       <c r="C741" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D741" s="1" t="s">
         <v>1041</v>
-      </c>
-      <c r="D741" s="1" t="s">
-        <v>1042</v>
       </c>
       <c r="F741" s="12" t="s">
         <v>471</v>
@@ -15140,12 +15552,12 @@
         <v>433</v>
       </c>
       <c r="D743" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="744" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A744" s="2" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B744" s="2" t="s">
         <v>15</v>
@@ -15154,7 +15566,7 @@
         <v>167</v>
       </c>
       <c r="D744" s="8" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="G744" s="4">
         <v>44588</v>
@@ -15171,7 +15583,7 @@
         <v>72</v>
       </c>
       <c r="D745" s="8" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="746" spans="1:8" x14ac:dyDescent="0.2">
@@ -15182,7 +15594,7 @@
         <v>452</v>
       </c>
       <c r="D746" s="8" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="747" spans="1:8" x14ac:dyDescent="0.2">
@@ -15204,7 +15616,7 @@
         <v>225</v>
       </c>
       <c r="D748" s="8" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F748" s="12" t="s">
         <v>471</v>
@@ -15229,7 +15641,7 @@
         <v>493</v>
       </c>
       <c r="D750" s="1" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F750" s="12" t="s">
         <v>471</v>
@@ -15243,7 +15655,7 @@
         <v>336</v>
       </c>
       <c r="D751" s="8" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="F751" s="12" t="s">
         <v>470</v>
@@ -15254,10 +15666,10 @@
         <v>59</v>
       </c>
       <c r="C752" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D752" s="1" t="s">
         <v>1052</v>
-      </c>
-      <c r="D752" s="1" t="s">
-        <v>1053</v>
       </c>
       <c r="F752" s="12" t="s">
         <v>471</v>
@@ -15271,7 +15683,7 @@
         <v>211</v>
       </c>
       <c r="D753" s="8" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="754" spans="1:8" x14ac:dyDescent="0.2">
@@ -15282,7 +15694,7 @@
         <v>107</v>
       </c>
       <c r="D754" s="8" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="755" spans="1:8" x14ac:dyDescent="0.2">
@@ -15293,7 +15705,7 @@
         <v>20</v>
       </c>
       <c r="D755" s="8" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="F755" s="12" t="s">
         <v>471</v>
@@ -15310,7 +15722,7 @@
         <v>576</v>
       </c>
       <c r="D756" s="8" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G756" s="4">
         <v>44592</v>
@@ -15327,7 +15739,7 @@
         <v>167</v>
       </c>
       <c r="D757" s="8" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="F757" s="12" t="s">
         <v>471</v>
@@ -15341,7 +15753,7 @@
         <v>72</v>
       </c>
       <c r="D758" s="8" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="759" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
@@ -15352,10 +15764,10 @@
         <v>72</v>
       </c>
       <c r="D759" s="8" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E759" s="8" t="s">
         <v>1060</v>
-      </c>
-      <c r="E759" s="8" t="s">
-        <v>1061</v>
       </c>
       <c r="F759" s="12" t="s">
         <v>470</v>
@@ -15369,7 +15781,7 @@
         <v>72</v>
       </c>
       <c r="D760" s="8" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="761" spans="1:8" ht="127.5" x14ac:dyDescent="0.2">
@@ -15380,10 +15792,10 @@
         <v>72</v>
       </c>
       <c r="D761" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E761" s="8" t="s">
         <v>1063</v>
-      </c>
-      <c r="E761" s="8" t="s">
-        <v>1064</v>
       </c>
       <c r="F761" s="12" t="s">
         <v>470</v>
@@ -15397,7 +15809,7 @@
         <v>20</v>
       </c>
       <c r="D762" s="8" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="763" spans="1:8" x14ac:dyDescent="0.2">
@@ -15408,7 +15820,7 @@
         <v>20</v>
       </c>
       <c r="D763" s="8" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="F763" s="12" t="s">
         <v>470</v>
@@ -15422,7 +15834,7 @@
         <v>35</v>
       </c>
       <c r="D764" s="8" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="765" spans="1:8" x14ac:dyDescent="0.2">
@@ -15433,7 +15845,7 @@
         <v>636</v>
       </c>
       <c r="D765" s="8" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="F765" s="12" t="s">
         <v>470</v>
@@ -15461,7 +15873,7 @@
         <v>439</v>
       </c>
       <c r="D767" s="8" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="768" spans="1:8" x14ac:dyDescent="0.2">
@@ -15472,7 +15884,7 @@
         <v>167</v>
       </c>
       <c r="D768" s="8" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="769" spans="1:8" x14ac:dyDescent="0.2">
@@ -15483,7 +15895,7 @@
         <v>167</v>
       </c>
       <c r="D769" s="8" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="770" spans="1:8" x14ac:dyDescent="0.2">
@@ -15505,7 +15917,7 @@
         <v>167</v>
       </c>
       <c r="D771" s="8" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="772" spans="1:8" x14ac:dyDescent="0.2">
@@ -15516,7 +15928,7 @@
         <v>22</v>
       </c>
       <c r="D772" s="8" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="F772" s="12" t="s">
         <v>470</v>
@@ -15530,7 +15942,7 @@
         <v>167</v>
       </c>
       <c r="D773" s="8" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="774" spans="1:8" x14ac:dyDescent="0.2">
@@ -15541,7 +15953,7 @@
         <v>53</v>
       </c>
       <c r="D774" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="775" spans="1:8" x14ac:dyDescent="0.2">
@@ -15549,15 +15961,15 @@
         <v>9</v>
       </c>
       <c r="C775" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D775" s="8" t="s">
         <v>1076</v>
-      </c>
-      <c r="D775" s="8" t="s">
-        <v>1077</v>
       </c>
     </row>
     <row r="776" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A776" s="2" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B776" s="2" t="s">
         <v>9</v>
@@ -15566,10 +15978,10 @@
         <v>72</v>
       </c>
       <c r="D776" s="8" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E776" s="8" t="s">
         <v>1079</v>
-      </c>
-      <c r="E776" s="8" t="s">
-        <v>1080</v>
       </c>
       <c r="G776" s="4">
         <v>44583</v>
@@ -15586,7 +15998,7 @@
         <v>72</v>
       </c>
       <c r="D777" s="8" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="778" spans="1:8" x14ac:dyDescent="0.2">
@@ -15597,7 +16009,7 @@
         <v>72</v>
       </c>
       <c r="D778" s="8" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="779" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
@@ -15608,24 +16020,24 @@
         <v>179</v>
       </c>
       <c r="D779" s="8" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="780" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A780" s="2" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B780" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C780" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D780" s="8" t="s">
         <v>1084</v>
       </c>
-      <c r="D780" s="8" t="s">
-        <v>1085</v>
-      </c>
       <c r="E780" s="8" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="F780" s="12" t="s">
         <v>471</v>
@@ -15639,10 +16051,10 @@
         <v>12</v>
       </c>
       <c r="C781" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D781" s="1" t="s">
         <v>1086</v>
-      </c>
-      <c r="D781" s="1" t="s">
-        <v>1087</v>
       </c>
       <c r="F781" s="12" t="s">
         <v>471</v>
@@ -15653,10 +16065,10 @@
         <v>9</v>
       </c>
       <c r="C782" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D782" s="8" t="s">
         <v>1088</v>
-      </c>
-      <c r="D782" s="8" t="s">
-        <v>1089</v>
       </c>
     </row>
     <row r="783" spans="1:8" x14ac:dyDescent="0.2">
@@ -15664,10 +16076,10 @@
         <v>34</v>
       </c>
       <c r="C783" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D783" s="8" t="s">
         <v>1090</v>
-      </c>
-      <c r="D783" s="8" t="s">
-        <v>1091</v>
       </c>
     </row>
     <row r="784" spans="1:8" x14ac:dyDescent="0.2">
@@ -15678,7 +16090,7 @@
         <v>20</v>
       </c>
       <c r="D784" s="8" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="785" spans="1:8" x14ac:dyDescent="0.2">
@@ -15689,7 +16101,7 @@
         <v>20</v>
       </c>
       <c r="D785" s="8" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="786" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
@@ -15700,13 +16112,13 @@
         <v>9</v>
       </c>
       <c r="C786" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D786" s="8" t="s">
         <v>1093</v>
       </c>
-      <c r="D786" s="8" t="s">
-        <v>1094</v>
-      </c>
       <c r="E786" s="8" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="F786" s="12" t="s">
         <v>471</v>
@@ -15728,10 +16140,10 @@
         <v>9</v>
       </c>
       <c r="C788" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D788" s="8" t="s">
         <v>1095</v>
-      </c>
-      <c r="D788" s="8" t="s">
-        <v>1096</v>
       </c>
       <c r="F788" s="12" t="s">
         <v>471</v>
@@ -15745,10 +16157,10 @@
         <v>291</v>
       </c>
       <c r="D789" s="8" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E789" s="8" t="s">
         <v>1098</v>
-      </c>
-      <c r="E789" s="8" t="s">
-        <v>1099</v>
       </c>
       <c r="F789" s="12" t="s">
         <v>470</v>
@@ -15762,7 +16174,7 @@
         <v>24</v>
       </c>
       <c r="D790" s="8" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="791" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
@@ -15773,7 +16185,7 @@
         <v>56</v>
       </c>
       <c r="D791" s="8" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F791" s="12" t="s">
         <v>471</v>
@@ -15787,7 +16199,7 @@
         <v>566</v>
       </c>
       <c r="D792" s="8" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="793" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
@@ -15801,10 +16213,10 @@
         <v>72</v>
       </c>
       <c r="D793" s="8" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E793" s="8" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="G793" s="4">
         <v>44595</v>
@@ -15821,12 +16233,12 @@
         <v>24</v>
       </c>
       <c r="D794" s="8" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="795" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A795" s="2" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B795" s="2" t="s">
         <v>9</v>
@@ -15835,7 +16247,7 @@
         <v>167</v>
       </c>
       <c r="D795" s="8" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F795" s="12" t="s">
         <v>470</v>
@@ -15852,7 +16264,7 @@
         <v>519</v>
       </c>
       <c r="D796" s="8" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="797" spans="1:8" x14ac:dyDescent="0.2">
@@ -15863,7 +16275,7 @@
         <v>461</v>
       </c>
       <c r="D797" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="798" spans="1:8" x14ac:dyDescent="0.2">
@@ -15874,7 +16286,7 @@
         <v>167</v>
       </c>
       <c r="D798" s="8" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="799" spans="1:8" x14ac:dyDescent="0.2">
@@ -15896,12 +16308,12 @@
         <v>167</v>
       </c>
       <c r="D800" s="8" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="801" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A801" s="2" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B801" s="2" t="s">
         <v>9</v>
@@ -15910,7 +16322,7 @@
         <v>571</v>
       </c>
       <c r="D801" s="8" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="G801" s="4">
         <v>44600</v>
@@ -15921,10 +16333,10 @@
         <v>134</v>
       </c>
       <c r="C802" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D802" s="1" t="s">
         <v>1116</v>
-      </c>
-      <c r="D802" s="1" t="s">
-        <v>1117</v>
       </c>
     </row>
     <row r="803" spans="1:8" x14ac:dyDescent="0.2">
@@ -15946,7 +16358,7 @@
         <v>64</v>
       </c>
       <c r="D804" s="1" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="805" spans="1:8" x14ac:dyDescent="0.2">
@@ -15954,10 +16366,10 @@
         <v>34</v>
       </c>
       <c r="C805" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D805" s="1" t="s">
         <v>1119</v>
-      </c>
-      <c r="D805" s="1" t="s">
-        <v>1120</v>
       </c>
     </row>
     <row r="806" spans="1:8" x14ac:dyDescent="0.2">
@@ -15968,7 +16380,7 @@
         <v>333</v>
       </c>
       <c r="D806" s="1" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="807" spans="1:8" x14ac:dyDescent="0.2">
@@ -15979,7 +16391,7 @@
         <v>333</v>
       </c>
       <c r="D807" s="1" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="808" spans="1:8" x14ac:dyDescent="0.2">
@@ -15990,7 +16402,7 @@
         <v>94</v>
       </c>
       <c r="D808" s="8" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="809" spans="1:8" x14ac:dyDescent="0.2">
@@ -16001,12 +16413,12 @@
         <v>780</v>
       </c>
       <c r="D809" s="1" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="810" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A810" s="2" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B810" s="2" t="s">
         <v>9</v>
@@ -16015,7 +16427,7 @@
         <v>167</v>
       </c>
       <c r="D810" s="8" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="F810" s="12" t="s">
         <v>470</v>
@@ -16035,7 +16447,7 @@
         <v>81</v>
       </c>
       <c r="D811" s="8" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F811" s="12" t="s">
         <v>471</v>
@@ -16049,7 +16461,7 @@
         <v>56</v>
       </c>
       <c r="D812" s="8" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="813" spans="1:8" x14ac:dyDescent="0.2">
@@ -16071,7 +16483,7 @@
         <v>167</v>
       </c>
       <c r="D814" s="8" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="815" spans="1:8" x14ac:dyDescent="0.2">
@@ -16082,7 +16494,7 @@
         <v>228</v>
       </c>
       <c r="D815" s="8" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="816" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
@@ -16093,7 +16505,7 @@
         <v>214</v>
       </c>
       <c r="D816" s="8" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="817" spans="1:7" x14ac:dyDescent="0.2">
@@ -16104,7 +16516,7 @@
         <v>94</v>
       </c>
       <c r="D817" s="8" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="818" spans="1:7" x14ac:dyDescent="0.2">
@@ -16115,7 +16527,7 @@
         <v>368</v>
       </c>
       <c r="D818" s="8" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="819" spans="1:7" x14ac:dyDescent="0.2">
@@ -16123,10 +16535,10 @@
         <v>15</v>
       </c>
       <c r="C819" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D819" s="8" t="s">
         <v>1134</v>
-      </c>
-      <c r="D819" s="8" t="s">
-        <v>1135</v>
       </c>
     </row>
     <row r="820" spans="1:7" x14ac:dyDescent="0.2">
@@ -16137,7 +16549,7 @@
         <v>167</v>
       </c>
       <c r="D820" s="8" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="821" spans="1:7" x14ac:dyDescent="0.2">
@@ -16148,7 +16560,7 @@
         <v>167</v>
       </c>
       <c r="D821" s="8" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="822" spans="1:7" x14ac:dyDescent="0.2">
@@ -16159,7 +16571,7 @@
         <v>35</v>
       </c>
       <c r="D822" s="8" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="823" spans="1:7" x14ac:dyDescent="0.2">
@@ -16170,7 +16582,7 @@
         <v>179</v>
       </c>
       <c r="D823" s="8" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="824" spans="1:7" x14ac:dyDescent="0.2">
@@ -16181,7 +16593,7 @@
         <v>72</v>
       </c>
       <c r="D824" s="8" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="825" spans="1:7" x14ac:dyDescent="0.2">
@@ -16192,7 +16604,7 @@
         <v>167</v>
       </c>
       <c r="D825" s="8" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="826" spans="1:7" x14ac:dyDescent="0.2">
@@ -16203,7 +16615,7 @@
         <v>461</v>
       </c>
       <c r="D826" s="8" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="827" spans="1:7" x14ac:dyDescent="0.2">
@@ -16214,7 +16626,7 @@
         <v>30</v>
       </c>
       <c r="D827" s="8" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="828" spans="1:7" x14ac:dyDescent="0.2">
@@ -16225,7 +16637,7 @@
         <v>30</v>
       </c>
       <c r="D828" s="8" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F828" s="12" t="s">
         <v>471</v>
@@ -16233,16 +16645,16 @@
     </row>
     <row r="829" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A829" s="2" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B829" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C829" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D829" s="8" t="s">
         <v>1145</v>
-      </c>
-      <c r="D829" s="8" t="s">
-        <v>1146</v>
       </c>
       <c r="G829" s="4">
         <v>44601</v>
@@ -16256,7 +16668,7 @@
         <v>72</v>
       </c>
       <c r="D830" s="8" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="831" spans="1:7" x14ac:dyDescent="0.2">
@@ -16267,7 +16679,7 @@
         <v>72</v>
       </c>
       <c r="D831" s="8" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="832" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
@@ -16278,7 +16690,7 @@
         <v>167</v>
       </c>
       <c r="D832" s="8" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="833" spans="1:8" x14ac:dyDescent="0.2">
@@ -16289,7 +16701,7 @@
         <v>143</v>
       </c>
       <c r="D833" s="8" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="834" spans="1:8" x14ac:dyDescent="0.2">
@@ -16297,10 +16709,10 @@
         <v>9</v>
       </c>
       <c r="C834" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D834" s="8" t="s">
         <v>1151</v>
-      </c>
-      <c r="D834" s="8" t="s">
-        <v>1152</v>
       </c>
     </row>
     <row r="835" spans="1:8" x14ac:dyDescent="0.2">
@@ -16319,10 +16731,10 @@
         <v>15</v>
       </c>
       <c r="C836" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="D836" s="8" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="837" spans="1:8" x14ac:dyDescent="0.2">
@@ -16344,21 +16756,21 @@
         <v>35</v>
       </c>
       <c r="D838" s="1" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="839" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A839" s="2" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B839" s="2" t="s">
         <v>519</v>
       </c>
       <c r="C839" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D839" s="1" t="s">
         <v>1157</v>
-      </c>
-      <c r="D839" s="1" t="s">
-        <v>1158</v>
       </c>
       <c r="G839" s="4">
         <v>44602</v>
@@ -16375,7 +16787,7 @@
         <v>468</v>
       </c>
       <c r="D840" s="8" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="F840" s="12" t="s">
         <v>471</v>
@@ -16389,7 +16801,7 @@
         <v>167</v>
       </c>
       <c r="D841" s="8" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="842" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
@@ -16400,10 +16812,10 @@
         <v>114</v>
       </c>
       <c r="D842" s="8" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E842" s="8" t="s">
         <v>1161</v>
-      </c>
-      <c r="E842" s="8" t="s">
-        <v>1162</v>
       </c>
       <c r="F842" s="12" t="s">
         <v>471</v>
@@ -16428,7 +16840,7 @@
         <v>496</v>
       </c>
       <c r="D844" s="8" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="F844" s="12" t="s">
         <v>470</v>
@@ -16445,7 +16857,7 @@
         <v>564</v>
       </c>
       <c r="D845" s="8" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="F845" s="12" t="s">
         <v>471</v>
@@ -16462,7 +16874,7 @@
         <v>214</v>
       </c>
       <c r="D846" s="8" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="F846" s="12" t="s">
         <v>470</v>
@@ -16473,10 +16885,10 @@
         <v>12</v>
       </c>
       <c r="C847" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D847" s="8" t="s">
         <v>1166</v>
-      </c>
-      <c r="D847" s="8" t="s">
-        <v>1167</v>
       </c>
       <c r="F847" s="12" t="s">
         <v>470</v>
@@ -16490,10 +16902,10 @@
         <v>593</v>
       </c>
       <c r="D848" s="8" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E848" s="8" t="s">
         <v>1168</v>
-      </c>
-      <c r="E848" s="8" t="s">
-        <v>1169</v>
       </c>
       <c r="F848" s="12" t="s">
         <v>471</v>
@@ -16507,7 +16919,7 @@
         <v>167</v>
       </c>
       <c r="D849" s="8" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="850" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
@@ -16518,7 +16930,7 @@
         <v>20</v>
       </c>
       <c r="D850" s="8" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="E850" s="8" t="s">
         <v>104</v>
@@ -16532,13 +16944,13 @@
         <v>12</v>
       </c>
       <c r="C851" s="1" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="D851" s="8" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E851" s="8" t="s">
         <v>1172</v>
-      </c>
-      <c r="E851" s="8" t="s">
-        <v>1173</v>
       </c>
     </row>
     <row r="852" spans="1:7" x14ac:dyDescent="0.2">
@@ -16549,7 +16961,7 @@
         <v>167</v>
       </c>
       <c r="D852" s="8" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="853" spans="1:7" ht="140.25" x14ac:dyDescent="0.2">
@@ -16560,10 +16972,10 @@
         <v>910</v>
       </c>
       <c r="D853" s="8" t="s">
+        <v>1174</v>
+      </c>
+      <c r="E853" s="8" t="s">
         <v>1175</v>
-      </c>
-      <c r="E853" s="8" t="s">
-        <v>1176</v>
       </c>
       <c r="F853" s="12" t="s">
         <v>471</v>
@@ -16577,7 +16989,7 @@
         <v>179</v>
       </c>
       <c r="D854" s="8" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="855" spans="1:7" ht="191.25" x14ac:dyDescent="0.2">
@@ -16591,10 +17003,10 @@
         <v>72</v>
       </c>
       <c r="D855" s="8" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E855" s="8" t="s">
         <v>1178</v>
-      </c>
-      <c r="E855" s="8" t="s">
-        <v>1179</v>
       </c>
       <c r="G855" s="4">
         <v>44611</v>
@@ -16616,10 +17028,10 @@
         <v>15</v>
       </c>
       <c r="C857" s="1" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="D857" s="1" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="858" spans="1:7" x14ac:dyDescent="0.2">
@@ -16641,7 +17053,7 @@
         <v>541</v>
       </c>
       <c r="D859" s="8" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="860" spans="1:7" x14ac:dyDescent="0.2">
@@ -16663,7 +17075,7 @@
         <v>72</v>
       </c>
       <c r="D861" s="8" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="862" spans="1:7" x14ac:dyDescent="0.2">
@@ -16674,7 +17086,7 @@
         <v>72</v>
       </c>
       <c r="D862" s="8" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="863" spans="1:7" x14ac:dyDescent="0.2">
@@ -16685,7 +17097,7 @@
         <v>81</v>
       </c>
       <c r="D863" s="8" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="864" spans="1:7" x14ac:dyDescent="0.2">
@@ -16696,7 +17108,7 @@
         <v>31</v>
       </c>
       <c r="D864" s="8" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="865" spans="1:8" x14ac:dyDescent="0.2">
@@ -16707,10 +17119,10 @@
         <v>15</v>
       </c>
       <c r="C865" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D865" s="8" t="s">
         <v>1186</v>
-      </c>
-      <c r="D865" s="8" t="s">
-        <v>1187</v>
       </c>
       <c r="F865" s="12" t="s">
         <v>470</v>
@@ -16730,7 +17142,7 @@
         <v>179</v>
       </c>
       <c r="D866" s="8" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="867" spans="1:8" x14ac:dyDescent="0.2">
@@ -16738,10 +17150,10 @@
         <v>134</v>
       </c>
       <c r="C867" s="1" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="D867" s="1" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="868" spans="1:8" x14ac:dyDescent="0.2">
@@ -16752,7 +17164,7 @@
         <v>636</v>
       </c>
       <c r="D868" s="8" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="869" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -16760,13 +17172,13 @@
         <v>34</v>
       </c>
       <c r="C869" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D869" s="8" t="s">
         <v>1190</v>
       </c>
-      <c r="D869" s="8" t="s">
+      <c r="E869" s="8" t="s">
         <v>1191</v>
-      </c>
-      <c r="E869" s="8" t="s">
-        <v>1192</v>
       </c>
       <c r="F869" s="12" t="s">
         <v>471</v>
@@ -16783,7 +17195,7 @@
         <v>204</v>
       </c>
       <c r="D870" s="8" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="G870" s="4">
         <v>44616</v>
@@ -16800,7 +17212,7 @@
         <v>429</v>
       </c>
       <c r="D871" s="8" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="872" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
@@ -16811,10 +17223,10 @@
         <v>576</v>
       </c>
       <c r="D872" s="8" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E872" s="8" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="F872" s="12" t="s">
         <v>471</v>
@@ -16828,7 +17240,7 @@
         <v>83</v>
       </c>
       <c r="D873" s="8" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="F873" s="12" t="s">
         <v>470</v>
@@ -16842,7 +17254,7 @@
         <v>22</v>
       </c>
       <c r="D874" s="8" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="F874" s="12" t="s">
         <v>470</v>
@@ -16856,7 +17268,7 @@
         <v>167</v>
       </c>
       <c r="D875" s="8" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="F875" s="12" t="s">
         <v>470</v>
@@ -16867,13 +17279,13 @@
         <v>9</v>
       </c>
       <c r="C876" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D876" s="8" t="s">
         <v>1199</v>
       </c>
-      <c r="D876" s="8" t="s">
+      <c r="E876" s="8" t="s">
         <v>1200</v>
-      </c>
-      <c r="E876" s="8" t="s">
-        <v>1201</v>
       </c>
     </row>
     <row r="877" spans="1:8" ht="127.5" x14ac:dyDescent="0.2">
@@ -16884,10 +17296,10 @@
         <v>72</v>
       </c>
       <c r="D877" s="8" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E877" s="8" t="s">
         <v>1202</v>
-      </c>
-      <c r="E877" s="8" t="s">
-        <v>1203</v>
       </c>
       <c r="F877" s="12" t="s">
         <v>471</v>
@@ -16901,7 +17313,7 @@
         <v>167</v>
       </c>
       <c r="D878" s="8" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="F878" s="12" t="s">
         <v>471</v>
@@ -16915,7 +17327,7 @@
         <v>22</v>
       </c>
       <c r="D879" s="8" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="880" spans="1:8" x14ac:dyDescent="0.2">
@@ -16926,7 +17338,7 @@
         <v>141</v>
       </c>
       <c r="D880" s="8" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="881" spans="2:6" x14ac:dyDescent="0.2">
@@ -16937,7 +17349,7 @@
         <v>141</v>
       </c>
       <c r="D881" s="8" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="882" spans="2:6" x14ac:dyDescent="0.2">
@@ -16948,7 +17360,7 @@
         <v>461</v>
       </c>
       <c r="D882" s="8" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="883" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
@@ -16962,7 +17374,7 @@
         <v>534</v>
       </c>
       <c r="E883" s="8" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="F883" s="12" t="s">
         <v>472</v>
@@ -16973,10 +17385,10 @@
         <v>9</v>
       </c>
       <c r="C884" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D884" s="8" t="s">
         <v>1209</v>
-      </c>
-      <c r="D884" s="8" t="s">
-        <v>1210</v>
       </c>
     </row>
     <row r="885" spans="2:6" x14ac:dyDescent="0.2">
@@ -16987,7 +17399,7 @@
         <v>429</v>
       </c>
       <c r="D885" s="8" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="886" spans="2:6" x14ac:dyDescent="0.2">
@@ -17009,7 +17421,7 @@
         <v>12</v>
       </c>
       <c r="D887" s="8" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="888" spans="2:6" x14ac:dyDescent="0.2">
@@ -17020,7 +17432,7 @@
         <v>167</v>
       </c>
       <c r="D888" s="8" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="889" spans="2:6" ht="153" x14ac:dyDescent="0.2">
@@ -17031,10 +17443,10 @@
         <v>289</v>
       </c>
       <c r="D889" s="8" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="E889" s="8" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="890" spans="2:6" x14ac:dyDescent="0.2">
@@ -17045,7 +17457,7 @@
         <v>167</v>
       </c>
       <c r="D890" s="8" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="891" spans="2:6" x14ac:dyDescent="0.2">
@@ -17056,7 +17468,7 @@
         <v>167</v>
       </c>
       <c r="D891" s="8" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="892" spans="2:6" x14ac:dyDescent="0.2">
@@ -17078,7 +17490,7 @@
         <v>167</v>
       </c>
       <c r="D893" s="8" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="894" spans="2:6" x14ac:dyDescent="0.2">
@@ -17086,10 +17498,10 @@
         <v>9</v>
       </c>
       <c r="C894" s="1" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="D894" s="1" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="895" spans="2:6" x14ac:dyDescent="0.2">
@@ -17100,7 +17512,7 @@
         <v>571</v>
       </c>
       <c r="D895" s="8" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="F895" s="12" t="s">
         <v>470</v>
@@ -17125,7 +17537,7 @@
         <v>24</v>
       </c>
       <c r="D897" s="8" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="898" spans="1:8" x14ac:dyDescent="0.2">
@@ -17136,7 +17548,7 @@
         <v>690</v>
       </c>
       <c r="D898" s="8" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="899" spans="1:8" x14ac:dyDescent="0.2">
@@ -17144,10 +17556,10 @@
         <v>9</v>
       </c>
       <c r="C899" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D899" s="8" t="s">
         <v>1223</v>
-      </c>
-      <c r="D899" s="8" t="s">
-        <v>1224</v>
       </c>
       <c r="F899" s="12" t="s">
         <v>471</v>
@@ -17161,7 +17573,7 @@
         <v>167</v>
       </c>
       <c r="D900" s="8" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="901" spans="1:8" x14ac:dyDescent="0.2">
@@ -17172,7 +17584,7 @@
         <v>83</v>
       </c>
       <c r="D901" s="8" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="902" spans="1:8" x14ac:dyDescent="0.2">
@@ -17183,7 +17595,7 @@
         <v>831</v>
       </c>
       <c r="D902" s="8" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="903" spans="1:8" x14ac:dyDescent="0.2">
@@ -17194,7 +17606,7 @@
         <v>32</v>
       </c>
       <c r="D903" s="8" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="904" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
@@ -17205,10 +17617,10 @@
         <v>83</v>
       </c>
       <c r="D904" s="8" t="s">
+        <v>1228</v>
+      </c>
+      <c r="E904" s="8" t="s">
         <v>1229</v>
-      </c>
-      <c r="E904" s="8" t="s">
-        <v>1230</v>
       </c>
       <c r="F904" s="12" t="s">
         <v>471</v>
@@ -17222,10 +17634,10 @@
         <v>336</v>
       </c>
       <c r="D905" s="8" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E905" s="8" t="s">
         <v>1231</v>
-      </c>
-      <c r="E905" s="8" t="s">
-        <v>1232</v>
       </c>
       <c r="F905" s="12" t="s">
         <v>470</v>
@@ -17239,12 +17651,12 @@
         <v>35</v>
       </c>
       <c r="D906" s="8" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="907" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A907" s="2" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B907" s="2" t="s">
         <v>345</v>
@@ -17253,7 +17665,7 @@
         <v>32</v>
       </c>
       <c r="D907" s="8" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="G907" s="4">
         <v>44614</v>
@@ -17270,7 +17682,7 @@
         <v>125</v>
       </c>
       <c r="D908" s="8" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="909" spans="1:8" x14ac:dyDescent="0.2">
@@ -17281,7 +17693,7 @@
         <v>31</v>
       </c>
       <c r="D909" s="8" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="910" spans="1:8" x14ac:dyDescent="0.2">
@@ -17292,7 +17704,7 @@
         <v>329</v>
       </c>
       <c r="D910" s="8" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="911" spans="1:8" x14ac:dyDescent="0.2">
@@ -17303,7 +17715,7 @@
         <v>20</v>
       </c>
       <c r="D911" s="8" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="F911" s="12" t="s">
         <v>471</v>
@@ -17317,7 +17729,7 @@
         <v>151</v>
       </c>
       <c r="D912" s="8" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="913" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
@@ -17328,10 +17740,10 @@
         <v>83</v>
       </c>
       <c r="D913" s="8" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E913" s="8" t="s">
         <v>1240</v>
-      </c>
-      <c r="E913" s="8" t="s">
-        <v>1241</v>
       </c>
       <c r="F913" s="12" t="s">
         <v>471</v>
@@ -17345,10 +17757,10 @@
         <v>910</v>
       </c>
       <c r="D914" s="8" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="E914" s="8" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="F914" s="12" t="s">
         <v>471</v>
@@ -17362,7 +17774,7 @@
         <v>94</v>
       </c>
       <c r="D915" s="8" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="916" spans="1:8" x14ac:dyDescent="0.2">
@@ -17373,7 +17785,7 @@
         <v>167</v>
       </c>
       <c r="D916" s="8" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="917" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -17384,10 +17796,10 @@
         <v>211</v>
       </c>
       <c r="D917" s="8" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E917" s="8" t="s">
         <v>1245</v>
-      </c>
-      <c r="E917" s="8" t="s">
-        <v>1246</v>
       </c>
       <c r="F917" s="12" t="s">
         <v>471</v>
@@ -17398,18 +17810,18 @@
         <v>34</v>
       </c>
       <c r="C918" s="1" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D918" s="8" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="E918" s="8" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="919" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A919" s="2" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="B919" s="2" t="s">
         <v>15</v>
@@ -17418,7 +17830,7 @@
         <v>35</v>
       </c>
       <c r="D919" s="8" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="920" spans="1:8" x14ac:dyDescent="0.2">
@@ -17426,10 +17838,10 @@
         <v>34</v>
       </c>
       <c r="C920" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D920" s="8" t="s">
         <v>1251</v>
-      </c>
-      <c r="D920" s="8" t="s">
-        <v>1252</v>
       </c>
       <c r="F920" s="12" t="s">
         <v>471</v>
@@ -17443,7 +17855,7 @@
         <v>167</v>
       </c>
       <c r="D921" s="8" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="922" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
@@ -17454,7 +17866,7 @@
         <v>72</v>
       </c>
       <c r="D922" s="8" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="923" spans="1:8" x14ac:dyDescent="0.2">
@@ -17468,7 +17880,7 @@
         <v>167</v>
       </c>
       <c r="D923" s="8" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="G923" s="4">
         <v>44618</v>
@@ -17482,10 +17894,10 @@
         <v>12</v>
       </c>
       <c r="C924" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D924" s="8" t="s">
         <v>1256</v>
-      </c>
-      <c r="D924" s="8" t="s">
-        <v>1257</v>
       </c>
     </row>
     <row r="925" spans="1:8" x14ac:dyDescent="0.2">
@@ -17496,7 +17908,7 @@
         <v>167</v>
       </c>
       <c r="D925" s="8" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="926" spans="1:8" x14ac:dyDescent="0.2">
@@ -17507,7 +17919,7 @@
         <v>20</v>
       </c>
       <c r="D926" s="8" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="F926" s="12" t="s">
         <v>471</v>
@@ -17521,7 +17933,7 @@
         <v>167</v>
       </c>
       <c r="D927" s="8" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="928" spans="1:8" x14ac:dyDescent="0.2">
@@ -17532,7 +17944,7 @@
         <v>83</v>
       </c>
       <c r="D928" s="8" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="929" spans="1:6" x14ac:dyDescent="0.2">
@@ -17540,10 +17952,10 @@
         <v>12</v>
       </c>
       <c r="C929" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D929" s="1" t="s">
         <v>1262</v>
-      </c>
-      <c r="D929" s="1" t="s">
-        <v>1263</v>
       </c>
     </row>
     <row r="930" spans="1:6" ht="102" x14ac:dyDescent="0.2">
@@ -17554,10 +17966,10 @@
         <v>72</v>
       </c>
       <c r="D930" s="8" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E930" s="8" t="s">
         <v>1264</v>
-      </c>
-      <c r="E930" s="8" t="s">
-        <v>1265</v>
       </c>
     </row>
     <row r="931" spans="1:6" ht="204" x14ac:dyDescent="0.2">
@@ -17565,13 +17977,13 @@
         <v>15</v>
       </c>
       <c r="C931" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D931" s="8" t="s">
         <v>1266</v>
       </c>
-      <c r="D931" s="8" t="s">
+      <c r="E931" s="8" t="s">
         <v>1267</v>
-      </c>
-      <c r="E931" s="8" t="s">
-        <v>1268</v>
       </c>
       <c r="F931" s="12" t="s">
         <v>470</v>
@@ -17582,13 +17994,13 @@
         <v>15</v>
       </c>
       <c r="C932" s="1" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="D932" s="8" t="s">
+        <v>1268</v>
+      </c>
+      <c r="E932" s="8" t="s">
         <v>1269</v>
-      </c>
-      <c r="E932" s="8" t="s">
-        <v>1270</v>
       </c>
     </row>
     <row r="933" spans="1:6" x14ac:dyDescent="0.2">
@@ -17599,7 +18011,7 @@
         <v>345</v>
       </c>
       <c r="D933" s="8" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="934" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
@@ -17613,7 +18025,7 @@
         <v>141</v>
       </c>
       <c r="D934" s="8" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="F934" s="12" t="s">
         <v>470</v>
@@ -17627,7 +18039,7 @@
         <v>167</v>
       </c>
       <c r="D935" s="8" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="936" spans="1:6" x14ac:dyDescent="0.2">
@@ -17635,10 +18047,10 @@
         <v>34</v>
       </c>
       <c r="C936" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D936" s="1" t="s">
         <v>1273</v>
-      </c>
-      <c r="D936" s="1" t="s">
-        <v>1274</v>
       </c>
     </row>
     <row r="937" spans="1:6" x14ac:dyDescent="0.2">
@@ -17649,7 +18061,7 @@
         <v>214</v>
       </c>
       <c r="D937" s="8" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="938" spans="1:6" x14ac:dyDescent="0.2">
@@ -17660,7 +18072,7 @@
         <v>94</v>
       </c>
       <c r="D938" s="8" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="939" spans="1:6" x14ac:dyDescent="0.2">
@@ -17668,7 +18080,7 @@
         <v>200</v>
       </c>
       <c r="C939" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D939" s="8" t="s">
         <v>400</v>
@@ -17682,7 +18094,7 @@
         <v>72</v>
       </c>
       <c r="D940" s="8" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="F940" s="12" t="s">
         <v>470</v>
@@ -17696,7 +18108,7 @@
         <v>167</v>
       </c>
       <c r="D941" s="8" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="942" spans="1:6" ht="153" x14ac:dyDescent="0.2">
@@ -17707,10 +18119,10 @@
         <v>339</v>
       </c>
       <c r="D942" s="8" t="s">
+        <v>1278</v>
+      </c>
+      <c r="E942" s="8" t="s">
         <v>1279</v>
-      </c>
-      <c r="E942" s="8" t="s">
-        <v>1280</v>
       </c>
       <c r="F942" s="12" t="s">
         <v>470</v>
@@ -17724,10 +18136,10 @@
         <v>339</v>
       </c>
       <c r="D943" s="8" t="s">
+        <v>1280</v>
+      </c>
+      <c r="E943" s="8" t="s">
         <v>1281</v>
-      </c>
-      <c r="E943" s="8" t="s">
-        <v>1282</v>
       </c>
       <c r="F943" s="12" t="s">
         <v>470</v>
@@ -17741,7 +18153,7 @@
         <v>167</v>
       </c>
       <c r="D944" s="8" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="945" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
@@ -17752,7 +18164,7 @@
         <v>56</v>
       </c>
       <c r="D945" s="8" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="946" spans="1:8" x14ac:dyDescent="0.2">
@@ -17760,10 +18172,10 @@
         <v>9</v>
       </c>
       <c r="C946" s="1" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="D946" s="1" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="947" spans="1:8" x14ac:dyDescent="0.2">
@@ -17774,7 +18186,7 @@
         <v>81</v>
       </c>
       <c r="D947" s="8" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="F947" s="12" t="s">
         <v>471</v>
@@ -17788,7 +18200,7 @@
         <v>81</v>
       </c>
       <c r="D948" s="8" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="F948" s="12" t="s">
         <v>471</v>
@@ -17802,7 +18214,7 @@
         <v>81</v>
       </c>
       <c r="D949" s="8" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="F949" s="12" t="s">
         <v>471</v>
@@ -17816,7 +18228,7 @@
         <v>81</v>
       </c>
       <c r="D950" s="8" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="F950" s="12" t="s">
         <v>471</v>
@@ -17827,10 +18239,10 @@
         <v>9</v>
       </c>
       <c r="C951" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D951" s="1" t="s">
         <v>1291</v>
-      </c>
-      <c r="D951" s="1" t="s">
-        <v>1292</v>
       </c>
     </row>
     <row r="952" spans="1:8" x14ac:dyDescent="0.2">
@@ -17852,7 +18264,7 @@
         <v>167</v>
       </c>
       <c r="D953" s="8" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="954" spans="1:8" x14ac:dyDescent="0.2">
@@ -17860,10 +18272,10 @@
         <v>37</v>
       </c>
       <c r="C954" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D954" s="8" t="s">
         <v>1294</v>
-      </c>
-      <c r="D954" s="8" t="s">
-        <v>1295</v>
       </c>
     </row>
     <row r="955" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
@@ -17877,7 +18289,7 @@
         <v>304</v>
       </c>
       <c r="D955" s="8" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="F955" s="12" t="s">
         <v>471</v>
@@ -17897,10 +18309,10 @@
         <v>72</v>
       </c>
       <c r="D956" s="8" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="E956" s="8" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="F956" s="12" t="s">
         <v>471</v>
@@ -17925,7 +18337,7 @@
         <v>56</v>
       </c>
       <c r="D958" s="8" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="959" spans="1:8" x14ac:dyDescent="0.2">
@@ -17936,10 +18348,10 @@
         <v>910</v>
       </c>
       <c r="D959" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="E959" s="8" t="s">
         <v>1300</v>
-      </c>
-      <c r="E959" s="8" t="s">
-        <v>1301</v>
       </c>
     </row>
     <row r="960" spans="1:8" x14ac:dyDescent="0.2">
@@ -17983,7 +18395,7 @@
         <v>777</v>
       </c>
       <c r="D963" s="1" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="964" spans="1:13" x14ac:dyDescent="0.2">
@@ -17994,12 +18406,21 @@
         <v>478</v>
       </c>
       <c r="D964" s="1" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="965" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A965" s="2" t="s">
-        <v>1304</v>
+        <v>1303</v>
+      </c>
+      <c r="B965" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C965" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D965" s="8" t="s">
+        <v>1306</v>
       </c>
       <c r="G965" s="4">
         <v>44636</v>
@@ -18008,7 +18429,1526 @@
         <v>60</v>
       </c>
       <c r="M965" s="1" t="s">
-        <v>1306</v>
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="966" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B966" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C966" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D966" s="8" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="967" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B967" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C967" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D967" s="8" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="968" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B968" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C968" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D968" s="8" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="969" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B969" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C969" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D969" s="8" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="970" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B970" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C970" s="1" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D970" s="1" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="971" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B971" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C971" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D971" s="1" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="972" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B972" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C972" s="1" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D972" s="1" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="973" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B973" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C973" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D973" s="1" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="974" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B974" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C974" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D974" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="975" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B975" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C975" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D975" s="1" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="976" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B976" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C976" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D976" s="8" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="977" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B977" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C977" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D977" s="8" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="978" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B978" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C978" s="1" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D978" s="1" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="979" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B979" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C979" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D979" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="980" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B980" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C980" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D980" s="1" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="981" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B981" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C981" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D981" s="8" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="982" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B982" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C982" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D982" s="8" t="s">
+        <v>1323</v>
+      </c>
+      <c r="F982" s="12" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="983" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B983" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C983" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D983" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="F983" s="12" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="984" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="B984" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C984" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D984" s="8" t="s">
+        <v>1325</v>
+      </c>
+      <c r="E984" s="8" t="s">
+        <v>1326</v>
+      </c>
+      <c r="F984" s="12" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="985" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A985" s="2" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B985" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C985" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D985" s="8" t="s">
+        <v>1328</v>
+      </c>
+      <c r="G985" s="4">
+        <v>44637</v>
+      </c>
+      <c r="M985" s="1" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="986" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B986" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C986" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D986" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="987" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B987" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C987" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D987" s="8" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="988" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B988" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C988" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D988" s="8" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="989" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B989" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C989" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D989" s="8" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="990" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B990" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C990" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D990" s="8" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="991" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B991" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C991" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D991" s="8" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="992" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B992" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C992" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D992" s="8" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="993" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B993" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C993" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D993" s="8" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="994" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B994" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C994" s="1" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D994" s="1" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="995" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B995" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C995" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D995" s="8" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="996" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B996" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C996" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D996" s="1" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="997" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B997" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C997" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="D997" s="1" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="998" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B998" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C998" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D998" s="8" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="999" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B999" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C999" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D999" s="1" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1000" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1000" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1000" s="1" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1001" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1001" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D1001" s="8" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:13" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="B1002" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1002" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D1002" s="8" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E1002" s="8" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F1002" s="12" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1003" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1003" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1003" s="1" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1004" s="2" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B1004" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1004" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D1004" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G1004" s="4">
+        <v>44641</v>
+      </c>
+      <c r="M1004" s="1" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1005" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1005" s="1" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D1005" s="1" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1006" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1006" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1006" s="8" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1007" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1007" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1007" s="8" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:13" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A1008" s="2" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B1008" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1008" s="1" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D1008" s="8" t="s">
+        <v>1354</v>
+      </c>
+      <c r="E1008" s="8" t="s">
+        <v>1355</v>
+      </c>
+      <c r="G1008" s="4">
+        <v>44699</v>
+      </c>
+      <c r="M1008" s="1" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1009" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1009" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1009" s="8" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1010" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1010" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1010" s="8" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1011" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1011" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1011" s="8" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1012" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1012" s="1" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D1012" s="8" t="s">
+        <v>1360</v>
+      </c>
+      <c r="F1012" s="12" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1013" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1013" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1013" s="8" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1014" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1014" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1014" s="8" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1015" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1015" s="1" t="s">
+        <v>1366</v>
+      </c>
+      <c r="D1015" s="8" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1016" s="2" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B1016" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C1016" s="1" t="s">
+        <v>1368</v>
+      </c>
+      <c r="D1016" s="8" t="s">
+        <v>1369</v>
+      </c>
+      <c r="G1016" s="4">
+        <v>44701</v>
+      </c>
+      <c r="H1016" s="2">
+        <v>25</v>
+      </c>
+      <c r="M1016" s="1" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1017" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1017" s="1" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D1017" s="1" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1018" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1018" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="D1018" s="1" t="s">
+        <v>1372</v>
+      </c>
+      <c r="F1018" s="12" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1019" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1019" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1019" s="8" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1020" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1020" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1020" s="1" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1021" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C1021" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="D1021" s="1" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1022" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1022" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1022" s="1" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1023" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1023" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="D1023" s="1" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1024" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C1024" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D1024" s="8" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A1025" s="2" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B1025" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1025" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1025" s="8" t="s">
+        <v>1361</v>
+      </c>
+      <c r="E1025" s="8" t="s">
+        <v>1362</v>
+      </c>
+      <c r="G1025" s="4">
+        <v>44915</v>
+      </c>
+      <c r="M1025" s="1" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1026" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1026" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1026" s="1" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1027" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1027" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1027" s="8" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1028" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1028" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1028" s="8" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1029" s="2" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B1029" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1029" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1029" s="8" t="s">
+        <v>1383</v>
+      </c>
+      <c r="G1029" s="4">
+        <v>44921</v>
+      </c>
+      <c r="H1029" s="2">
+        <v>80</v>
+      </c>
+      <c r="M1029" s="1" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1030" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1030" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1030" s="8" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B1031" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1031" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1031" s="8" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1032" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1032" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D1032" s="8" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1033" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1033" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="D1033" s="1" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1034" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1034" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1034" s="8" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1035" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1035" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D1035" s="8" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1036" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1036" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1036" s="8" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1037" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1037" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D1037" s="8" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1038" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1038" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1038" s="8" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1039" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1039" s="8" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D1039" s="8" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1040" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C1040" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="D1040" s="1" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1041" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1041" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D1041" s="8" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1042" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1042" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D1042" s="1" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1043" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1043" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1043" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1044" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1044" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1044" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1045" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1045" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1045" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1046" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1046" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1046" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1047" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1047" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="D1047" s="1" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1048" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1048" s="1" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D1048" s="1" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1049" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C1049" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1049" s="1" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1050" s="2" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B1050" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1050" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1050" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="G1050" s="4">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="B1051" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1051" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1051" s="8" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E1051" s="8" t="s">
+        <v>1405</v>
+      </c>
+      <c r="F1051" s="12" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1052" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1052" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1052" s="8" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1053" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1053" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1053" s="8" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1054" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1054" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1054" s="1" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1055" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1055" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D1055" s="1" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1056" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1056" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1056" s="1" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1057" s="2" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B1057" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1057" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1057" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="G1057" s="4">
+        <v>44954</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1058" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1058" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D1058" s="8" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1059" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C1059" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D1059" s="8" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1060" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1060" s="1" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D1060" s="8" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1061" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C1061" s="1" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D1061" s="1" t="s">
+        <v>1410</v>
+      </c>
+      <c r="F1061" s="12" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1062" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C1062" s="1" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D1062" s="1" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F1062" s="12" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1063" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1063" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D1063" s="1" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1064" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C1064" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1064" s="8" t="s">
+        <v>1413</v>
+      </c>
+      <c r="F1064" s="12" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1065" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C1065" s="1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D1065" s="1" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1066" s="2" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B1066" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1066" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1066" s="8" t="s">
+        <v>1418</v>
+      </c>
+      <c r="G1066" s="4">
+        <v>45021</v>
+      </c>
+      <c r="H1066" s="2">
+        <v>45</v>
+      </c>
+      <c r="M1066" s="1" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1067" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1067" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1067" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1068" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1068" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1068" s="8" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1069" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1069" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1069" s="8" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F1069" s="12" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1070" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1070" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1070" s="1" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1071" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1071" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1071" s="8" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1072" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1072" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1072" s="8" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="1073" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1073" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1073" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D1073" s="8" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="1074" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1074" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1074" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1074" s="8" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="1075" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1075" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1075" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1075" s="8" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="1076" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1076" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1076" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D1076" s="8" t="s">
+        <v>1424</v>
+      </c>
+      <c r="F1076" s="12" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="1077" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1077" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1077" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D1077" s="8" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="1078" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1078" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1078" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1078" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1078" s="12" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1079" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1079" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1079" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1079" s="1" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="1080" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1080" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1080" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1080" s="8" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="1081" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1081" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C1081" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D1081" s="8" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="1082" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1082" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1082" s="1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D1082" s="8" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="1083" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1083" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1083" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1083" s="1" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="1084" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1084" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1084" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D1084" s="1" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="1085" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1085" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1085" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D1085" s="1" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="1086" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1086" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C1086" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D1086" s="8" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="1087" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B1087" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1087" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1087" s="8" t="s">
+        <v>1435</v>
+      </c>
+      <c r="E1087" s="8" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F1087" s="12" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1088" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1088" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1088" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1088" s="8" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1089" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1089" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D1089" s="8" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1090" s="2" t="s">
+        <v>1303</v>
+      </c>
+      <c r="G1090" s="4">
+        <v>45247</v>
+      </c>
+      <c r="M1090" s="1" t="s">
+        <v>1437</v>
       </c>
     </row>
   </sheetData>
@@ -18021,13 +19961,13 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$2:$A$51</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B3252</xm:sqref>
+          <xm:sqref>B2:B3264</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$D$2:$D$6</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F3388</xm:sqref>
+          <xm:sqref>F2:F3400</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -18037,11 +19977,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -18215,41 +20153,46 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>45</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>200</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>34</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
         <v>434</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:A26">
+  <sortState ref="A2:D27">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/resources/Docs/Java-Interview-Questions.xlsx
+++ b/src/resources/Docs/Java-Interview-Questions.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3826" uniqueCount="1438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4554" uniqueCount="1643">
   <si>
     <t>Company</t>
   </si>
@@ -5621,6 +5621,674 @@
   </si>
   <si>
     <t>ANZ</t>
+  </si>
+  <si>
+    <t>Containers</t>
+  </si>
+  <si>
+    <t>What are Containers</t>
+  </si>
+  <si>
+    <t>Explain MS Architecture</t>
+  </si>
+  <si>
+    <t>Difference between JDBC vs JPA, Hibernate ORM</t>
+  </si>
+  <si>
+    <t>What is Lamda expression</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>JDBC Persistance</t>
+  </si>
+  <si>
+    <t>write a Microservice from scratch</t>
+  </si>
+  <si>
+    <t>Difference Between Runnable vs Callable</t>
+  </si>
+  <si>
+    <t>SAP</t>
+  </si>
+  <si>
+    <t>Difference Between Final vs Final Class</t>
+  </si>
+  <si>
+    <t>Search a number in LinkedList</t>
+  </si>
+  <si>
+    <t>What is Balanced Tree means</t>
+  </si>
+  <si>
+    <t>Tree</t>
+  </si>
+  <si>
+    <t>Sort an arraylist in programatically</t>
+  </si>
+  <si>
+    <t>Complexity Algorithm</t>
+  </si>
+  <si>
+    <t>What are web services</t>
+  </si>
+  <si>
+    <t>String str = new String ("abc");
+how many objects are created ? Where ?</t>
+  </si>
+  <si>
+    <t>Web services</t>
+  </si>
+  <si>
+    <t>ArrayList list = new ArrayList();
+where this object will be saved</t>
+  </si>
+  <si>
+    <t>What is immutable class</t>
+  </si>
+  <si>
+    <t>Difference between String vs StringBuilder</t>
+  </si>
+  <si>
+    <t>SingleTon explain</t>
+  </si>
+  <si>
+    <t>Binding</t>
+  </si>
+  <si>
+    <t>What is Static Binding</t>
+  </si>
+  <si>
+    <t>What is CompletableFuture</t>
+  </si>
+  <si>
+    <t>Callable</t>
+  </si>
+  <si>
+    <t>HTTP Status Codes</t>
+  </si>
+  <si>
+    <t>Which data structure you will choose for add, delete like operations</t>
+  </si>
+  <si>
+    <t>Vowels Count Program</t>
+  </si>
+  <si>
+    <t>Kaiser</t>
+  </si>
+  <si>
+    <t>JDK8 Features, Lambda expression</t>
+  </si>
+  <si>
+    <t>Difference between RestTemplate vs WebClient</t>
+  </si>
+  <si>
+    <t>Difference between GET vs POST
+Can we use POST instead of GET</t>
+  </si>
+  <si>
+    <t>Difference Between Inner Join &amp; Left Join</t>
+  </si>
+  <si>
+    <t>Spring Boot Features</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logs </t>
+  </si>
+  <si>
+    <t>write Junit for RestTemplate</t>
+  </si>
+  <si>
+    <t>Thermofisher</t>
+  </si>
+  <si>
+    <t>Print the Possible denominations, given coins are 1,2,5,10 for amount of 48
+Output: 10*4 + 5*1 + 2*1 + 1*1 = 48 --- coins 7</t>
+  </si>
+  <si>
+    <t>Nested loops simulate backtracking, but more efficient for fixed coin sizes.
+Output is printed in the desired denomination * count format.
+You can collect only minimum coin count combination if desired.</t>
+  </si>
+  <si>
+    <t>Employee : Id, Name, Salaray
+Dept: deptId, DeptName
+write a query print max salary for each department</t>
+  </si>
+  <si>
+    <t>RSA</t>
+  </si>
+  <si>
+    <t>Difference between Collection vs Collections</t>
+  </si>
+  <si>
+    <t>Blocking Queue</t>
+  </si>
+  <si>
+    <t>Rabbit MQ</t>
+  </si>
+  <si>
+    <t>Migration steps to follow for migrating from Monolith to Microservices</t>
+  </si>
+  <si>
+    <t>Program to Push and Pull to Queue
+When you push into queue and if it is Full it has to wait.
+When you pull from queue and if it is empty it has to wait.</t>
+  </si>
+  <si>
+    <t>Print Sum of elements in a list in Java 8</t>
+  </si>
+  <si>
+    <t>Examples of Memory Leaks</t>
+  </si>
+  <si>
+    <t>Garbage Collectors, Types of GC</t>
+  </si>
+  <si>
+    <t>Inter Service Communication between microservices</t>
+  </si>
+  <si>
+    <t>Difference Between Primitive vs Wrapper</t>
+  </si>
+  <si>
+    <t>Profiler</t>
+  </si>
+  <si>
+    <t>Explain Profiler in Java</t>
+  </si>
+  <si>
+    <t>HDFC</t>
+  </si>
+  <si>
+    <t>Merge given arrays into a single array</t>
+  </si>
+  <si>
+    <t>Max Step in a Jump program</t>
+  </si>
+  <si>
+    <t>Bank Application</t>
+  </si>
+  <si>
+    <t>System Design for Bank application</t>
+  </si>
+  <si>
+    <t>WayFair</t>
+  </si>
+  <si>
+    <t>Service Mesh</t>
+  </si>
+  <si>
+    <t>A service should give Response in JSON &amp; XML</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Annotation MediaType has to be used
+@GetMapping(value = "/{id}", produces = { </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>MediaType.APPLICATION_JSON_VALUE, MediaType.APPLICATION_XML_VALUE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> })
+public Employee getEmployee(@PathVariable int id)
+JSON is default via Jackson.E1173
+For XML, add JAXB + use @XmlRootElement.
+Use produces = { MediaType.JSON, XML } in controller.
+Spring auto-picks based on client Accept header.</t>
+    </r>
+  </si>
+  <si>
+    <t>Jenkins, Docker, K8S, YAML Files, Logs</t>
+  </si>
+  <si>
+    <t>EPAM</t>
+  </si>
+  <si>
+    <t>API takes 4 mins to respond. What is the approach to fix it</t>
+  </si>
+  <si>
+    <t>How many types of indexes. What is Table Scan</t>
+  </si>
+  <si>
+    <t>What are all the Annotations used in Spring Boot</t>
+  </si>
+  <si>
+    <t>Can we update a query with @Transactional annotation? Explain</t>
+  </si>
+  <si>
+    <t>What Happens Internally?
+@Modifying marks a query as an update/delete operation (not a select).
+Spring Data needs a transactional boundary to flush and commit changes.
+Without @Transactional, the query may run, but changes won’t be committed to DB unless already in a transaction.</t>
+  </si>
+  <si>
+    <t>What are generics</t>
+  </si>
+  <si>
+    <t>which all collections used, which Queue you have worked</t>
+  </si>
+  <si>
+    <t>HashMap Internal Working, Balanced Tree Means?, Load Factor</t>
+  </si>
+  <si>
+    <t>What is Functional Interface, Default Methods</t>
+  </si>
+  <si>
+    <t>Design Patterns you worked in Microservices
+Circuit Breaker -- 3 States in it</t>
+  </si>
+  <si>
+    <t>How would you deploy your application to production</t>
+  </si>
+  <si>
+    <t>where the GIT is configured in DEVOPS</t>
+  </si>
+  <si>
+    <t>Summation of List of Integers in Java 8</t>
+  </si>
+  <si>
+    <t>4th Highest Salary from a list of Employees in JDK8</t>
+  </si>
+  <si>
+    <t>Java Program to write number in words</t>
+  </si>
+  <si>
+    <t>Spring Security Implementation, JWT Implementation</t>
+  </si>
+  <si>
+    <t>Linked HashMap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explain about Linked HashMap </t>
+  </si>
+  <si>
+    <t>NESS</t>
+  </si>
+  <si>
+    <t>Can we have Default, Static Methods in Normal Interface</t>
+  </si>
+  <si>
+    <t>Difference between Executor Submit and Execute</t>
+  </si>
+  <si>
+    <t>CAP Theorem, Client Side Load Balancers</t>
+  </si>
+  <si>
+    <t>How do you configure extenal Server</t>
+  </si>
+  <si>
+    <t>Transactional Isolation, Propagation</t>
+  </si>
+  <si>
+    <t>Production Deployment</t>
+  </si>
+  <si>
+    <t>How to deploy an Spring Boot ear in external server? Do we need to do any changes ?</t>
+  </si>
+  <si>
+    <t>What is Serialization? REST API relation to it</t>
+  </si>
+  <si>
+    <t>Singleton and serialization created . Two same objects ?</t>
+  </si>
+  <si>
+    <t>Saarthi</t>
+  </si>
+  <si>
+    <t>Explain about the Project Modules &amp; Architecture</t>
+  </si>
+  <si>
+    <t>Multi Threading in your project ? Which scenario</t>
+  </si>
+  <si>
+    <t>How you handle the High Traffic? Different ways to handle it</t>
+  </si>
+  <si>
+    <t>Java Memory Model Explain</t>
+  </si>
+  <si>
+    <t>Challenges</t>
+  </si>
+  <si>
+    <t>Challenges you resolved in your project?</t>
+  </si>
+  <si>
+    <t>How did you achieved High Cohesion and low coupling in your project?</t>
+  </si>
+  <si>
+    <t>Where will you do the Auto Scaling configurations in K8S files</t>
+  </si>
+  <si>
+    <t>Broadridge</t>
+  </si>
+  <si>
+    <t>What are all the Object class methods</t>
+  </si>
+  <si>
+    <t>Difference between Collection and Collections</t>
+  </si>
+  <si>
+    <t>SOLID, Builder Pattern</t>
+  </si>
+  <si>
+    <t>HashMap Segments internally how it works. How to make synchronized</t>
+  </si>
+  <si>
+    <t>Creation of Threads. Sleep vs Wait</t>
+  </si>
+  <si>
+    <t>Roman To Integer or Integer to Roman</t>
+  </si>
+  <si>
+    <t>SQL query to delete Duplicate Rows</t>
+  </si>
+  <si>
+    <t>What is Streams API, Lambda Expression, Anonymous classes</t>
+  </si>
+  <si>
+    <t>Equals and Hashcode method</t>
+  </si>
+  <si>
+    <t>HashTable</t>
+  </si>
+  <si>
+    <t>HashSet Internal Implementation</t>
+  </si>
+  <si>
+    <t>How it is deployed</t>
+  </si>
+  <si>
+    <t>JDK8 Features, Functional Interface, Optional Class</t>
+  </si>
+  <si>
+    <t>Executor Framework Service, where you have used in your project</t>
+  </si>
+  <si>
+    <t>What is hash collision, Internal Structure change in JDK8</t>
+  </si>
+  <si>
+    <t>Bean Scopes explain</t>
+  </si>
+  <si>
+    <t>Steps to follow to migrate a Monolithic Application to Microservices Architecture
+Design Patterns to use for this</t>
+  </si>
+  <si>
+    <t>Write a RestController class  for Payment service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What if we have response as bulk data. How to handle this </t>
+  </si>
+  <si>
+    <t>Explain @SpringBootApplication, what happens internally</t>
+  </si>
+  <si>
+    <t>Explain @EnableAutoConfiguration, what happens internally. Spring.factories ?</t>
+  </si>
+  <si>
+    <t>Funtional Programming</t>
+  </si>
+  <si>
+    <t>What is Funtional Programming</t>
+  </si>
+  <si>
+    <t>How you trace the issue in production. Heap Dump</t>
+  </si>
+  <si>
+    <t>Difference between Heap Dump vs Thread Dump</t>
+  </si>
+  <si>
+    <t>Lead</t>
+  </si>
+  <si>
+    <t>Lead and Dev which one you will pick</t>
+  </si>
+  <si>
+    <t>Upgradation</t>
+  </si>
+  <si>
+    <t>App. Upgradation happening. Which one you will prioritize Security or User Access</t>
+  </si>
+  <si>
+    <t>Difference between Array and ArrayList</t>
+  </si>
+  <si>
+    <t>4 Pillars of OOPs</t>
+  </si>
+  <si>
+    <t>methods of object class</t>
+  </si>
+  <si>
+    <t>Difference between Wait() vs Sleep()</t>
+  </si>
+  <si>
+    <t>Explain about Concurrent HashMap</t>
+  </si>
+  <si>
+    <t>Output: HashMap: {JAVA=2}</t>
+  </si>
+  <si>
+    <t>String s1 = new String("JAVA");  String s2 = "JAVA";
+HashMap&lt;String, Integer&gt; map = new HashMap&lt;&gt;();
+ap.put(s1, 1); map.put(s2, 2);
+System.out.println("HashMap: " + map+"\n");
+what is output</t>
+  </si>
+  <si>
+    <t>Print the Max repeated word from a given list in JDK8</t>
+  </si>
+  <si>
+    <t>Access</t>
+  </si>
+  <si>
+    <t>Super Class Public method
+Child Class Protected Method
+Will it allow</t>
+  </si>
+  <si>
+    <t>attempting to assign weaker access privileges ('protected'); was 'public'
+No it will not allow</t>
+  </si>
+  <si>
+    <t>Exception Class Hierarchy</t>
+  </si>
+  <si>
+    <t>Functional Interface</t>
+  </si>
+  <si>
+    <t>In built Functional Interfaces? Return type of Predicate?</t>
+  </si>
+  <si>
+    <t>What are Spring Starters? Acutuator</t>
+  </si>
+  <si>
+    <t>Internal Service communication</t>
+  </si>
+  <si>
+    <t>Design Patterns you worked in Java, SOLID</t>
+  </si>
+  <si>
+    <t>Design Patterns you worked in Microservices, SAGA</t>
+  </si>
+  <si>
+    <t>Difference between JDK vs JRE</t>
+  </si>
+  <si>
+    <t>How to disable Auto Configuration in Spring Boot</t>
+  </si>
+  <si>
+    <t>Design Patterns you worked in Java, SingleTon</t>
+  </si>
+  <si>
+    <t>Make My Trip</t>
+  </si>
+  <si>
+    <t>System design for Make My Trip Application</t>
+  </si>
+  <si>
+    <t>How you deploy microservice in cloud</t>
+  </si>
+  <si>
+    <t>Explain the Disadvantages of Microservices</t>
+  </si>
+  <si>
+    <t>String and String Pool</t>
+  </si>
+  <si>
+    <t>String s1 = "Radha"; how many objects will be created where ?
+String s2 = new String("Krishna"); how many objects will be created where ?</t>
+  </si>
+  <si>
+    <t>Given two scentences in an array.
+Find the count of each word</t>
+  </si>
+  <si>
+    <t>SOLID explain. O -- Represents which Design Pattern</t>
+  </si>
+  <si>
+    <t>Strategy Template, Decorator design pattern</t>
+  </si>
+  <si>
+    <t>How many ways you can break single ton, fix it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the 3rd Highest salaried employee from a list </t>
+  </si>
+  <si>
+    <t>JWT Implementation , internal working detailly
+Explain JWT Generator Flow with the Algorithm, Encoders</t>
+  </si>
+  <si>
+    <t>Can we override static method? Final Method?</t>
+  </si>
+  <si>
+    <t>Collections used in java</t>
+  </si>
+  <si>
+    <t>Write code for Inter Service Communication</t>
+  </si>
+  <si>
+    <t>Annotations for Interceptor</t>
+  </si>
+  <si>
+    <t>Issues resolved in Spring Boot</t>
+  </si>
+  <si>
+    <t>Explain about Circuit Breaker</t>
+  </si>
+  <si>
+    <t>Swagger</t>
+  </si>
+  <si>
+    <t>What is Swagger, why we use it</t>
+  </si>
+  <si>
+    <t>Ascendion</t>
+  </si>
+  <si>
+    <t>NFR</t>
+  </si>
+  <si>
+    <t>What are Non Functional Requirements in System Design</t>
+  </si>
+  <si>
+    <t>SOLID explain. What Is LISKOV</t>
+  </si>
+  <si>
+    <t>What is Bulk Header Pattern, Transactional OutBox Pattern, CAP Theorem, 2PC</t>
+  </si>
+  <si>
+    <t>Any Cloud Experience</t>
+  </si>
+  <si>
+    <t>How to restrict thread count in a service</t>
+  </si>
+  <si>
+    <t>Create Asyn method. ThreadPoolTaskExecutor Bean</t>
+  </si>
+  <si>
+    <t>Explain about the @SpringBootApplication</t>
+  </si>
+  <si>
+    <t>What are oops concepts, how to achieve 100% abstarction</t>
+  </si>
+  <si>
+    <t>exception handling</t>
+  </si>
+  <si>
+    <t>explain string pool</t>
+  </si>
+  <si>
+    <t>Concurrent hashmap internal locking explain</t>
+  </si>
+  <si>
+    <t>print count of characters from a given string</t>
+  </si>
+  <si>
+    <t>print common employee objects from 2 different lists</t>
+  </si>
+  <si>
+    <t>design patterns used in spring boot</t>
+  </si>
+  <si>
+    <t>CQRS -&gt; one thread writes, one thread reads. how you achieve updated data</t>
+  </si>
+  <si>
+    <t>Transactional Isolation Levels. explain internal</t>
+  </si>
+  <si>
+    <t>Base Class has Class Not Found exception; child class extended it. What will happen</t>
+  </si>
+  <si>
+    <t>Method overloading</t>
+  </si>
+  <si>
+    <t>Parent class has Object as method parameter. Child class can send which all types?</t>
+  </si>
+  <si>
+    <t>Spring life cycle</t>
+  </si>
+  <si>
+    <t>spring bean scopes</t>
+  </si>
+  <si>
+    <t>try with resources explain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stream().collect() --&gt; collect() what it is </t>
+  </si>
+  <si>
+    <t>Marker Interface created ? which scenario</t>
+  </si>
+  <si>
+    <t>Hashmap</t>
+  </si>
+  <si>
+    <t>Jdk 8 features. StreamsAPI, Interfaces,FI</t>
+  </si>
+  <si>
+    <t>docker, k8s, dockerhub</t>
+  </si>
+  <si>
+    <t>Explain @Qualifier, @Primary -- scenario</t>
+  </si>
+  <si>
+    <t>Zensar</t>
   </si>
 </sst>
 </file>
@@ -5725,7 +6393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5762,6 +6430,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6043,11 +6714,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1090"/>
+  <dimension ref="A1:M1308"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1069" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1090" sqref="B1090"/>
+      <pane ySplit="1" topLeftCell="A1292" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1308" sqref="B1308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19944,11 +20615,2730 @@
       <c r="A1090" s="2" t="s">
         <v>1303</v>
       </c>
+      <c r="B1090" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C1090" s="1" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D1090" s="1" t="s">
+        <v>1439</v>
+      </c>
       <c r="G1090" s="4">
         <v>45247</v>
       </c>
       <c r="M1090" s="1" t="s">
         <v>1437</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1091" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1091" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D1091" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1092" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1092" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D1092" s="8" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1093" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1093" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1093" s="8" t="s">
+        <v>1441</v>
+      </c>
+      <c r="F1093" s="12" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1094" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1094" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D1094" s="1" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1095" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1095" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1095" s="8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1096" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1096" s="1" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D1096" s="8" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1097" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1097" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1097" s="8" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1098" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C1098" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1098" s="8" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1099" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1099" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1099" s="1" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1100" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1100" s="8" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1101" s="2" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B1101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1101" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1101" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="G1101" s="4">
+        <v>45251</v>
+      </c>
+      <c r="M1101" s="1" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1102" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1102" s="8" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1103" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1103" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1104" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1104" s="8" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1105" s="1" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D1105" s="8" t="s">
+        <v>1450</v>
+      </c>
+      <c r="F1105" s="12" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1106" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="D1106" s="8" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1107" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="D1107" s="8" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1108" s="1" t="s">
+        <v>1456</v>
+      </c>
+      <c r="D1108" s="8" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1109" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D1109" s="8" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B1110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1110" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1110" s="8" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B1111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1111" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1111" s="8" t="s">
+        <v>1457</v>
+      </c>
+      <c r="F1111" s="12" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1112" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1112" s="8" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1113" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1113" s="8" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1114" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D1114" s="1" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1115" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1115" s="1" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D1115" s="8" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1116" s="1" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D1116" s="1" t="s">
+        <v>1462</v>
+      </c>
+      <c r="F1116" s="12" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1117" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1117" s="8" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1118" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1118" s="8" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1119" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1119" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1119" s="8" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1120" s="2" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B1120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1120" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1120" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G1120" s="4">
+        <v>45252</v>
+      </c>
+      <c r="M1120" s="1" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1121" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1121" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D1121" s="8" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1122" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1122" s="8" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1123" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1123" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1124" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1124" s="8" t="s">
+        <v>1283</v>
+      </c>
+      <c r="F1124" s="12" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1125" s="2" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B1125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1125" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D1125" s="8" t="s">
+        <v>1469</v>
+      </c>
+      <c r="G1125" s="4">
+        <v>45273</v>
+      </c>
+      <c r="M1125" s="1" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1126" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1126" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1126" s="8" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1127" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1127" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D1127" s="1" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1128" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1128" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1128" s="8" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B1129" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1129" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1129" s="8" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1130" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1130" s="8" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1131" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1131" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1131" s="8" t="s">
+        <v>1472</v>
+      </c>
+      <c r="F1131" s="12" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1132" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1132" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="D1132" s="1" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1133" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1133" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1133" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1134" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1134" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D1134" s="8" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1135" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1135" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1135" s="8" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A1136" s="2" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B1136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1136" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1136" s="8" t="s">
+        <v>1477</v>
+      </c>
+      <c r="E1136" s="8" t="s">
+        <v>1478</v>
+      </c>
+      <c r="G1136" s="4">
+        <v>45303</v>
+      </c>
+      <c r="H1136" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B1137" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1137" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1137" s="8" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1138" s="2" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B1138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1138" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1138" s="8" t="s">
+        <v>1481</v>
+      </c>
+      <c r="F1138" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="G1138" s="4">
+        <v>45344</v>
+      </c>
+      <c r="H1138" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1139" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="D1139" s="8" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1140" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1140" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="D1140" s="8" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1141" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1141" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D1141" s="8" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B1142" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1142" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1142" s="8" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1143" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1143" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1143" s="8" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1144" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1144" s="8" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1145" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1145" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1145" s="8" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1146" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1146" s="8" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1147" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1147" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D1147" s="8" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1148" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1148" s="8" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1149" s="1" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D1149" s="8" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1150" s="2" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B1150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1150" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1150" s="8" t="s">
+        <v>1494</v>
+      </c>
+      <c r="G1150" s="4">
+        <v>45376</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1151" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1151" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1151" s="8" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1152" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1152" s="1" t="s">
+        <v>1496</v>
+      </c>
+      <c r="D1152" s="8" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1153" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C1153" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="D1153" s="1" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1154" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1154" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1154" s="8" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1155" s="2" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B1155" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1155" s="8" t="s">
+        <v>1499</v>
+      </c>
+      <c r="D1155" s="8" t="s">
+        <v>1499</v>
+      </c>
+      <c r="G1155" s="4">
+        <v>45441</v>
+      </c>
+      <c r="M1155" s="1" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:13" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="B1156" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1156" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="D1156" s="8" t="s">
+        <v>1500</v>
+      </c>
+      <c r="E1156" s="8" t="s">
+        <v>1501</v>
+      </c>
+      <c r="F1156" s="12" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1157" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1157" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D1157" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1158" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C1158" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="D1158" s="1" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1159" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1159" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1159" s="8" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1160" s="2" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B1160" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1160" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1160" s="8" t="s">
+        <v>1504</v>
+      </c>
+      <c r="G1160" s="4">
+        <v>45359</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1161" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1161" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1161" s="8" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1162" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1162" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D1162" s="8" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="B1163" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1163" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D1163" s="8" t="s">
+        <v>1507</v>
+      </c>
+      <c r="E1163" s="8" t="s">
+        <v>1508</v>
+      </c>
+      <c r="F1163" s="12" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1164" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1164" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="D1164" s="8" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1165" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1165" s="8" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1166" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1166" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1166" s="8" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1167" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1167" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D1167" s="8" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1168" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1168" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="D1168" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="F1168" s="12" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B1169" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1169" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1169" s="8" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1170" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C1170" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D1170" s="8" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1171" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C1171" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D1171" s="8" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1172" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1172" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1172" s="8" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1173" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1173" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1173" s="8" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1174" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1174" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1174" s="8" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1175" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1175" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1175" s="8" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1176" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1176" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1176" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1177" s="2" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B1177" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1177" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D1177" s="8" t="s">
+        <v>1523</v>
+      </c>
+      <c r="G1177" s="4">
+        <v>45721</v>
+      </c>
+      <c r="H1177" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1178" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1178" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1178" s="8" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1179" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1179" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1179" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1180" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1180" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1180" s="8" t="s">
+        <v>1525</v>
+      </c>
+      <c r="F1180" s="12" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1181" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1181" s="13" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D1181" s="8" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1182" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1182" s="13" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D1182" s="8" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1183" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1183" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D1183" s="8" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1184" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C1184" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D1184" s="8" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B1185" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C1185" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D1185" s="8" t="s">
+        <v>1529</v>
+      </c>
+      <c r="F1185" s="12" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1186" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1186" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D1186" s="8" t="s">
+        <v>1530</v>
+      </c>
+      <c r="F1186" s="12" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1187" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1187" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1187" s="8" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1188" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1188" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1188" s="8" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1189" s="2" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B1189" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1189" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1189" s="8" t="s">
+        <v>1533</v>
+      </c>
+      <c r="G1189" s="4">
+        <v>45727</v>
+      </c>
+      <c r="H1189" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1190" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1190" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1190" s="8" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1191" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1191" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1191" s="8" t="s">
+        <v>1534</v>
+      </c>
+      <c r="F1191" s="12" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1192" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C1192" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="D1192" s="1" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1193" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1193" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1193" s="8" t="s">
+        <v>1535</v>
+      </c>
+      <c r="F1193" s="12" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1194" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1194" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1194" s="8" t="s">
+        <v>1536</v>
+      </c>
+      <c r="F1194" s="12" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1195" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1195" s="1" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D1195" s="8" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1196" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1196" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="D1196" s="8" t="s">
+        <v>1539</v>
+      </c>
+      <c r="F1196" s="12" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1197" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1197" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1197" s="8" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1198" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C1198" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1198" s="8" t="s">
+        <v>1540</v>
+      </c>
+      <c r="F1198" s="12" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1199" s="2" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B1199" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1199" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="D1199" s="8" t="s">
+        <v>1542</v>
+      </c>
+      <c r="G1199" s="4">
+        <v>45730</v>
+      </c>
+      <c r="H1199" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1200" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1200" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1200" s="8" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1201" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1201" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1201" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1202" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1202" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1202" s="8" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1203" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1203" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1203" s="8" t="s">
+        <v>1545</v>
+      </c>
+      <c r="F1203" s="12" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1204" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1204" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1204" s="8" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1205" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1205" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1205" s="8" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1206" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1206" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1206" s="8" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1207" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1207" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1207" s="8" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1208" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1208" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1208" s="8" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1209" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1209" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="D1209" s="8" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1210" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1210" s="1" t="s">
+        <v>1551</v>
+      </c>
+      <c r="D1210" s="1" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1211" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1211" s="1" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D1211" s="1" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1212" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B1212" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1212" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1212" s="8" t="s">
+        <v>1425</v>
+      </c>
+      <c r="G1212" s="4">
+        <v>45735</v>
+      </c>
+      <c r="H1212" s="2">
+        <v>50</v>
+      </c>
+      <c r="I1212" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1213" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C1213" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D1213" s="8" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1214" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1214" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D1214" s="8" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1215" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1215" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1215" s="8" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1216" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1216" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1216" s="8" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1217" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1217" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1217" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1218" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1218" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1218" s="8" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1219" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1219" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D1219" s="1" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B1220" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1220" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D1220" s="8" t="s">
+        <v>1558</v>
+      </c>
+      <c r="F1220" s="12" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1221" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1221" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="D1221" s="8" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1222" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1222" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="D1222" s="8" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1223" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1223" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D1223" s="8" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1224" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1224" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D1224" s="8" t="s">
+        <v>1562</v>
+      </c>
+      <c r="F1224" s="12" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1225" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1225" s="1" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D1225" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="F1225" s="12" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1226" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1226" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1226" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1227" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1227" s="1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D1227" s="8" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1228" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1228" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1228" s="8" t="s">
+        <v>1566</v>
+      </c>
+      <c r="F1228" s="12" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1229" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B1229" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1229" s="1" t="s">
+        <v>1567</v>
+      </c>
+      <c r="D1229" s="8" t="s">
+        <v>1568</v>
+      </c>
+      <c r="G1229" s="4">
+        <v>45740</v>
+      </c>
+      <c r="H1229" s="2">
+        <v>25</v>
+      </c>
+      <c r="I1229" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1230" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1230" s="1" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D1230" s="8" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1231" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1231" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D1231" s="8" t="s">
+        <v>1570</v>
+      </c>
+      <c r="F1231" s="12" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1232" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B1232" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1232" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1232" s="8" t="s">
+        <v>1571</v>
+      </c>
+      <c r="G1232" s="4">
+        <v>45736</v>
+      </c>
+      <c r="H1232" s="2">
+        <v>60</v>
+      </c>
+      <c r="I1232" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1233" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1233" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1233" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1233" s="8" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="1234" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1234" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1234" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="D1234" s="8" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="1235" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1235" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1235" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1235" s="8" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="1236" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1236" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1236" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1236" s="8" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="1237" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1237" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1237" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1237" s="8" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="1238" spans="2:6" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="B1238" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1238" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1238" s="8" t="s">
+        <v>1577</v>
+      </c>
+      <c r="E1238" s="8" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="1239" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1239" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1239" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1239" s="8" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="1240" spans="2:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B1240" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1240" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D1240" s="8" t="s">
+        <v>1580</v>
+      </c>
+      <c r="E1240" s="8" t="s">
+        <v>1581</v>
+      </c>
+      <c r="F1240" s="12" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1241" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1241" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1241" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1241" s="8" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="1242" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1242" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1242" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1242" s="8" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="1243" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1243" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1243" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D1243" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="1244" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1244" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1244" s="1" t="s">
+        <v>1583</v>
+      </c>
+      <c r="D1244" s="8" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="1245" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1245" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1245" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1245" s="8" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="1246" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1246" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1246" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1246" s="8" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="1247" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1247" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1247" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D1247" s="8" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="1248" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1248" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1248" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D1248" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1249" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1249" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1249" s="8" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1250" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1250" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1250" s="8" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1251" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1251" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1251" s="8" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1252" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1252" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D1252" s="8" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1253" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1253" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1253" s="8" t="s">
+        <v>1589</v>
+      </c>
+      <c r="F1253" s="12" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1254" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1254" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="D1254" s="1" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1255" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1255" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1255" s="8" t="s">
+        <v>1590</v>
+      </c>
+      <c r="F1255" s="12" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1256" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B1256" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1256" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1256" s="8" t="s">
+        <v>1591</v>
+      </c>
+      <c r="G1256" s="4">
+        <v>45736</v>
+      </c>
+      <c r="H1256" s="2">
+        <v>40</v>
+      </c>
+      <c r="I1256" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1257" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1257" s="1" t="s">
+        <v>1592</v>
+      </c>
+      <c r="D1257" s="1" t="s">
+        <v>1593</v>
+      </c>
+      <c r="F1257" s="12" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1258" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C1258" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1258" s="1" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1259" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C1259" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D1259" s="8" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1260" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1260" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D1260" s="1" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1261" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B1261" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1261" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1261" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="G1261" s="4">
+        <v>45738</v>
+      </c>
+      <c r="H1261" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1262" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1262" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1262" s="8" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B1263" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1263" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1263" s="8" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1264" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1264" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1264" s="8" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B1265" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1265" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1265" s="8" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1266" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1266" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1266" s="8" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1267" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1267" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1267" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1268" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1268" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1268" s="8" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E1268" s="8" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1269" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1269" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D1269" s="8" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1270" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1270" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1270" s="8" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1271" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1271" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1271" s="8" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B1272" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1272" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1272" s="8" t="s">
+        <v>1603</v>
+      </c>
+      <c r="F1272" s="12" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1273" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1273" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="D1273" s="8" t="s">
+        <v>1604</v>
+      </c>
+      <c r="F1273" s="12" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1274" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1274" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1274" s="8" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1275" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B1275" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1275" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D1275" s="8" t="s">
+        <v>1606</v>
+      </c>
+      <c r="F1275" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="G1275" s="4">
+        <v>45750</v>
+      </c>
+      <c r="H1275" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1276" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1276" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D1276" s="8" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1277" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1277" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1277" s="8" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1278" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1278" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D1278" s="1" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1279" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1279" s="1" t="s">
+        <v>1610</v>
+      </c>
+      <c r="D1279" s="1" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1280" s="2" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B1280" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1280" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1280" s="8" t="s">
+        <v>1616</v>
+      </c>
+      <c r="F1280" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="G1280" s="4">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1281" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1281" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="D1281" s="8" t="s">
+        <v>863</v>
+      </c>
+      <c r="F1281" s="12" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1282" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1282" s="1" t="s">
+        <v>1613</v>
+      </c>
+      <c r="D1282" s="8" t="s">
+        <v>1614</v>
+      </c>
+      <c r="F1282" s="12" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1283" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1283" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1283" s="8" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1284" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1284" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1284" s="8" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1285" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1285" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1285" s="8" t="s">
+        <v>1618</v>
+      </c>
+      <c r="E1285" s="8" t="s">
+        <v>1619</v>
+      </c>
+      <c r="F1285" s="12" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1286" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1286" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D1286" s="8" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1287" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B1287" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1287" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1287" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="G1287" s="4">
+        <v>45752</v>
+      </c>
+      <c r="H1287" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1288" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1288" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1288" s="8" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1289" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1289" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1289" s="8" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1290" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1290" s="1" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D1290" s="8" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1291" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1291" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1291" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1292" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1292" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1292" s="8" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1293" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1293" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1293" s="8" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1294" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1294" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D1294" s="8" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1295" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1295" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1295" s="8" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1296" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1296" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1296" s="8" t="s">
+        <v>1628</v>
+      </c>
+      <c r="F1296" s="12" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1297" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1297" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D1297" s="8" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1298" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C1298" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D1298" s="8" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B1299" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1299" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="D1299" s="8" t="s">
+        <v>1630</v>
+      </c>
+      <c r="F1299" s="12" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1300" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1300" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1300" s="8" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B1301" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1301" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D1301" s="8" t="s">
+        <v>1632</v>
+      </c>
+      <c r="F1301" s="12" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1302" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1302" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D1302" s="8" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1303" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1303" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D1303" s="8" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1304" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1304" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1304" s="8" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1305" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1305" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1305" s="8" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1306" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1306" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D1306" s="8" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1307" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1307" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1307" s="8" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1308" s="2" t="s">
+        <v>1642</v>
+      </c>
+      <c r="G1308" s="4">
+        <v>45753</v>
+      </c>
+      <c r="H1308" s="2">
+        <v>45</v>
+      </c>
+      <c r="I1308" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
